--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ls13_mods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d027464\Documents\GitHub\GearboxAddon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="7800" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -219,6 +219,9 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -244,9 +247,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -477,55 +477,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>746.80555555555554</c:v>
+                  <c:v>1333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>849</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>935.47222222222217</c:v>
+                  <c:v>2133.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1006.2222222222222</c:v>
+                  <c:v>2333.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1061.25</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1100.5555555555554</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1124.1388888888889</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1132</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1125.6188725490197</c:v>
+                  <c:v>2287.6429738562092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1106.4754901960785</c:v>
+                  <c:v>2175.2859477124184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1074.5698529411764</c:v>
+                  <c:v>2062.9289215686276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1029.9019607843136</c:v>
+                  <c:v>1950.5718954248364</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>971.47279964617405</c:v>
+                  <c:v>1791.3415366146457</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>910.86134453781506</c:v>
+                  <c:v>1313.6504601840736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>848.37935174069639</c:v>
+                  <c:v>517.49866613311974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>765.48606361149109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>357.22682968536247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -608,8 +608,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368446496"/>
-        <c:axId val="368443752"/>
+        <c:axId val="335014272"/>
+        <c:axId val="335021328"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -791,55 +791,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.445956951716113</c:v>
+                  <c:v>132.9144851657941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.723769633507871</c:v>
+                  <c:v>205.06806282722513</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.89717277486912</c:v>
+                  <c:v>273.42408376963351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.29447353112278</c:v>
+                  <c:v>332.28621291448519</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.24397905759164</c:v>
+                  <c:v>375.95811518324609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.0739965095986</c:v>
+                  <c:v>410.13612565445027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.11283304246652</c:v>
+                  <c:v>444.3141361256545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225.68879581151836</c:v>
+                  <c:v>478.49214659685873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>240.4463350785341</c:v>
+                  <c:v>488.66928446771385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>252.1142059336824</c:v>
+                  <c:v>495.6463059918558</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>260.14717277486915</c:v>
+                  <c:v>499.42321116928446</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>263.99999999999994</c:v>
+                  <c:v>499.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>262.85714285714283</c:v>
+                  <c:v>484.69387755102036</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>259.42857142857144</c:v>
+                  <c:v>374.14965986394554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>253.71428571428572</c:v>
+                  <c:v>154.76190476190476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>239.82558139534885</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.00581395348837</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -922,11 +922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="368444928"/>
-        <c:axId val="368442184"/>
+        <c:axId val="335014664"/>
+        <c:axId val="335013880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368446496"/>
+        <c:axId val="335014272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368443752"/>
+        <c:crossAx val="335021328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,7 +991,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368443752"/>
+        <c:axId val="335021328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,12 +1048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368446496"/>
+        <c:crossAx val="335014272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368442184"/>
+        <c:axId val="335013880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1096,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368444928"/>
+        <c:crossAx val="335014664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="368444928"/>
+        <c:axId val="335014664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="368442184"/>
+        <c:crossAx val="335013880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,58 +1395,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217.55555555555554</c:v>
+                  <c:v>200.04938271604939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>215.55555555555554</c:v>
+                  <c:v>197.08641975308643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>214</c:v>
+                  <c:v>195.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.88888888888889</c:v>
+                  <c:v>194.12345679012347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212.22222222222223</c:v>
+                  <c:v>194.17355371900825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>212</c:v>
+                  <c:v>195.56198347107437</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>212.2488888888889</c:v>
+                  <c:v>198.3388429752066</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>212.99555555555557</c:v>
+                  <c:v>202.50413223140495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214.24</c:v>
+                  <c:v>208.05785123966942</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215.98222222222222</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>218.22222222222223</c:v>
+                  <c:v>232.55102040816325</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220.96</c:v>
+                  <c:v>285.20408163265307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>224.19555555555556</c:v>
+                  <c:v>372.9591836734694</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>229.53125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>321.34375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1528,11 +1528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="368441792"/>
-        <c:axId val="368444144"/>
+        <c:axId val="335015840"/>
+        <c:axId val="335019368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368441792"/>
+        <c:axId val="335015840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368444144"/>
+        <c:crossAx val="335019368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +1583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368444144"/>
+        <c:axId val="335019368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1636,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368441792"/>
+        <c:crossAx val="335015840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1909,11 +1909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368442968"/>
-        <c:axId val="368445320"/>
+        <c:axId val="335018584"/>
+        <c:axId val="335015448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368442968"/>
+        <c:axId val="335018584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -1972,12 +1972,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368445320"/>
+        <c:crossAx val="335015448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368445320"/>
+        <c:axId val="335015448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368442968"/>
+        <c:crossAx val="335018584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,11 +2295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368447280"/>
-        <c:axId val="368444536"/>
+        <c:axId val="297582488"/>
+        <c:axId val="335510816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368447280"/>
+        <c:axId val="297582488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -2358,12 +2358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368444536"/>
+        <c:crossAx val="335510816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368444536"/>
+        <c:axId val="335510816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368447280"/>
+        <c:crossAx val="297582488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4853,13 +4853,13 @@
     <tableColumn id="4" name="motor" dataDxfId="10">
       <calculatedColumnFormula>Table15[[#This Row],[pto]]/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="9">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</calculatedColumnFormula>
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="8">
+    <tableColumn id="5" name="xml" dataDxfId="9">
       <calculatedColumnFormula>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="7">
+    <tableColumn id="8" name="xml2" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4935,17 +4935,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="6">
+    <tableColumn id="6" name="kw_pto" dataDxfId="7">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="5">
+    <tableColumn id="3" name="ps" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="4">
+    <tableColumn id="5" name="xml" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="3">
+    <tableColumn id="8" name="xml2" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4979,16 +4979,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="2">
+    <tableColumn id="6" name="kw_pto" dataDxfId="3">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="1">
+    <tableColumn id="3" name="ps" dataDxfId="2">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="0">
+    <tableColumn id="5" name="xml" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5262,7 +5262,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I25"/>
+      <selection activeCell="I7" sqref="I7:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,22 +5339,22 @@
         <v>1800</v>
       </c>
       <c r="B2">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="D2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E2">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="F2">
         <v>1400</v>
       </c>
       <c r="G2">
-        <v>1132</v>
+        <v>2400</v>
       </c>
       <c r="H2">
         <v>800</v>
@@ -5363,10 +5363,10 @@
         <v>0.75</v>
       </c>
       <c r="J2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0.94</v>
@@ -5376,19 +5376,19 @@
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS]," | ",Table36[ratedRpm],": ",Table36[PS]," | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT]," | ",Table36[idleRatio]," | ",Table36[linearDown]," --&gt;")</f>
-        <v>&lt;!-- 1800: 264 | 2150: 250 | 1400..1400: 1132 | 0.75 | 0 --&gt;</v>
+        <v>&lt;!-- 1800: 500 | 1800: 500 | 1100..1400: 2400 | 0.75 | 1 --&gt;</v>
       </c>
       <c r="O2">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="P2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="Q2">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="R2">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5417,31 +5417,31 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>6.9444444444444448E-7</v>
+        <v>2.7777777777777779E-6</v>
       </c>
       <c r="B4">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>2.2548153537033219E-4</v>
+        <v>4.6815427559912878E-4</v>
       </c>
       <c r="C4">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>5.6370383842583041E-7</v>
+        <v>1.170385688997822E-6</v>
       </c>
       <c r="D4">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>1.1428571428571428E-4</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>1029.9019607843136</v>
+        <v>1950.5718954248364</v>
       </c>
       <c r="F4">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>816.51846785225712</v>
+        <v>1950.5718954248364</v>
       </c>
       <c r="G4" s="3">
         <f>Table36[idleRatio]*Table36[maxT]/Table7[Nm2]</f>
-        <v>1.0397805235602096</v>
+        <v>0.92280628272251319</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5501,12 +5501,12 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>220</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>204</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" fuelUsageRatio="220"/&gt;&lt;!-- 1800: 264 | 2150: 250 | 1400..1400: 1132 | 0.75 | 0 --&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" fuelUsageRatio="204"/&gt;&lt;!-- 1800: 500 | 1800: 500 | 1100..1400: 2400 | 0.75 | 1 --&gt;</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
@@ -5519,35 +5519,35 @@
       </c>
       <c r="B8">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>746.80555555555554</v>
+        <v>1333.3333333333335</v>
       </c>
       <c r="D8">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>701.99722222222215</v>
+        <v>1253.3333333333335</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>51.455293775450841</v>
+        <v>91.86736474694591</v>
       </c>
       <c r="F8" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>74.445956951716113</v>
+        <v>132.9144851657941</v>
       </c>
       <c r="G8">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>746.80555555555554</v>
+        <v>1333.3333333333335</v>
       </c>
       <c r="H8">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>220</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>204</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="747" fuelUsageRatio="220"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="1333" fuelUsageRatio="204"/&gt;</v>
       </c>
       <c r="J8" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.292" torque="0.66"/&gt;</v>
+        <v>&lt;torque normRpm="0.292" torque="0.556"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -5556,31 +5556,31 @@
       </c>
       <c r="B9">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>849</v>
+        <v>1800</v>
       </c>
       <c r="D9">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>798.06</v>
+        <v>1692</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>66.853193717277492</v>
+        <v>141.73821989528795</v>
       </c>
       <c r="F9" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>96.723769633507871</v>
+        <v>205.06806282722513</v>
       </c>
       <c r="G9">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>849</v>
+        <v>1800</v>
       </c>
       <c r="H9">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>220</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>204</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="849" fuelUsageRatio="220"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1800" fuelUsageRatio="204"/&gt;</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
@@ -5593,35 +5593,35 @@
       </c>
       <c r="B10">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>935.47222222222217</v>
+        <v>2133.333333333333</v>
       </c>
       <c r="D10">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>879.34388888888884</v>
+        <v>2005.333333333333</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>82.870104712041879</v>
+        <v>188.98429319371726</v>
       </c>
       <c r="F10" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>119.89717277486912</v>
+        <v>273.42408376963351</v>
       </c>
       <c r="G10">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>935.47222222222217</v>
+        <v>2133.333333333333</v>
       </c>
       <c r="H10">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>217.55555555555554</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>200.04938271604939</v>
       </c>
       <c r="I10" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="935" fuelUsageRatio="218"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="2133" fuelUsageRatio="200"/&gt;</v>
       </c>
       <c r="J10" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.375" torque="0.826"/&gt;</v>
+        <v>&lt;torque normRpm="0.375" torque="0.889"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -5630,35 +5630,35 @@
       </c>
       <c r="B11">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1006.2222222222222</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="D11">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>945.84888888888884</v>
+        <v>2193.3333333333335</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>99.041768470040722</v>
+        <v>229.66841186736477</v>
       </c>
       <c r="F11">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>143.29447353112278</v>
+        <v>332.28621291448519</v>
       </c>
       <c r="G11">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1006.2222222222222</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="H11">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>215.55555555555554</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>197.08641975308643</v>
       </c>
       <c r="I11" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1006" fuelUsageRatio="216"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="2333" fuelUsageRatio="197"/&gt;</v>
       </c>
       <c r="J11" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.417" torque="0.889"/&gt;</v>
+        <v>&lt;torque normRpm="0.417" torque="0.972"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5667,35 +5667,35 @@
       </c>
       <c r="B12">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1061.25</v>
+        <v>2400</v>
       </c>
       <c r="D12">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>997.57499999999993</v>
+        <v>2256</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>114.90392670157068</v>
+        <v>259.85340314136124</v>
       </c>
       <c r="F12">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>166.24397905759164</v>
+        <v>375.95811518324609</v>
       </c>
       <c r="G12">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1061.25</v>
+        <v>2400</v>
       </c>
       <c r="H12">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>214</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>195.11111111111111</v>
       </c>
       <c r="I12" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1061" fuelUsageRatio="214"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="2400" fuelUsageRatio="195"/&gt;</v>
       </c>
       <c r="J12" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.458" torque="0.938"/&gt;</v>
+        <v>&lt;torque normRpm="0.458" torque="1"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -5704,35 +5704,35 @@
       </c>
       <c r="B13">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1100.5555555555554</v>
+        <v>2400</v>
       </c>
       <c r="D13">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1034.5222222222221</v>
+        <v>2256</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>129.99232111692842</v>
+        <v>283.47643979057591</v>
       </c>
       <c r="F13">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>188.0739965095986</v>
+        <v>410.13612565445027</v>
       </c>
       <c r="G13">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1100.5555555555554</v>
+        <v>2400</v>
       </c>
       <c r="H13">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>212.88888888888889</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>194.12345679012347</v>
       </c>
       <c r="I13" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1101" fuelUsageRatio="213"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="2400" fuelUsageRatio="194"/&gt;</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.5" torque="0.972"/&gt;</v>
+        <v>&lt;torque normRpm="0.5" torque="1"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -5741,35 +5741,35 @@
       </c>
       <c r="B14">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1124.1388888888889</v>
+        <v>2400</v>
       </c>
       <c r="D14">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1056.6905555555554</v>
+        <v>2256</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>143.84269342641068</v>
+        <v>307.09947643979058</v>
       </c>
       <c r="F14">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>208.11283304246652</v>
+        <v>444.3141361256545</v>
       </c>
       <c r="G14">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1124.1388888888889</v>
+        <v>2400</v>
       </c>
       <c r="H14">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>212.22222222222223</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>194.17355371900825</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1124" fuelUsageRatio="212"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="2400" fuelUsageRatio="194"/&gt;</v>
       </c>
       <c r="J14" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.542" torque="0.993"/&gt;</v>
+        <v>&lt;torque normRpm="0.542" torque="1"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -5778,31 +5778,31 @@
       </c>
       <c r="B15">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1132</v>
+        <v>2400</v>
       </c>
       <c r="D15">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1064.08</v>
+        <v>2256</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>155.99078534031415</v>
+        <v>330.72251308900525</v>
       </c>
       <c r="F15">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>225.68879581151836</v>
+        <v>478.49214659685873</v>
       </c>
       <c r="G15">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1132</v>
+        <v>2400</v>
       </c>
       <c r="H15">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>212</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>195.56198347107437</v>
       </c>
       <c r="I15" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1132" fuelUsageRatio="212"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="2400" fuelUsageRatio="196"/&gt;</v>
       </c>
       <c r="J15" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
@@ -5815,35 +5815,35 @@
       </c>
       <c r="B16">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1125.6188725490197</v>
+        <v>2287.6429738562092</v>
       </c>
       <c r="D16">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1058.0817401960785</v>
+        <v>2150.3843954248364</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>166.19084924545737</v>
+        <v>337.75671132327273</v>
       </c>
       <c r="F16">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>240.4463350785341</v>
+        <v>488.66928446771385</v>
       </c>
       <c r="G16">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1125.6188725490197</v>
+        <v>2287.6429738562092</v>
       </c>
       <c r="H16">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>212.2488888888889</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>198.3388429752066</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1126" fuelUsageRatio="212"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="2288" fuelUsageRatio="198"/&gt;</v>
       </c>
       <c r="J16" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.625" torque="0.994"/&gt;</v>
+        <v>&lt;torque normRpm="0.625" torque="0.953"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5852,35 +5852,35 @@
       </c>
       <c r="B17">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1106.4754901960785</v>
+        <v>2175.2859477124184</v>
       </c>
       <c r="D17">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1040.0869607843138</v>
+        <v>2044.7687908496732</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>174.2554070423981</v>
+        <v>342.57906443554731</v>
       </c>
       <c r="F17">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>252.1142059336824</v>
+        <v>495.6463059918558</v>
       </c>
       <c r="G17">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1106.4754901960785</v>
+        <v>2175.2859477124184</v>
       </c>
       <c r="H17">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>212.99555555555557</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>202.50413223140495</v>
       </c>
       <c r="I17" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1106" fuelUsageRatio="213"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="2175" fuelUsageRatio="203"/&gt;</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.667" torque="0.977"/&gt;</v>
+        <v>&lt;torque normRpm="0.667" torque="0.906"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5889,35 +5889,35 @@
       </c>
       <c r="B18">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1074.5698529411764</v>
+        <v>2062.9289215686276</v>
       </c>
       <c r="D18">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1010.0956617647057</v>
+        <v>1939.1531862745098</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>179.80760471204187</v>
+        <v>345.18957242582894</v>
       </c>
       <c r="F18">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>260.14717277486915</v>
+        <v>499.42321116928446</v>
       </c>
       <c r="G18">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1074.5698529411764</v>
+        <v>2062.9289215686276</v>
       </c>
       <c r="H18">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>214.24</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>208.05785123966942</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1075" fuelUsageRatio="214"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="2063" fuelUsageRatio="208"/&gt;</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.708" torque="0.949"/&gt;</v>
+        <v>&lt;torque normRpm="0.708" torque="0.86"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,35 +5926,35 @@
       </c>
       <c r="B19">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1029.9019607843136</v>
+        <v>1950.5718954248364</v>
       </c>
       <c r="D19">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>968.10784313725469</v>
+        <v>1833.537581699346</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>182.47058823529406</v>
+        <v>345.58823529411757</v>
       </c>
       <c r="F19">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>263.99999999999994</v>
+        <v>499.99999999999994</v>
       </c>
       <c r="G19">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1029.9019607843136</v>
+        <v>1950.5718954248364</v>
       </c>
       <c r="H19">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>215.98222222222222</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>215</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1030" fuelUsageRatio="216"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1951" fuelUsageRatio="215"/&gt;</v>
       </c>
       <c r="J19" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.75" torque="0.91"/&gt;</v>
+        <v>&lt;torque normRpm="0.75" torque="0.813"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5963,35 +5963,35 @@
       </c>
       <c r="B20">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>971.47279964617405</v>
+        <v>1791.3415366146457</v>
       </c>
       <c r="D20">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>913.1844316674036</v>
+        <v>1683.8610444177668</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>181.68067226890753</v>
+        <v>335.0090036014405</v>
       </c>
       <c r="F20">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>262.85714285714283</v>
+        <v>484.69387755102036</v>
       </c>
       <c r="G20">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>971.47279964617405</v>
+        <v>1791.3415366146457</v>
       </c>
       <c r="H20">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>218.22222222222223</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>232.55102040816325</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="971" fuelUsageRatio="218"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="1791" fuelUsageRatio="233"/&gt;</v>
       </c>
       <c r="J20" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.792" torque="0.858"/&gt;</v>
+        <v>&lt;torque normRpm="0.792" torque="0.746"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6000,35 +6000,35 @@
       </c>
       <c r="B21">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>910.86134453781506</v>
+        <v>1313.6504601840736</v>
       </c>
       <c r="D21">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>856.20966386554608</v>
+        <v>1234.8314325730291</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>179.31092436974788</v>
+        <v>258.60344137655056</v>
       </c>
       <c r="F21">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>259.42857142857144</v>
+        <v>374.14965986394554</v>
       </c>
       <c r="G21">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>910.86134453781506</v>
+        <v>1313.6504601840736</v>
       </c>
       <c r="H21">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>220.96</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>285.20408163265307</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="911" fuelUsageRatio="221"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="1314" fuelUsageRatio="285"/&gt;</v>
       </c>
       <c r="J21" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.833" torque="0.805"/&gt;</v>
+        <v>&lt;torque normRpm="0.833" torque="0.547"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6037,35 +6037,35 @@
       </c>
       <c r="B22">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>848.37935174069628</v>
+        <v>517.49866613311974</v>
       </c>
       <c r="D22">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>797.47659063625451</v>
+        <v>486.44874616513255</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>175.36134453781511</v>
+        <v>106.9677871148459</v>
       </c>
       <c r="F22">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>253.71428571428572</v>
+        <v>154.76190476190476</v>
       </c>
       <c r="G22">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>848.37935174069639</v>
+        <v>517.49866613311974</v>
       </c>
       <c r="H22">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>224.19555555555556</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>372.9591836734694</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="848" fuelUsageRatio="224"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="517" fuelUsageRatio="373"/&gt;</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.875" torque="0.749"/&gt;</v>
+        <v>&lt;torque normRpm="0.875" torque="0.216"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6074,35 +6074,35 @@
       </c>
       <c r="B23">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>765.48606361149109</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>719.55689979480155</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>165.76179890560874</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>239.82558139534885</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>765.48606361149109</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>229.53125</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>0</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="765" fuelUsageRatio="230"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
       </c>
       <c r="J23" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.917" torque="0.676"/&gt;</v>
+        <v>&lt;torque normRpm="0.917" torque="0"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6111,35 +6111,35 @@
       </c>
       <c r="B24">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>357.22682968536247</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>335.79321990424069</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>80.87166552667577</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>117.00581395348837</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>357.22682968536247</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
-        <v>321.34375</v>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
+        <v>0</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="357" fuelUsageRatio="321"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
       </c>
       <c r="J24" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.958" torque="0.316"/&gt;</v>
+        <v>&lt;torque normRpm="0.958" torque="0"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I25" s="5" t="str">
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I26" s="5" t="str">
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I27" s="5" t="str">
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I28" s="5" t="str">
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I29" s="5" t="str">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I30" s="5" t="str">
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I31" s="5" t="str">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I32" s="5" t="str">
@@ -6470,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I33" s="5" t="str">
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I34" s="5" t="str">
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I35" s="5" t="str">
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I36" s="5" t="str">
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I37" s="5" t="str">
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I38" s="5" t="str">
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I39" s="5" t="str">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I40" s="5" t="str">
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I41" s="5" t="str">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I42" s="5" t="str">
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I43" s="5" t="str">
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I44" s="5" t="str">
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I45" s="5" t="str">
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^3,0))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
         <v>0</v>
       </c>
       <c r="I46" s="5" t="str">

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="9360" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -219,9 +219,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -247,6 +244,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -477,58 +477,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1333.3333333333335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1800</c:v>
+                  <c:v>262.39999999999986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2133.333333333333</c:v>
+                  <c:v>506.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2333.3333333333335</c:v>
+                  <c:v>680.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2400</c:v>
+                  <c:v>785.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2400</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2400</c:v>
+                  <c:v>807.6846209409581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2400</c:v>
+                  <c:v>793.57791401878262</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2287.6429738562092</c:v>
+                  <c:v>777.67987923347403</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2175.2859477124184</c:v>
+                  <c:v>759.99051658503197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2062.9289215686276</c:v>
+                  <c:v>740.50982607345645</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1950.5718954248364</c:v>
+                  <c:v>719.23780769874759</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1791.3415366146457</c:v>
+                  <c:v>696.17446146090538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1313.6504601840736</c:v>
+                  <c:v>671.31978735992982</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>517.49866613311974</c:v>
+                  <c:v>641.74659762895044</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>606.45053475935822</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>539.06714200831834</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>336.91696375519905</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -608,8 +608,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335014272"/>
-        <c:axId val="335021328"/>
+        <c:axId val="289520224"/>
+        <c:axId val="289522184"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -791,58 +791,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132.9144851657941</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205.06806282722513</c:v>
+                  <c:v>29.894366492146588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.42408376963351</c:v>
+                  <c:v>64.897633507853399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332.28621291448519</c:v>
+                  <c:v>96.923141361256569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>375.95811518324609</c:v>
+                  <c:v>122.99313089005237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>410.13612565445027</c:v>
+                  <c:v>140.12984293193719</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>444.3141361256545</c:v>
+                  <c:v>149.52737275639936</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>478.49214659685873</c:v>
+                  <c:v>158.21699982112693</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>488.66928446771385</c:v>
+                  <c:v>166.12219409804052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>495.6463059918558</c:v>
+                  <c:v>173.16642555906068</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>499.42321116928446</c:v>
+                  <c:v>179.273164176108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>499.99999999999994</c:v>
+                  <c:v>184.36587992110307</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>484.69387755102036</c:v>
+                  <c:v>188.36804276596644</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>374.14965986394554</c:v>
+                  <c:v>191.20312268261878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154.76190476190476</c:v>
+                  <c:v>191.91919191919192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>176.56565656565652</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>115.15151515151516</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -922,11 +922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="335014664"/>
-        <c:axId val="335013880"/>
+        <c:axId val="289522576"/>
+        <c:axId val="289519048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335014272"/>
+        <c:axId val="289520224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335021328"/>
+        <c:crossAx val="289522184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -991,7 +991,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335021328"/>
+        <c:axId val="289522184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,12 +1048,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335014272"/>
+        <c:crossAx val="289520224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="335013880"/>
+        <c:axId val="289519048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1096,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335014664"/>
+        <c:crossAx val="289522576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="335014664"/>
+        <c:axId val="289522576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="335013880"/>
+        <c:crossAx val="289519048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,64 +1395,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>204</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200.04938271604939</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197.08641975308643</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195.11111111111111</c:v>
+                  <c:v>243.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194.12345679012347</c:v>
+                  <c:v>231.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>194.17355371900825</c:v>
+                  <c:v>222.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>195.56198347107437</c:v>
+                  <c:v>216.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>198.3388429752066</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202.50413223140495</c:v>
+                  <c:v>215.32653061224491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.05785123966942</c:v>
+                  <c:v>216.30612244897958</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215</c:v>
+                  <c:v>217.9387755102041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232.55102040816325</c:v>
+                  <c:v>220.22448979591837</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>285.20408163265307</c:v>
+                  <c:v>223.16326530612244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>372.9591836734694</c:v>
+                  <c:v>226.75510204081633</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>256.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>333.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>462</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1528,11 +1528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="335015840"/>
-        <c:axId val="335019368"/>
+        <c:axId val="289519440"/>
+        <c:axId val="289524536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335015840"/>
+        <c:axId val="289519440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335019368"/>
+        <c:crossAx val="289524536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +1583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335019368"/>
+        <c:axId val="289524536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1636,7 +1636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335015840"/>
+        <c:crossAx val="289519440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1909,11 +1909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="335018584"/>
-        <c:axId val="335015448"/>
+        <c:axId val="289519832"/>
+        <c:axId val="289523360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="335018584"/>
+        <c:axId val="289519832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -1972,12 +1972,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335015448"/>
+        <c:crossAx val="289523360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="335015448"/>
+        <c:axId val="289523360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335018584"/>
+        <c:crossAx val="289519832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,11 +2295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="297582488"/>
-        <c:axId val="335510816"/>
+        <c:axId val="357515944"/>
+        <c:axId val="357521432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="297582488"/>
+        <c:axId val="357515944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -2358,12 +2358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335510816"/>
+        <c:crossAx val="357521432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="335510816"/>
+        <c:axId val="357521432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297582488"/>
+        <c:crossAx val="357515944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4853,13 +4853,13 @@
     <tableColumn id="4" name="motor" dataDxfId="10">
       <calculatedColumnFormula>Table15[[#This Row],[pto]]/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="0">
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="9">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="9">
+    <tableColumn id="5" name="xml" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="8">
+    <tableColumn id="8" name="xml2" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4872,7 +4872,9 @@
   <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="10" name="maxPRpm"/>
-    <tableColumn id="14" name="maxPS"/>
+    <tableColumn id="14" name="maxPS">
+      <calculatedColumnFormula>190*133.5/132</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
     <tableColumn id="12" name="maxTRpm1"/>
@@ -4935,17 +4937,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="7">
+    <tableColumn id="6" name="kw_pto" dataDxfId="6">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="6">
+    <tableColumn id="3" name="ps" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="5">
+    <tableColumn id="5" name="xml" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="4">
+    <tableColumn id="8" name="xml2" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4979,16 +4981,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="3">
+    <tableColumn id="6" name="kw_pto" dataDxfId="2">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="2">
+    <tableColumn id="3" name="ps" dataDxfId="1">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="1">
+    <tableColumn id="5" name="xml" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5262,7 +5264,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I23"/>
+      <selection activeCell="I7" sqref="I7:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5336,37 +5338,38 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1800</v>
+        <v>2050</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <f>190*133.5/132</f>
+        <v>192.15909090909091</v>
       </c>
       <c r="C2">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="E2">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F2">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>820</v>
       </c>
       <c r="H2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="3">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="J2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
         <v>0.94</v>
@@ -5376,19 +5379,19 @@
       </c>
       <c r="N2" t="str">
         <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS]," | ",Table36[ratedRpm],": ",Table36[PS]," | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT]," | ",Table36[idleRatio]," | ",Table36[linearDown]," --&gt;")</f>
-        <v>&lt;!-- 1800: 500 | 1800: 500 | 1100..1400: 2400 | 0.75 | 1 --&gt;</v>
+        <v>&lt;!-- 2050: 192.159090909091 | 2200: 190 | 1200..1200: 820 | 0.83 | 0.6 --&gt;</v>
       </c>
       <c r="O2">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="P2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q2">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="R2">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5417,31 +5420,31 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>2.7777777777777779E-6</v>
+        <v>4.2500000000000008E-6</v>
       </c>
       <c r="B4">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>4.6815427559912878E-4</v>
+        <v>2.321080310462454E-4</v>
       </c>
       <c r="C4">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.170385688997822E-6</v>
+        <v>2.7306827181911222E-7</v>
       </c>
       <c r="D4">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>0</v>
+        <v>9.5959595959595848E-5</v>
       </c>
       <c r="E4">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>1950.5718954248364</v>
+        <v>658.22070236076695</v>
       </c>
       <c r="F4">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>1950.5718954248364</v>
+        <v>606.45053475935822</v>
       </c>
       <c r="G4" s="3">
         <f>Table36[idleRatio]*Table36[maxT]/Table7[Nm2]</f>
-        <v>0.92280628272251319</v>
+        <v>1.1222679526040233</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -5502,11 +5505,11 @@
       </c>
       <c r="H7">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="I7" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" fuelUsageRatio="204"/&gt;&lt;!-- 1800: 500 | 1800: 500 | 1100..1400: 2400 | 0.75 | 1 --&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" fuelUsageRatio="260"/&gt;&lt;!-- 2050: 192.159090909091 | 2200: 190 | 1200..1200: 820 | 0.83 | 0.6 --&gt;</v>
       </c>
       <c r="J7" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
@@ -5519,35 +5522,35 @@
       </c>
       <c r="B8">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1253.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>91.86736474694591</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>132.9144851657941</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1333.3333333333335</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="I8" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="1333" fuelUsageRatio="204"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="0" fuelUsageRatio="260"/&gt;</v>
       </c>
       <c r="J8" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.292" torque="0.556"/&gt;</v>
+        <v>&lt;torque normRpm="0.292" torque="0"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -5556,35 +5559,35 @@
       </c>
       <c r="B9">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1800</v>
+        <v>262.39999999999986</v>
       </c>
       <c r="D9">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1692</v>
+        <v>246.65599999999986</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>141.73821989528795</v>
+        <v>20.66228272251308</v>
       </c>
       <c r="F9" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>205.06806282722513</v>
+        <v>29.894366492146588</v>
       </c>
       <c r="G9">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1800</v>
+        <v>262.39999999999986</v>
       </c>
       <c r="H9">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="I9" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1800" fuelUsageRatio="204"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="262" fuelUsageRatio="260"/&gt;</v>
       </c>
       <c r="J9" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.333" torque="0.75"/&gt;</v>
+        <v>&lt;torque normRpm="0.333" torque="0.32"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -5593,35 +5596,35 @@
       </c>
       <c r="B10">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2133.333333333333</v>
+        <v>506.34999999999997</v>
       </c>
       <c r="D10">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2005.333333333333</v>
+        <v>475.96899999999994</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>188.98429319371726</v>
+        <v>44.855717277486903</v>
       </c>
       <c r="F10" s="1">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>273.42408376963351</v>
+        <v>64.897633507853399</v>
       </c>
       <c r="G10">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2133.333333333333</v>
+        <v>506.34999999999997</v>
       </c>
       <c r="H10">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>200.04938271604939</v>
+        <v>260</v>
       </c>
       <c r="I10" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="2133" fuelUsageRatio="200"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="506" fuelUsageRatio="260"/&gt;</v>
       </c>
       <c r="J10" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.375" torque="0.889"/&gt;</v>
+        <v>&lt;torque normRpm="0.375" torque="0.618"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -5630,35 +5633,35 @@
       </c>
       <c r="B11">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2333.3333333333335</v>
+        <v>680.6</v>
       </c>
       <c r="D11">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2193.3333333333335</v>
+        <v>639.76400000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>229.66841186736477</v>
+        <v>66.990994764397911</v>
       </c>
       <c r="F11">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>332.28621291448519</v>
+        <v>96.923141361256569</v>
       </c>
       <c r="G11">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2333.3333333333335</v>
+        <v>680.6</v>
       </c>
       <c r="H11">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>197.08641975308643</v>
+        <v>260</v>
       </c>
       <c r="I11" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="2333" fuelUsageRatio="197"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="681" fuelUsageRatio="260"/&gt;</v>
       </c>
       <c r="J11" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.417" torque="0.972"/&gt;</v>
+        <v>&lt;torque normRpm="0.417" torque="0.83"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -5667,35 +5670,35 @@
       </c>
       <c r="B12">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2400</v>
+        <v>785.15</v>
       </c>
       <c r="D12">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2256</v>
+        <v>738.04099999999994</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>259.85340314136124</v>
+        <v>85.009958115183238</v>
       </c>
       <c r="F12">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>375.95811518324609</v>
+        <v>122.99313089005237</v>
       </c>
       <c r="G12">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2400</v>
+        <v>785.15</v>
       </c>
       <c r="H12">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>195.11111111111111</v>
+        <v>243.8</v>
       </c>
       <c r="I12" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="2400" fuelUsageRatio="195"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="785" fuelUsageRatio="244"/&gt;</v>
       </c>
       <c r="J12" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.458" torque="1"/&gt;</v>
+        <v>&lt;torque normRpm="0.458" torque="0.958"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -5704,31 +5707,31 @@
       </c>
       <c r="B13">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2400</v>
+        <v>820</v>
       </c>
       <c r="D13">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2256</v>
+        <v>770.8</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>283.47643979057591</v>
+        <v>96.854450261780102</v>
       </c>
       <c r="F13">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>410.13612565445027</v>
+        <v>140.12984293193719</v>
       </c>
       <c r="G13">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2400</v>
+        <v>820</v>
       </c>
       <c r="H13">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>194.12345679012347</v>
+        <v>231.2</v>
       </c>
       <c r="I13" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="2400" fuelUsageRatio="194"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="820" fuelUsageRatio="231"/&gt;</v>
       </c>
       <c r="J13" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
@@ -5741,35 +5744,35 @@
       </c>
       <c r="B14">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2400</v>
+        <v>807.6846209409581</v>
       </c>
       <c r="D14">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2256</v>
+        <v>759.22354368450056</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>307.09947643979058</v>
+        <v>103.34980175809956</v>
       </c>
       <c r="F14">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>444.3141361256545</v>
+        <v>149.52737275639936</v>
       </c>
       <c r="G14">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2400</v>
+        <v>807.6846209409581</v>
       </c>
       <c r="H14">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>194.17355371900825</v>
+        <v>222.2</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="2400" fuelUsageRatio="194"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="808" fuelUsageRatio="222"/&gt;</v>
       </c>
       <c r="J14" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.542" torque="1"/&gt;</v>
+        <v>&lt;torque normRpm="0.542" torque="0.985"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -5778,35 +5781,35 @@
       </c>
       <c r="B15">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2400</v>
+        <v>793.57791401878262</v>
       </c>
       <c r="D15">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2256</v>
+        <v>745.96323917765562</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>330.72251308900525</v>
+        <v>109.35586752342596</v>
       </c>
       <c r="F15">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>478.49214659685873</v>
+        <v>158.21699982112693</v>
       </c>
       <c r="G15">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2400</v>
+        <v>793.57791401878262</v>
       </c>
       <c r="H15">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>195.56198347107437</v>
+        <v>216.8</v>
       </c>
       <c r="I15" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="2400" fuelUsageRatio="196"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="794" fuelUsageRatio="217"/&gt;</v>
       </c>
       <c r="J15" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.583" torque="1"/&gt;</v>
+        <v>&lt;torque normRpm="0.583" torque="0.968"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -5815,35 +5818,35 @@
       </c>
       <c r="B16">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2287.6429738562092</v>
+        <v>777.67987923347403</v>
       </c>
       <c r="D16">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2150.3843954248364</v>
+        <v>731.0190864794655</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>337.75671132327273</v>
+        <v>114.8197518030574</v>
       </c>
       <c r="F16">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>488.66928446771385</v>
+        <v>166.12219409804052</v>
       </c>
       <c r="G16">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2287.6429738562092</v>
+        <v>777.67987923347403</v>
       </c>
       <c r="H16">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>198.3388429752066</v>
+        <v>215</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="2288" fuelUsageRatio="198"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="778" fuelUsageRatio="215"/&gt;</v>
       </c>
       <c r="J16" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.625" torque="0.953"/&gt;</v>
+        <v>&lt;torque normRpm="0.625" torque="0.948"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5852,35 +5855,35 @@
       </c>
       <c r="B17">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2175.2859477124184</v>
+        <v>759.99051658503186</v>
       </c>
       <c r="D17">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>2044.7687908496732</v>
+        <v>714.39108558992996</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>342.57906443554731</v>
+        <v>119.68855884229194</v>
       </c>
       <c r="F17">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>495.6463059918558</v>
+        <v>173.16642555906068</v>
       </c>
       <c r="G17">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2175.2859477124184</v>
+        <v>759.99051658503197</v>
       </c>
       <c r="H17">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>202.50413223140495</v>
+        <v>215.32653061224491</v>
       </c>
       <c r="I17" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="2175" fuelUsageRatio="203"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="760" fuelUsageRatio="215"/&gt;</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.667" torque="0.906"/&gt;</v>
+        <v>&lt;torque normRpm="0.667" torque="0.927"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5889,35 +5892,35 @@
       </c>
       <c r="B18">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>2062.9289215686276</v>
+        <v>740.50982607345645</v>
       </c>
       <c r="D18">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1939.1531862745098</v>
+        <v>696.079236509049</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>345.18957242582894</v>
+        <v>123.90939288642757</v>
       </c>
       <c r="F18">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>499.42321116928446</v>
+        <v>179.273164176108</v>
       </c>
       <c r="G18">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>2062.9289215686276</v>
+        <v>740.50982607345645</v>
       </c>
       <c r="H18">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>208.05785123966942</v>
+        <v>216.30612244897958</v>
       </c>
       <c r="I18" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="2063" fuelUsageRatio="208"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="741" fuelUsageRatio="216"/&gt;</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.708" torque="0.86"/&gt;</v>
+        <v>&lt;torque normRpm="0.708" torque="0.903"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,35 +5929,35 @@
       </c>
       <c r="B19">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1950.5718954248364</v>
+        <v>719.23780769874759</v>
       </c>
       <c r="D19">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1833.537581699346</v>
+        <v>676.08353923682273</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>345.58823529411757</v>
+        <v>127.42935818076241</v>
       </c>
       <c r="F19">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>499.99999999999994</v>
+        <v>184.36587992110307</v>
       </c>
       <c r="G19">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1950.5718954248364</v>
+        <v>719.23780769874759</v>
       </c>
       <c r="H19">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>215</v>
+        <v>217.9387755102041</v>
       </c>
       <c r="I19" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1951" fuelUsageRatio="215"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="719" fuelUsageRatio="218"/&gt;</v>
       </c>
       <c r="J19" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.75" torque="0.813"/&gt;</v>
+        <v>&lt;torque normRpm="0.75" torque="0.877"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5963,35 +5966,35 @@
       </c>
       <c r="B20">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1791.3415366146457</v>
+        <v>696.17446146090538</v>
       </c>
       <c r="D20">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1683.8610444177668</v>
+        <v>654.40399377325105</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>335.0090036014405</v>
+        <v>130.19555897059445</v>
       </c>
       <c r="F20">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>484.69387755102036</v>
+        <v>188.36804276596644</v>
       </c>
       <c r="G20">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1791.3415366146457</v>
+        <v>696.17446146090538</v>
       </c>
       <c r="H20">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>232.55102040816325</v>
+        <v>220.22448979591837</v>
       </c>
       <c r="I20" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="1791" fuelUsageRatio="233"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="696" fuelUsageRatio="220"/&gt;</v>
       </c>
       <c r="J20" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.792" torque="0.746"/&gt;</v>
+        <v>&lt;torque normRpm="0.792" torque="0.849"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6000,35 +6003,35 @@
       </c>
       <c r="B21">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>1313.6504601840736</v>
+        <v>671.31978735992982</v>
       </c>
       <c r="D21">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1234.8314325730291</v>
+        <v>631.04060011833394</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>258.60344137655056</v>
+        <v>132.15509950122177</v>
       </c>
       <c r="F21">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>374.14965986394554</v>
+        <v>191.20312268261878</v>
       </c>
       <c r="G21">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>1313.6504601840736</v>
+        <v>671.31978735992982</v>
       </c>
       <c r="H21">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>285.20408163265307</v>
+        <v>223.16326530612244</v>
       </c>
       <c r="I21" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="1314" fuelUsageRatio="285"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="671" fuelUsageRatio="223"/&gt;</v>
       </c>
       <c r="J21" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.833" torque="0.547"/&gt;</v>
+        <v>&lt;torque normRpm="0.833" torque="0.819"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6037,35 +6040,35 @@
       </c>
       <c r="B22">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>517.49866613311974</v>
+        <v>641.74659762895055</v>
       </c>
       <c r="D22">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>486.44874616513255</v>
+        <v>603.24180177121343</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>106.9677871148459</v>
+        <v>132.65002970885322</v>
       </c>
       <c r="F22">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>154.76190476190476</v>
+        <v>191.91919191919192</v>
       </c>
       <c r="G22">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>517.49866613311974</v>
+        <v>641.74659762895044</v>
       </c>
       <c r="H22">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>372.9591836734694</v>
+        <v>226.75510204081633</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="517" fuelUsageRatio="373"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="642" fuelUsageRatio="227"/&gt;</v>
       </c>
       <c r="J22" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.875" torque="0.216"/&gt;</v>
+        <v>&lt;torque normRpm="0.875" torque="0.783"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6074,35 +6077,35 @@
       </c>
       <c r="B23">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
+        <v>606.45053475935822</v>
       </c>
       <c r="D23">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
+        <v>570.06350267379673</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131.3235294117647</v>
       </c>
       <c r="F23">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G23">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
+        <v>606.45053475935822</v>
       </c>
       <c r="H23">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="606" fuelUsageRatio="231"/&gt;</v>
       </c>
       <c r="J23" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.917" torque="0"/&gt;</v>
+        <v>&lt;torque normRpm="0.917" torque="0.74"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6111,35 +6114,35 @@
       </c>
       <c r="B24">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
+        <v>539.06714200831834</v>
       </c>
       <c r="D24">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
+        <v>506.72311348781921</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>122.03802733214494</v>
       </c>
       <c r="F24">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
+        <v>176.56565656565652</v>
       </c>
       <c r="G24">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
+        <v>539.06714200831834</v>
       </c>
       <c r="H24">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
+        <v>256.66666666666669</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="539" fuelUsageRatio="257"/&gt;</v>
       </c>
       <c r="J24" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.958" torque="0"/&gt;</v>
+        <v>&lt;torque normRpm="0.958" torque="0.657"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6148,35 +6151,35 @@
       </c>
       <c r="B25">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
+        <v>336.91696375519905</v>
       </c>
       <c r="D25">
         <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
+        <v>316.70194592988707</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79.590017825311932</v>
       </c>
       <c r="F25">
         <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
+        <v>115.15151515151516</v>
       </c>
       <c r="G25">
         <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
+        <v>336.91696375519905</v>
       </c>
       <c r="H25">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
+        <v>333.66666666666663</v>
       </c>
       <c r="I25" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="337" fuelUsageRatio="334"/&gt;</v>
       </c>
       <c r="J25" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1" torque="0"/&gt;</v>
+        <v>&lt;torque normRpm="1" torque="0.411"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6205,11 +6208,11 @@
       </c>
       <c r="H26">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2500" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2500" motorTorque="0" fuelUsageRatio="462"/&gt;</v>
       </c>
       <c r="J26" s="4" t="str">
         <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>rpm</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Anfahrmoment</t>
   </si>
   <si>
-    <t>maxRpm</t>
-  </si>
-  <si>
     <t>xmlComment</t>
   </si>
   <si>
@@ -135,12 +132,111 @@
   <si>
     <t>fuelUsageRatio</t>
   </si>
+  <si>
+    <t>maxPSEco</t>
+  </si>
+  <si>
+    <t>PSEco</t>
+  </si>
+  <si>
+    <t>NmEco</t>
+  </si>
+  <si>
+    <t>Nm2Eco</t>
+  </si>
+  <si>
+    <t>f3Eco</t>
+  </si>
+  <si>
+    <t>f4Eco</t>
+  </si>
+  <si>
+    <t>f2Eco</t>
+  </si>
+  <si>
+    <t>idleT</t>
+  </si>
+  <si>
+    <t>rawDataEco</t>
+  </si>
+  <si>
+    <t>manDataEco</t>
+  </si>
+  <si>
+    <t>psEco</t>
+  </si>
+  <si>
+    <t>motorEco</t>
+  </si>
+  <si>
+    <t>maxTEco</t>
+  </si>
+  <si>
+    <t>idleTEco</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t1E</t>
+  </si>
+  <si>
+    <t>t2E</t>
+  </si>
+  <si>
+    <t>t4E</t>
+  </si>
+  <si>
+    <t>t5E</t>
+  </si>
+  <si>
+    <t>t3E</t>
+  </si>
+  <si>
+    <t>normRpm</t>
+  </si>
+  <si>
+    <t>Anstieg</t>
+  </si>
+  <si>
+    <t>Abfall</t>
+  </si>
+  <si>
+    <t>PSEcoRate</t>
+  </si>
+  <si>
+    <t>NmEcoRate</t>
+  </si>
+  <si>
+    <t>Nm1000</t>
+  </si>
+  <si>
+    <t>AnstiegE</t>
+  </si>
+  <si>
+    <t>maxPsEcoRate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +258,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -179,24 +321,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -225,12 +646,673 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -244,28 +1326,81 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,16 +1431,26 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0202653051670501E-2"/>
+          <c:y val="2.0063836607697848E-2"/>
+          <c:w val="0.90235456715814155"/>
+          <c:h val="0.89894519082618773"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculate from Values'!$G$6</c:f>
+              <c:f>'Calculate from Values'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,200 +1483,188 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$A$7:$A$46</c:f>
+              <c:f>'Calculate from Values'!$A$7:$A$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2700</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>2800</c:v>
+                  <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2900</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3000</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3100</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3200</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3300</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3400</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3500</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3600</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3700</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3800</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3900</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4000</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$G$7:$G$46</c:f>
+              <c:f>'Calculate from Values'!$F$7:$F$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>195.41504801097392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>262.39999999999986</c:v>
+                  <c:v>553.66529492455413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>506.34999999999997</c:v>
+                  <c:v>679.29257887517133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>680.6</c:v>
+                  <c:v>693.77865569272967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>785.15</c:v>
+                  <c:v>703.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>820</c:v>
+                  <c:v>711.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>807.6846209409581</c:v>
+                  <c:v>717.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>793.57791401878262</c:v>
+                  <c:v>721.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>777.67987923347403</c:v>
+                  <c:v>724.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>759.99051658503197</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>740.50982607345645</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>719.23780769874759</c:v>
+                  <c:v>723.40232389252003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>696.17446146090538</c:v>
+                  <c:v>721.00580973129979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>671.31978735992982</c:v>
+                  <c:v>717.81045751633974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>641.74659762895044</c:v>
+                  <c:v>678.79901960784298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>606.45053475935822</c:v>
+                  <c:v>641.34803921568619</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>539.06714200831834</c:v>
+                  <c:v>605.23459383753493</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>336.91696375519905</c:v>
+                  <c:v>537.9863056333644</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>336.24144102085273</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -581,21 +1714,283 @@
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculate from Values'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>motorEco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calculate from Values'!$A$7:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calculate from Values'!$G$7:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.6901451303155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>520.4453772290808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>638.53502414266109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>652.151936351166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>661.05499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668.41520000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>674.13979999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678.22879999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>680.68219999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>681.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>681.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>669.23102759622373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>650.82756899055914</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>626.28962418300659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>587.23506836945296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>540.51127450980403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>487.21384803921569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>433.07897603485839</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>270.67436002178653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -606,20 +2001,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="289520224"/>
-        <c:axId val="289522184"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:axId val="362055952"/>
+        <c:axId val="362058304"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculate from Values'!$F$6</c:f>
+              <c:f>'Calculate from Values'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -652,200 +2045,188 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$A$7:$A$46</c:f>
+              <c:f>'Calculate from Values'!$A$7:$A$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2700</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>2800</c:v>
+                  <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2900</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3000</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3100</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3200</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3300</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3400</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3500</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3600</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3700</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3800</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3900</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4000</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$F$7:$F$46</c:f>
+              <c:f>'Calculate from Values'!$H$7:$H$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7828739821458064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.894366492146588</c:v>
+                  <c:v>31.538630412456278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.897633507853399</c:v>
+                  <c:v>67.715867548603484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.923141361256569</c:v>
+                  <c:v>79.039913863213599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.99313089005237</c:v>
+                  <c:v>90.133821989528798</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140.12984293193719</c:v>
+                  <c:v>101.26374869109948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149.52737275639936</c:v>
+                  <c:v>112.34411727748689</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>158.21699982112693</c:v>
+                  <c:v>123.30059057591625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.12219409804052</c:v>
+                  <c:v>134.05883141361258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>173.16642555906068</c:v>
+                  <c:v>144.54450261780107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179.273164176108</c:v>
+                  <c:v>154.86910994764401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>184.36587992110307</c:v>
+                  <c:v>164.82968133927997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>188.36804276596644</c:v>
+                  <c:v>174.55135414646756</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>191.20312268261878</c:v>
+                  <c:v>183.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>191.91919191919192</c:v>
+                  <c:v>183.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>190</c:v>
+                  <c:v>182.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>176.56565656565652</c:v>
+                  <c:v>180.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>115.15151515151516</c:v>
+                  <c:v>168.55026455026453</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>110.13227513227511</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -895,21 +2276,283 @@
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calculate from Values'!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>psEco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Calculate from Values'!$A$7:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Calculate from Values'!$I$7:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6159015432170585</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.646312587708891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.652915495687267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.297519031420791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.725792670157063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.187923769633514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105.60347024083769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.90255514136128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.01530152879582</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.871832460733</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>145.57696335078538</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152.48656712558983</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157.56160623101286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158.89166666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.94666666666669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.70500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135.68296296296296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.656481481481492</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -920,15 +2563,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="289522576"/>
-        <c:axId val="289519048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="289520224"/>
+        <c:axId val="362054776"/>
+        <c:axId val="362054384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362055952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -946,120 +2588,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="289522184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="289522184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="289520224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="289519048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1096,28 +2670,181 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289522576"/>
+        <c:crossAx val="362058304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362058304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362055952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="362054384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362054776"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="289522576"/>
+      <c:valAx>
+        <c:axId val="362054776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="289519048"/>
+        <c:crossAx val="362054384"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1126,6 +2853,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0013718915204581E-2"/>
+          <c:y val="3.5339353154546407E-2"/>
+          <c:w val="6.0738902528053279E-2"/>
+          <c:h val="0.12311985909068454"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1177,66 +2945,28 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.45865029583166511"/>
-          <c:y val="0.34567901234567899"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.5818121604855889E-2"/>
-          <c:y val="5.0017636684303375E-2"/>
-          <c:w val="0.95037145780506249"/>
-          <c:h val="0.78720715466122293"/>
+          <c:x val="4.756974962060876E-2"/>
+          <c:y val="4.9052396878483832E-2"/>
+          <c:w val="0.93796827046547449"/>
+          <c:h val="0.75293954476426228"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Calculate from Values'!$H$6</c:f>
+              <c:f>'Calculate from Values'!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1257,266 +2987,258 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$A$7:$A$46</c:f>
+              <c:f>'Calculate from Values'!$A$7:$A$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1100</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>1300</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>1400</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="20">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="21">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2700</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>2800</c:v>
+                  <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2900</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3000</c:v>
+                  <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3100</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3200</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3300</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3400</c:v>
+                  <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3500</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3600</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3700</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3800</c:v>
+                  <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3900</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4000</c:v>
+                  <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4200</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4300</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4400</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4500</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Calculate from Values'!$H$7:$H$46</c:f>
+              <c:f>'Calculate from Values'!$J$7:$J$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>260</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>325.83333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>260</c:v>
+                  <c:v>278.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>260</c:v>
+                  <c:v>245.83333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260</c:v>
+                  <c:v>238.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>243.8</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231.2</c:v>
+                  <c:v>228.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222.2</c:v>
+                  <c:v>225.83333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>216.8</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215</c:v>
+                  <c:v>225.30864197530863</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>215.32653061224491</c:v>
+                  <c:v>226.23456790123456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>216.30612244897958</c:v>
+                  <c:v>227.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>217.9387755102041</c:v>
+                  <c:v>229.93827160493828</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>220.22448979591837</c:v>
+                  <c:v>232.71604938271605</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>223.16326530612244</c:v>
+                  <c:v>236.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>226.75510204081633</c:v>
+                  <c:v>240.12345679012347</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>231</c:v>
+                  <c:v>244.75308641975309</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>256.66666666666669</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>333.66666666666663</c:v>
+                  <c:v>277.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>462</c:v>
+                  <c:v>361.11111111111109</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1527,19 +3249,78 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="289519440"/>
-        <c:axId val="289524536"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="289519440"/>
+        <c:axId val="362056344"/>
+        <c:axId val="362058696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362056344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1575,19 +3356,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289524536"/>
+        <c:crossAx val="362058696"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="500"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="289524536"/>
+        <c:axId val="362058696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="260"/>
-          <c:min val="180"/>
+          <c:max val="350"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1605,8 +3384,53 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1636,9 +3460,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289519440"/>
+        <c:crossAx val="362056344"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1648,6 +3473,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7522415150043117E-2"/>
+          <c:y val="0.15468183533914445"/>
+          <c:w val="8.1528476562206229E-2"/>
+          <c:h val="7.5251362810417943E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1909,11 +3775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289519832"/>
-        <c:axId val="289523360"/>
+        <c:axId val="362057912"/>
+        <c:axId val="362059480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289519832"/>
+        <c:axId val="362057912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -1972,12 +3838,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289523360"/>
+        <c:crossAx val="362059480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="289523360"/>
+        <c:axId val="362059480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +3900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289519832"/>
+        <c:crossAx val="362057912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2295,11 +4161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357515944"/>
-        <c:axId val="357521432"/>
+        <c:axId val="362061048"/>
+        <c:axId val="362059872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357515944"/>
+        <c:axId val="362061048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -2358,12 +4224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357521432"/>
+        <c:crossAx val="362059872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357521432"/>
+        <c:axId val="362059872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +4286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357515944"/>
+        <c:crossAx val="362061048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4697,16 +6563,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4729,16 +6595,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4833,34 +6699,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:J46" totalsRowShown="0">
-  <autoFilter ref="A6:J46"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="rpm"/>
-    <tableColumn id="7" name="rawData" dataDxfId="15">
-      <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A6:V42">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="22">
+    <tableColumn id="1" name="rpm" dataDxfId="69"/>
+    <tableColumn id="7" name="rawData" dataDxfId="68">
+      <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="manualData" dataDxfId="14"/>
-    <tableColumn id="2" name="pto" dataDxfId="13">
-      <calculatedColumnFormula>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</calculatedColumnFormula>
+    <tableColumn id="9" name="manualData" dataDxfId="67"/>
+    <tableColumn id="12" name="rawDataEco" dataDxfId="66">
+      <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="12">
-      <calculatedColumnFormula>A7*D7/9550</calculatedColumnFormula>
+    <tableColumn id="11" name="manDataEco" dataDxfId="65"/>
+    <tableColumn id="4" name="motor" dataDxfId="64">
+      <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="11">
-      <calculatedColumnFormula>Table15[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
+    <tableColumn id="14" name="motorEco" dataDxfId="63">
+      <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="motor" dataDxfId="10">
-      <calculatedColumnFormula>Table15[[#This Row],[pto]]/0.94</calculatedColumnFormula>
+    <tableColumn id="3" name="ps" dataDxfId="62">
+      <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="9">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</calculatedColumnFormula>
+    <tableColumn id="13" name="psEco" dataDxfId="61">
+      <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="8">
-      <calculatedColumnFormula>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</calculatedColumnFormula>
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="60">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="7">
-      <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</calculatedColumnFormula>
+    <tableColumn id="5" name="xml" dataDxfId="59">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="xml2" dataDxfId="58">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="t1" dataDxfId="57">
+      <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="t2" dataDxfId="56">
+      <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="t3" dataDxfId="55">
+      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="t4" dataDxfId="54">
+      <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="t5" dataDxfId="53">
+      <calculatedColumnFormula>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="t1E" dataDxfId="52">
+      <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="t2E" dataDxfId="2">
+      <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="t3E" dataDxfId="51">
+      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="t4E" dataDxfId="50">
+      <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" name="t5E" dataDxfId="49">
+      <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4868,60 +6791,152 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2"/>
-  <tableColumns count="18">
-    <tableColumn id="10" name="maxPRpm"/>
-    <tableColumn id="14" name="maxPS">
-      <calculatedColumnFormula>190*133.5/132</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:X2" totalsRowShown="0" headerRowDxfId="48">
+  <autoFilter ref="A1:X2">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="24">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="47"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="46"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="45">
+      <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="12" name="maxTRpm1"/>
-    <tableColumn id="4" name="maxTRpm"/>
-    <tableColumn id="5" name="maxT"/>
+    <tableColumn id="20" name="PSEco" dataDxfId="44">
+      <calculatedColumnFormula>Table36[PSEcoRate]*Table36[PS]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="43"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="42"/>
+    <tableColumn id="5" name="maxT" dataDxfId="41"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="40">
+      <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut"/>
-    <tableColumn id="15" name="linearDown"/>
-    <tableColumn id="16" name="Factor"/>
-    <tableColumn id="1" name="maxRpm"/>
-    <tableColumn id="8" name="xmlComment">
-      <calculatedColumnFormula>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS]," | ",Table36[ratedRpm],": ",Table36[PS]," | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT]," | ",Table36[idleRatio]," | ",Table36[linearDown]," --&gt;")</calculatedColumnFormula>
+    <tableColumn id="11" name="fadeOut" dataDxfId="39"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="38"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="37"/>
+    <tableColumn id="16" name="Factor" dataDxfId="36"/>
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="35">
+      <calculatedColumnFormula>0.75*Table36[idleRpm]+0.25*Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="fuelMinRpm"/>
-    <tableColumn id="13" name="fuelMinRate"/>
-    <tableColumn id="17" name="fuelIdleRate"/>
-    <tableColumn id="18" name="fuelRatedRate"/>
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="34">
+      <calculatedColumnFormula>0.9*Table36[fuelRatedRate]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="33">
+      <calculatedColumnFormula>0.93*Table36[fuelRatedRate]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="32"/>
+    <tableColumn id="1" name="normRpm" dataDxfId="31">
+      <calculatedColumnFormula>ROUND(Table36[ratedRpm]+MAX(100,0.6667*Table36[fadeOut]),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="30"/>
+    <tableColumn id="23" name="NmEcoRate"/>
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="0">
+      <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:G4" totalsRowShown="0">
-  <autoFilter ref="A3:G4"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="f1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A3:S4">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="19">
+    <tableColumn id="1" name="f1" dataDxfId="27">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2">
+    <tableColumn id="2" name="f2" dataDxfId="26">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3">
+    <tableColumn id="5" name="f3" dataDxfId="25">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4">
+    <tableColumn id="6" name="f4" dataDxfId="24">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm">
+    <tableColumn id="3" name="Nm" dataDxfId="23">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2">
+    <tableColumn id="4" name="Nm2" dataDxfId="22">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table36[idleRatio]*Table36[maxT]/Table7[Nm2]</calculatedColumnFormula>
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="21" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="AnstiegE" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="Anstieg" dataDxfId="20" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="Abfall" dataDxfId="19" dataCellStyle="Percent">
+      <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Nm1000" dataDxfId="3" dataCellStyle="Percent">
+      <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="NmEco" dataDxfId="18">
+      <calculatedColumnFormula>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Nm2Eco" dataDxfId="17">
+      <calculatedColumnFormula>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="f2Eco" dataDxfId="16">
+      <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="f3Eco" dataDxfId="15">
+      <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="f4Eco" dataDxfId="14">
+      <calculatedColumnFormula>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="idleT" dataDxfId="13">
+      <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="idleTEco" dataDxfId="12">
+      <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="xmlComment" dataDxfId="11">
+      <calculatedColumnFormula>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4937,17 +6952,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="6">
+    <tableColumn id="6" name="kw_pto" dataDxfId="10">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="5">
+    <tableColumn id="3" name="ps" dataDxfId="9">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="4">
+    <tableColumn id="5" name="xml" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="3">
+    <tableColumn id="8" name="xml2" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4981,16 +6996,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="2">
+    <tableColumn id="6" name="kw_pto" dataDxfId="6">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="1">
+    <tableColumn id="3" name="ps" dataDxfId="5">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="0">
+    <tableColumn id="5" name="xml" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5261,1725 +7276,3459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1800</v>
+      </c>
+      <c r="B2" s="15">
+        <v>184</v>
+      </c>
+      <c r="C2" s="19">
+        <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
+        <v>160.54000000000002</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="8">
+        <v>181</v>
+      </c>
+      <c r="F2" s="20">
+        <f>Table36[PSEcoRate]*Table36[PS]</f>
+        <v>145.70500000000001</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1400</v>
+      </c>
+      <c r="H2" s="15">
+        <v>1500</v>
+      </c>
+      <c r="I2" s="15">
+        <v>725</v>
+      </c>
+      <c r="J2" s="19">
+        <f>Table36[NmEcoRate]*Table36[maxT]</f>
+        <v>681.5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>900</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.97</v>
+      </c>
+      <c r="M2" s="9">
+        <v>300</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="P2" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="17">
+        <f>0.75*Table36[idleRpm]+0.25*Table36[ratedRpm]</f>
+        <v>1200</v>
+      </c>
+      <c r="R2" s="18">
+        <f>0.9*Table36[fuelRatedRate]</f>
+        <v>225</v>
+      </c>
+      <c r="S2" s="18">
+        <f>0.93*Table36[fuelRatedRate]</f>
+        <v>232.5</v>
+      </c>
+      <c r="T2" s="9">
+        <v>250</v>
+      </c>
+      <c r="U2" s="11">
+        <f>ROUND(Table36[ratedRpm]+MAX(100,0.6667*Table36[fadeOut]),0)</f>
+        <v>2300</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="X2" s="30">
+        <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
+        <v>1.200000000000001E-7</v>
+      </c>
+      <c r="B4" s="13">
+        <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
+        <v>3.3055367740966714E-5</v>
+      </c>
+      <c r="C4" s="13">
+        <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
+        <v>1.1018455913655572E-7</v>
+      </c>
+      <c r="D4" s="13">
+        <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="E4" s="13">
+        <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="F4" s="13">
+        <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
+        <v>605.23459383753493</v>
+      </c>
+      <c r="G4" s="24">
+        <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
+        <v>1.3719133860624575</v>
+      </c>
+      <c r="H4" s="25">
+        <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
+        <v>0.39876976556123322</v>
+      </c>
+      <c r="I4" s="25">
+        <f>Table36[maxT]/Table7[Nm2]-1</f>
+        <v>0.19788261837956678</v>
+      </c>
+      <c r="J4" s="26">
+        <f>1-Table36[maxTRpm]/Table36[ratedRpm]</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K4" s="13">
+        <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
+        <v>668.41520000000003</v>
+      </c>
+      <c r="L4" s="13">
+        <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="M4" s="13">
+        <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
+        <v>487.21384803921569</v>
+      </c>
+      <c r="N4" s="13">
+        <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
+        <v>2.7004341314254538E-4</v>
+      </c>
+      <c r="O4" s="13">
+        <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
+        <v>9.0014471047515134E-7</v>
+      </c>
+      <c r="P4" s="13">
+        <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
+        <v>1.6483333333333343E-4</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
+        <v>703.25</v>
+      </c>
+      <c r="R4" s="13">
+        <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="S4" s="13" t="str">
+        <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," --&gt;")</f>
+        <v>&lt;!-- 1800: 184(160.54) | 2100: 181(145.705) | 1400..1500: 725(681.5) | 97 | 0.5 --&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="K6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2050</v>
-      </c>
-      <c r="B2">
-        <f>190*133.5/132</f>
-        <v>192.15909090909091</v>
-      </c>
-      <c r="C2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>345</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="345"/&gt;&lt;!-- 1800: 184(160.54) | 2100: 181(145.705) | 1400..1500: 725(681.5) | 97 | 0.5 --&gt;</v>
+      </c>
+      <c r="L7" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0" torque="0"/&gt;</v>
+      </c>
+      <c r="M7" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>554.4799999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>653.10457516339739</v>
+      </c>
+      <c r="P7" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>533676.47058823518</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>521.21119999999985</v>
+      </c>
+      <c r="T7" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>129.39624183006595</v>
+      </c>
+      <c r="U7" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>195.41504801097392</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>183.6901451303155</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>195.41504801097392</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>183.6901451303155</v>
+      </c>
+      <c r="H8" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>2.7828739821458064</v>
+      </c>
+      <c r="I8" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>2.6159015432170585</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>325.83333333333331</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="195" motorTorqueEco="184" fuelUsageRatio="326"/&gt;</v>
+      </c>
+      <c r="L8" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.043" torque="0.27"/&gt;</v>
+      </c>
+      <c r="M8" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>147.5956790123457</v>
+      </c>
+      <c r="N8" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>577.9699999999998</v>
+      </c>
+      <c r="O8" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>663.4894698620177</v>
+      </c>
+      <c r="P8" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>6156.0049019607832</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>138.73993827160496</v>
+      </c>
+      <c r="S8" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>543.29179999999985</v>
+      </c>
+      <c r="T8" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>209.14456245461193</v>
+      </c>
+      <c r="U8" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>400</v>
+      </c>
+      <c r="B9" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>553.66529492455413</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>520.4453772290808</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>553.66529492455413</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>520.4453772290808</v>
+      </c>
+      <c r="H9" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>31.538630412456278</v>
+      </c>
+      <c r="I9" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>29.646312587708891</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>278.33333333333331</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="554" motorTorqueEco="520" fuelUsageRatio="278"/&gt;</v>
+      </c>
+      <c r="L9" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.174" torque="0.764"/&gt;</v>
+      </c>
+      <c r="M9" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>486.19753086419752</v>
+      </c>
+      <c r="N9" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>637.99999999999989</v>
+      </c>
+      <c r="O9" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>689.85112563543873</v>
+      </c>
+      <c r="P9" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>2083.2107843137251</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>457.02567901234562</v>
+      </c>
+      <c r="S9" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>599.71999999999991</v>
+      </c>
+      <c r="T9" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>411.58260711692111</v>
+      </c>
+      <c r="U9" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>700</v>
+      </c>
+      <c r="B10" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>679.29257887517133</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>638.53502414266109</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>679.29257887517133</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>638.53502414266109</v>
+      </c>
+      <c r="H10" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>67.715867548603484</v>
+      </c>
+      <c r="I10" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>63.652915495687267</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>245.83333333333334</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="679" motorTorqueEco="639" fuelUsageRatio="246"/&gt;</v>
+      </c>
+      <c r="L10" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.304" torque="0.937"/&gt;</v>
+      </c>
+      <c r="M10" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>668.52160493827159</v>
+      </c>
+      <c r="N10" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>682.36999999999989</v>
+      </c>
+      <c r="O10" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>709.02323892519939</v>
+      </c>
+      <c r="P10" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1441.1939775910364</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>628.41030864197523</v>
+      </c>
+      <c r="S10" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>641.42779999999993</v>
+      </c>
+      <c r="T10" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>558.81027596223691</v>
+      </c>
+      <c r="U10" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>800</v>
+      </c>
+      <c r="B11" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>693.77865569272967</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>652.151936351166</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>693.77865569272967</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>652.151936351166</v>
+      </c>
+      <c r="H11" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>79.039913863213599</v>
+      </c>
+      <c r="I11" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>74.297519031420791</v>
+      </c>
+      <c r="J11" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>238.33333333333334</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="694" motorTorqueEco="652" fuelUsageRatio="238"/&gt;</v>
+      </c>
+      <c r="L11" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.348" torque="0.957"/&gt;</v>
+      </c>
+      <c r="M11" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>694.5679012345679</v>
+      </c>
+      <c r="N11" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>693.68</v>
+      </c>
+      <c r="O11" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>713.81626724763964</v>
+      </c>
+      <c r="P11" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1322.4877450980389</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>652.89382716049374</v>
+      </c>
+      <c r="S11" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>652.05920000000003</v>
+      </c>
+      <c r="T11" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>595.61719317356585</v>
+      </c>
+      <c r="U11" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>900</v>
+      </c>
+      <c r="B12" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>703.25</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>703.25</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="H12" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>90.133821989528798</v>
+      </c>
+      <c r="I12" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>84.725792670157063</v>
+      </c>
+      <c r="J12" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>232.5</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="703" motorTorqueEco="661" fuelUsageRatio="233"/&gt;</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.391" torque="0.97"/&gt;</v>
+      </c>
+      <c r="M12" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>703.25</v>
+      </c>
+      <c r="N12" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>703.25</v>
+      </c>
+      <c r="O12" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="P12" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1224.9591503267973</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="S12" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="T12" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="U12" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>210.85682189542442</v>
+      </c>
+      <c r="V12" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>711.08</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>668.41520000000003</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>711.08</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>668.41520000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>101.26374869109948</v>
+      </c>
+      <c r="I13" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>95.187923769633514</v>
+      </c>
+      <c r="J13" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>228.33333333333334</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="711" motorTorqueEco="668" fuelUsageRatio="228"/&gt;</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.435" torque="0.981"/&gt;</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>694.5679012345679</v>
+      </c>
+      <c r="N13" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>711.08</v>
+      </c>
+      <c r="O13" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>721.00580973129979</v>
+      </c>
+      <c r="P13" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1142.2549019607841</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>652.89382716049374</v>
+      </c>
+      <c r="S13" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>668.41520000000003</v>
+      </c>
+      <c r="T13" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>650.82756899055914</v>
+      </c>
+      <c r="U13" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>386.5409313725487</v>
+      </c>
+      <c r="V13" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="B14" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>717.17</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>674.13979999999992</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>717.17</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>674.13979999999992</v>
+      </c>
+      <c r="H14" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>112.34411727748689</v>
+      </c>
+      <c r="I14" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>105.60347024083769</v>
+      </c>
+      <c r="J14" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>225.83333333333334</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="717" motorTorqueEco="674" fuelUsageRatio="226"/&gt;</v>
+      </c>
+      <c r="L14" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.478" torque="0.989"/&gt;</v>
+      </c>
+      <c r="M14" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>668.52160493827159</v>
+      </c>
+      <c r="N14" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>717.17</v>
+      </c>
+      <c r="O14" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>723.40232389251992</v>
+      </c>
+      <c r="P14" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1070.3319964349373</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>628.41030864197523</v>
+      </c>
+      <c r="S14" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>674.13979999999992</v>
+      </c>
+      <c r="T14" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>669.23102759622373</v>
+      </c>
+      <c r="U14" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>509.23757798573956</v>
+      </c>
+      <c r="V14" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="B15" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>721.52</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>678.22879999999998</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>721.52</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>678.22879999999998</v>
+      </c>
+      <c r="H15" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>123.30059057591625</v>
+      </c>
+      <c r="I15" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>115.90255514136128</v>
+      </c>
+      <c r="J15" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>225</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="722" motorTorqueEco="678" fuelUsageRatio="225"/&gt;</v>
+      </c>
+      <c r="L15" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.522" torque="0.995"/&gt;</v>
+      </c>
+      <c r="M15" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>625.1111111111112</v>
+      </c>
+      <c r="N15" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>721.52</v>
+      </c>
+      <c r="O15" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>725</v>
+      </c>
+      <c r="P15" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>1006.4950980392155</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>587.60444444444443</v>
+      </c>
+      <c r="S15" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>678.22879999999998</v>
+      </c>
+      <c r="T15" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>681.5</v>
+      </c>
+      <c r="U15" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>592.19362745098022</v>
+      </c>
+      <c r="V15" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B16" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>724.13</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>680.68219999999997</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>724.13</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>680.68219999999997</v>
+      </c>
+      <c r="H16" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>134.05883141361258</v>
+      </c>
+      <c r="I16" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>126.01530152879582</v>
+      </c>
+      <c r="J16" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>225.30864197530863</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="724" motorTorqueEco="681" fuelUsageRatio="225"/&gt;</v>
+      </c>
+      <c r="L16" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.565" torque="0.999"/&gt;</v>
+      </c>
+      <c r="M16" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>564.33641975308637</v>
+      </c>
+      <c r="N16" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>724.13</v>
+      </c>
+      <c r="O16" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>725.79883805374004</v>
+      </c>
+      <c r="P16" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>948.87820512820497</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>530.4762345679012</v>
+      </c>
+      <c r="S16" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>680.68219999999997</v>
+      </c>
+      <c r="T16" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>687.63448620188808</v>
+      </c>
+      <c r="U16" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>644.57998680241326</v>
+      </c>
+      <c r="V16" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="B17" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>725</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>681.5</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>725</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>681.5</v>
+      </c>
+      <c r="H17" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>144.54450261780107</v>
+      </c>
+      <c r="I17" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>135.871832460733</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>226.23456790123456</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="725" motorTorqueEco="682" fuelUsageRatio="226"/&gt;</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.609" torque="1"/&gt;</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>486.19753086419752</v>
+      </c>
+      <c r="N17" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>725</v>
+      </c>
+      <c r="O17" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>725.79883805374004</v>
+      </c>
+      <c r="P17" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>896.14845938375333</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>457.02567901234562</v>
+      </c>
+      <c r="S17" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>681.5</v>
+      </c>
+      <c r="T17" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>687.63448620188808</v>
+      </c>
+      <c r="U17" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>672.94730392156862</v>
+      </c>
+      <c r="V17" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B18" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>725</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>681.5</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>725</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>681.5</v>
+      </c>
+      <c r="H18" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>154.86910994764401</v>
+      </c>
+      <c r="I18" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>145.57696335078538</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>227.77777777777777</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="725" motorTorqueEco="682" fuelUsageRatio="228"/&gt;</v>
+      </c>
+      <c r="L18" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.652" torque="1"/&gt;</v>
+      </c>
+      <c r="M18" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>390.6944444444444</v>
+      </c>
+      <c r="N18" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>724.13</v>
+      </c>
+      <c r="O18" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>725</v>
+      </c>
+      <c r="P18" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>847.32843137254895</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>367.25277777777768</v>
+      </c>
+      <c r="S18" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>680.68219999999997</v>
+      </c>
+      <c r="T18" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>681.5</v>
+      </c>
+      <c r="U18" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>682.09938725490201</v>
+      </c>
+      <c r="V18" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1600</v>
+      </c>
+      <c r="B19" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>723.40232389252003</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>669.23102759622373</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>723.40232389252003</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>669.23102759622373</v>
+      </c>
+      <c r="H19" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>164.82968133927997</v>
+      </c>
+      <c r="I19" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>152.48656712558983</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>229.93827160493828</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="723" motorTorqueEco="669" fuelUsageRatio="230"/&gt;</v>
+      </c>
+      <c r="L19" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.696" torque="0.998"/&gt;</v>
+      </c>
+      <c r="M19" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>277.82716049382731</v>
+      </c>
+      <c r="N19" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>721.52</v>
+      </c>
+      <c r="O19" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>723.40232389252003</v>
+      </c>
+      <c r="P19" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>801.68504901960773</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>261.15753086419767</v>
+      </c>
+      <c r="S19" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>678.22879999999998</v>
+      </c>
+      <c r="T19" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>669.23102759622373</v>
+      </c>
+      <c r="U19" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>675.63909313725492</v>
+      </c>
+      <c r="V19" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="B20" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>721.00580973129979</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>650.82756899055914</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>721.00580973129979</v>
+      </c>
+      <c r="G20" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>650.82756899055914</v>
+      </c>
+      <c r="H20" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>174.55135414646756</v>
+      </c>
+      <c r="I20" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>157.56160623101286</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>232.71604938271605</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="721" motorTorqueEco="651" fuelUsageRatio="233"/&gt;</v>
+      </c>
+      <c r="L20" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.739" torque="0.994"/&gt;</v>
+      </c>
+      <c r="M20" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>147.5956790123457</v>
+      </c>
+      <c r="N20" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>717.17</v>
+      </c>
+      <c r="O20" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>721.00580973129979</v>
+      </c>
+      <c r="P20" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>758.65772779700103</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>138.73993827160496</v>
+      </c>
+      <c r="S20" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>674.13979999999992</v>
+      </c>
+      <c r="T20" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>650.82756899055914</v>
+      </c>
+      <c r="U20" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>656.32154700115336</v>
+      </c>
+      <c r="V20" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="B21" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="G21" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="H21" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>183.99999999999997</v>
+      </c>
+      <c r="I21" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>160.54000000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>236.11111111111111</v>
+      </c>
+      <c r="K21" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="718" motorTorqueEco="626" fuelUsageRatio="236"/&gt;</v>
+      </c>
+      <c r="L21" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.783" torque="0.99"/&gt;</v>
+      </c>
+      <c r="M21" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>711.08</v>
+      </c>
+      <c r="O21" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="P21" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>717.81045751633974</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>668.41520000000003</v>
+      </c>
+      <c r="T21" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="U21" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>626.28962418300659</v>
+      </c>
+      <c r="V21" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="B22" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>678.79901960784298</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>587.23506836945296</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>678.79901960784298</v>
+      </c>
+      <c r="G22" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>587.23506836945296</v>
+      </c>
+      <c r="H22" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>183.66666666666663</v>
+      </c>
+      <c r="I22" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>158.89166666666665</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>240.12345679012347</v>
+      </c>
+      <c r="K22" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="679" motorTorqueEco="587" fuelUsageRatio="240"/&gt;</v>
+      </c>
+      <c r="L22" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.826" torque="0.936"/&gt;</v>
+      </c>
+      <c r="M22" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-164.95987654320999</v>
+      </c>
+      <c r="N22" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>703.25</v>
+      </c>
+      <c r="O22" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>713.81626724763964</v>
+      </c>
+      <c r="P22" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>678.79901960784298</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>336.24144102085273</v>
+      </c>
+      <c r="R22" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-155.06228395061737</v>
+      </c>
+      <c r="S22" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>661.05499999999995</v>
+      </c>
+      <c r="T22" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>595.61719317356585</v>
+      </c>
+      <c r="U22" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>587.23506836945296</v>
+      </c>
+      <c r="V22" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>270.67436002178653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>641.34803921568619</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>540.51127450980403</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>641.34803921568619</v>
+      </c>
+      <c r="G23" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>540.51127450980403</v>
+      </c>
+      <c r="H23" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>182.66666666666666</v>
+      </c>
+      <c r="I23" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>153.94666666666669</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>244.75308641975309</v>
+      </c>
+      <c r="K23" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="641" motorTorqueEco="541" fuelUsageRatio="245"/&gt;</v>
+      </c>
+      <c r="L23" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.87" torque="0.885"/&gt;</v>
+      </c>
+      <c r="M23" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-347.28395061728406</v>
+      </c>
+      <c r="N23" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>693.68</v>
+      </c>
+      <c r="O23" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>709.02323892519939</v>
+      </c>
+      <c r="P23" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>641.34803921568619</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>537.9863056333644</v>
+      </c>
+      <c r="R23" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-326.44691358024704</v>
+      </c>
+      <c r="S23" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>652.05920000000003</v>
+      </c>
+      <c r="T23" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>558.81027596223691</v>
+      </c>
+      <c r="U23" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>540.51127450980403</v>
+      </c>
+      <c r="V23" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>433.07897603485839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="B24" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>605.23459383753493</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>487.21384803921569</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>605.23459383753493</v>
+      </c>
+      <c r="G24" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>487.21384803921569</v>
+      </c>
+      <c r="H24" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>180.99999999999997</v>
+      </c>
+      <c r="I24" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>145.70500000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>250</v>
+      </c>
+      <c r="K24" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="605" motorTorqueEco="487" fuelUsageRatio="250"/&gt;</v>
+      </c>
+      <c r="L24" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.913" torque="0.835"/&gt;</v>
+      </c>
+      <c r="M24" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-546.97222222222251</v>
+      </c>
+      <c r="N24" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>682.36999999999989</v>
+      </c>
+      <c r="O24" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>703.43137254901922</v>
+      </c>
+      <c r="P24" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>605.23459383753493</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>605.23459383753493</v>
+      </c>
+      <c r="R24" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-514.15388888888913</v>
+      </c>
+      <c r="S24" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>641.42779999999993</v>
+      </c>
+      <c r="T24" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>515.86887254901978</v>
+      </c>
+      <c r="U24" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>487.21384803921569</v>
+      </c>
+      <c r="V24" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>487.21384803921569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2200</v>
       </c>
-      <c r="D2">
-        <v>190</v>
-      </c>
-      <c r="E2">
-        <v>1200</v>
-      </c>
-      <c r="F2">
-        <v>1200</v>
-      </c>
-      <c r="G2">
-        <v>820</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="J2">
-        <v>300</v>
-      </c>
-      <c r="K2">
-        <v>0.6</v>
-      </c>
-      <c r="L2">
-        <v>0.94</v>
-      </c>
-      <c r="M2">
+      <c r="B25" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>537.9863056333644</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>433.07897603485839</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>537.9863056333644</v>
+      </c>
+      <c r="G25" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>433.07897603485839</v>
+      </c>
+      <c r="H25" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>168.55026455026453</v>
+      </c>
+      <c r="I25" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>135.68296296296296</v>
+      </c>
+      <c r="J25" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="K25" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="538" motorTorqueEco="433" fuelUsageRatio="278"/&gt;</v>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="0.957" torque="0.742"/&gt;</v>
+      </c>
+      <c r="M25" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-764.02469135802494</v>
+      </c>
+      <c r="N25" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>669.31999999999994</v>
+      </c>
+      <c r="O25" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>697.040668119099</v>
+      </c>
+      <c r="P25" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>570.27629233511573</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>537.9863056333644</v>
+      </c>
+      <c r="R25" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-718.1832098765434</v>
+      </c>
+      <c r="S25" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>629.16079999999999</v>
+      </c>
+      <c r="T25" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>466.79298293391452</v>
+      </c>
+      <c r="U25" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>428.23919340463459</v>
+      </c>
+      <c r="V25" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>433.07897603485839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="B26" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>336.24144102085273</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>270.67436002178653</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>336.24144102085273</v>
+      </c>
+      <c r="G26" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>270.67436002178653</v>
+      </c>
+      <c r="H26" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>110.13227513227511</v>
+      </c>
+      <c r="I26" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>88.656481481481492</v>
+      </c>
+      <c r="J26" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>361.11111111111109</v>
+      </c>
+      <c r="K26" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="336" motorTorqueEco="271" fuelUsageRatio="361"/&gt;</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v>&lt;torque normRpm="1" torque="0.464"/&gt;</v>
+      </c>
+      <c r="M26" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-998.44135802469077</v>
+      </c>
+      <c r="N26" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>654.53</v>
+      </c>
+      <c r="O26" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>689.85112563543873</v>
+      </c>
+      <c r="P26" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>536.32246376811588</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>336.24144102085273</v>
+      </c>
+      <c r="R26" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-938.53487654320929</v>
+      </c>
+      <c r="S26" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>615.25819999999999</v>
+      </c>
+      <c r="T26" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>411.58260711692111</v>
+      </c>
+      <c r="U26" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>364.32781862745099</v>
+      </c>
+      <c r="V26" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>270.67436002178653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>2400</v>
       </c>
-      <c r="N2" t="str">
-        <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS]," | ",Table36[ratedRpm],": ",Table36[PS]," | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT]," | ",Table36[idleRatio]," | ",Table36[linearDown]," --&gt;")</f>
-        <v>&lt;!-- 2050: 192.159090909091 | 2200: 190 | 1200..1200: 820 | 0.83 | 0.6 --&gt;</v>
-      </c>
-      <c r="O2">
-        <v>1500</v>
-      </c>
-      <c r="P2">
-        <v>215</v>
-      </c>
-      <c r="Q2">
-        <v>260</v>
-      </c>
-      <c r="R2">
-        <v>231</v>
+      <c r="B27" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K27" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="500"/&gt;</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M27" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-1250.2222222222219</v>
+      </c>
+      <c r="N27" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>637.99999999999989</v>
+      </c>
+      <c r="O27" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>681.86274509803854</v>
+      </c>
+      <c r="P27" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>503.24754901960773</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-1175.2088888888884</v>
+      </c>
+      <c r="S27" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>599.71999999999991</v>
+      </c>
+      <c r="T27" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>350.23774509803951</v>
+      </c>
+      <c r="U27" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>296.09681372549011</v>
+      </c>
+      <c r="V27" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2500</v>
+      </c>
+      <c r="B28" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K28" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L28" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M28" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-1519.3672839506171</v>
+      </c>
+      <c r="N28" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>619.7299999999999</v>
+      </c>
+      <c r="O28" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>673.07552650689809</v>
+      </c>
+      <c r="P28" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>470.94607843137243</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-1428.2052469135799</v>
+      </c>
+      <c r="S28" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>582.54619999999989</v>
+      </c>
+      <c r="T28" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>282.75839687726989</v>
+      </c>
+      <c r="U28" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>224.0645343137254</v>
+      </c>
+      <c r="V28" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>4.2500000000000008E-6</v>
-      </c>
-      <c r="B4">
-        <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>2.321080310462454E-4</v>
-      </c>
-      <c r="C4">
-        <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>2.7306827181911222E-7</v>
-      </c>
-      <c r="D4">
-        <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>9.5959595959595848E-5</v>
-      </c>
-      <c r="E4">
-        <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>658.22070236076695</v>
-      </c>
-      <c r="F4">
-        <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>606.45053475935822</v>
-      </c>
-      <c r="G4" s="3">
-        <f>Table36[idleRatio]*Table36[maxT]/Table7[Nm2]</f>
-        <v>1.1222679526040233</v>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2750</v>
+      </c>
+      <c r="B29" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K29" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L29" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M29" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-2268.1983024691349</v>
+      </c>
+      <c r="N29" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>566.44249999999988</v>
+      </c>
+      <c r="O29" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>647.6125635439347</v>
+      </c>
+      <c r="P29" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>393.02250445632791</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-2132.1064043209867</v>
+      </c>
+      <c r="S29" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>532.45594999999992</v>
+      </c>
+      <c r="T29" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>87.221649192084911</v>
+      </c>
+      <c r="U29" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>30.074626782531052</v>
+      </c>
+      <c r="V29" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="B30" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K30" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M30" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-3125.5555555555561</v>
+      </c>
+      <c r="N30" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>502.2799999999998</v>
+      </c>
+      <c r="O30" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>617.15686274509608</v>
+      </c>
+      <c r="P30" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>318.33333333333331</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-2938.0222222222228</v>
+      </c>
+      <c r="S30" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>472.14319999999981</v>
+      </c>
+      <c r="T30" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E46" si="0">A7*D7/9550</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>260</v>
-      </c>
-      <c r="I7" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" fuelUsageRatio="260"/&gt;&lt;!-- 2050: 192.159090909091 | 2200: 190 | 1200..1200: 820 | 0.83 | 0.6 --&gt;</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0" torque="0"/&gt;</v>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>3250</v>
+      </c>
+      <c r="B31" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K31" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L31" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M31" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-4091.4390432098762</v>
+      </c>
+      <c r="N31" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>427.24249999999978</v>
+      </c>
+      <c r="O31" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>581.70842411038234</v>
+      </c>
+      <c r="P31" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>246.1321644042232</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-3845.9527006172834</v>
+      </c>
+      <c r="S31" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>401.60794999999979</v>
+      </c>
+      <c r="T31" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>700</v>
-      </c>
-      <c r="B8">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>260</v>
-      </c>
-      <c r="I8" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="0" fuelUsageRatio="260"/&gt;</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.292" torque="0"/&gt;</v>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="B32" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K32" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L32" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M32" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-5165.8487654320988</v>
+      </c>
+      <c r="N32" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>341.3299999999997</v>
+      </c>
+      <c r="O32" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>541.26724763979337</v>
+      </c>
+      <c r="P32" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>175.88585434173666</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-4855.8978395061722</v>
+      </c>
+      <c r="S32" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>320.85019999999969</v>
+      </c>
+      <c r="T32" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>800</v>
-      </c>
-      <c r="B9">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>262.39999999999986</v>
-      </c>
-      <c r="D9">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>246.65599999999986</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>20.66228272251308</v>
-      </c>
-      <c r="F9" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>29.894366492146588</v>
-      </c>
-      <c r="G9">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>262.39999999999986</v>
-      </c>
-      <c r="H9">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>260</v>
-      </c>
-      <c r="I9" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="262" fuelUsageRatio="260"/&gt;</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.333" torque="0.32"/&gt;</v>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>3750</v>
+      </c>
+      <c r="B33" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K33" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L33" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M33" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-6348.7847222222244</v>
+      </c>
+      <c r="N33" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>244.54249999999962</v>
+      </c>
+      <c r="O33" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>495.83333333332916</v>
+      </c>
+      <c r="P33" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>107.20343137254902</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-5967.8576388888905</v>
+      </c>
+      <c r="S33" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>229.86994999999965</v>
+      </c>
+      <c r="T33" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>900</v>
-      </c>
-      <c r="B10">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>506.34999999999997</v>
-      </c>
-      <c r="D10">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>475.96899999999994</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>44.855717277486903</v>
-      </c>
-      <c r="F10" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>64.897633507853399</v>
-      </c>
-      <c r="G10">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>506.34999999999997</v>
-      </c>
-      <c r="H10">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>260</v>
-      </c>
-      <c r="I10" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="506" fuelUsageRatio="260"/&gt;</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.375" torque="0.618"/&gt;</v>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B34" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K34" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L34" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M34" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-7640.2469135802485</v>
+      </c>
+      <c r="N34" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>136.87999999999948</v>
+      </c>
+      <c r="O34" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>445.40668119098984</v>
+      </c>
+      <c r="P34" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>39.791666666666643</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-7181.8320987654333</v>
+      </c>
+      <c r="S34" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>128.66719999999953</v>
+      </c>
+      <c r="T34" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1000</v>
-      </c>
-      <c r="B11">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>680.6</v>
-      </c>
-      <c r="D11">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>639.76400000000001</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>66.990994764397911</v>
-      </c>
-      <c r="F11">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>96.923141361256569</v>
-      </c>
-      <c r="G11">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>680.6</v>
-      </c>
-      <c r="H11">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>260</v>
-      </c>
-      <c r="I11" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="681" fuelUsageRatio="260"/&gt;</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.417" torque="0.83"/&gt;</v>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>4250</v>
+      </c>
+      <c r="B35" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K35" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L35" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M35" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-9040.2353395061727</v>
+      </c>
+      <c r="N35" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>18.342499999999429</v>
+      </c>
+      <c r="O35" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>389.9872912127754</v>
+      </c>
+      <c r="P35" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-8497.8212191358016</v>
+      </c>
+      <c r="S35" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>17.241949999999463</v>
+      </c>
+      <c r="T35" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1100</v>
-      </c>
-      <c r="B12">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>785.15</v>
-      </c>
-      <c r="D12">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>738.04099999999994</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>85.009958115183238</v>
-      </c>
-      <c r="F12">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>122.99313089005237</v>
-      </c>
-      <c r="G12">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>785.15</v>
-      </c>
-      <c r="H12">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>243.8</v>
-      </c>
-      <c r="I12" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="785" fuelUsageRatio="244"/&gt;</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.458" torque="0.958"/&gt;</v>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4500</v>
+      </c>
+      <c r="B36" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K36" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L36" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M36" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-10548.75</v>
+      </c>
+      <c r="N36" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>329.57516339868567</v>
+      </c>
+      <c r="P36" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-9915.8249999999989</v>
+      </c>
+      <c r="S36" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1200</v>
-      </c>
-      <c r="B13">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>820</v>
-      </c>
-      <c r="D13">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>770.8</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>96.854450261780102</v>
-      </c>
-      <c r="F13">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>140.12984293193719</v>
-      </c>
-      <c r="G13">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>820</v>
-      </c>
-      <c r="H13">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>231.2</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="820" fuelUsageRatio="231"/&gt;</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.5" torque="1"/&gt;</v>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>4750</v>
+      </c>
+      <c r="B37" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K37" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M37" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-12165.790895061729</v>
+      </c>
+      <c r="N37" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>264.17029774872083</v>
+      </c>
+      <c r="P37" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-11435.843441358023</v>
+      </c>
+      <c r="S37" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1300</v>
-      </c>
-      <c r="B14">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>807.6846209409581</v>
-      </c>
-      <c r="D14">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>759.22354368450056</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>103.34980175809956</v>
-      </c>
-      <c r="F14">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>149.52737275639936</v>
-      </c>
-      <c r="G14">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>807.6846209409581</v>
-      </c>
-      <c r="H14">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>222.2</v>
-      </c>
-      <c r="I14" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="808" fuelUsageRatio="222"/&gt;</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.542" torque="0.985"/&gt;</v>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B38" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K38" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M38" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-13891.358024691357</v>
+      </c>
+      <c r="N38" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>193.77269426288075</v>
+      </c>
+      <c r="P38" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-13057.876543209875</v>
+      </c>
+      <c r="S38" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1400</v>
-      </c>
-      <c r="B15">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>793.57791401878262</v>
-      </c>
-      <c r="D15">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>745.96323917765562</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>109.35586752342596</v>
-      </c>
-      <c r="F15">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>158.21699982112693</v>
-      </c>
-      <c r="G15">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>793.57791401878262</v>
-      </c>
-      <c r="H15">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>216.8</v>
-      </c>
-      <c r="I15" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="794" fuelUsageRatio="217"/&gt;</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.583" torque="0.968"/&gt;</v>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>5250</v>
+      </c>
+      <c r="B39" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K39" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M39" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-15725.451388888887</v>
+      </c>
+      <c r="N39" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>118.38235294116551</v>
+      </c>
+      <c r="P39" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-14781.924305555553</v>
+      </c>
+      <c r="S39" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1500</v>
-      </c>
-      <c r="B16">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>777.67987923347403</v>
-      </c>
-      <c r="D16">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>731.0190864794655</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>114.8197518030574</v>
-      </c>
-      <c r="F16">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>166.12219409804052</v>
-      </c>
-      <c r="G16">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>777.67987923347403</v>
-      </c>
-      <c r="H16">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>215</v>
-      </c>
-      <c r="I16" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="778" fuelUsageRatio="215"/&gt;</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.625" torque="0.948"/&gt;</v>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>5500</v>
+      </c>
+      <c r="B40" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K40" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L40" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M40" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-17668.070987654319</v>
+      </c>
+      <c r="N40" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>37.999273783575141</v>
+      </c>
+      <c r="P40" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-16607.986728395059</v>
+      </c>
+      <c r="S40" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1600</v>
-      </c>
-      <c r="B17">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>759.99051658503186</v>
-      </c>
-      <c r="D17">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>714.39108558992996</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>119.68855884229194</v>
-      </c>
-      <c r="F17">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>173.16642555906068</v>
-      </c>
-      <c r="G17">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>759.99051658503197</v>
-      </c>
-      <c r="H17">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>215.32653061224491</v>
-      </c>
-      <c r="I17" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="760" fuelUsageRatio="215"/&gt;</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.667" torque="0.927"/&gt;</v>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>5750</v>
+      </c>
+      <c r="B41" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K41" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L41" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M41" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-19719.216820987658</v>
+      </c>
+      <c r="N41" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-18536.063811728396</v>
+      </c>
+      <c r="S41" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1700</v>
-      </c>
-      <c r="B18">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>740.50982607345645</v>
-      </c>
-      <c r="D18">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>696.079236509049</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>123.90939288642757</v>
-      </c>
-      <c r="F18">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>179.273164176108</v>
-      </c>
-      <c r="G18">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>740.50982607345645</v>
-      </c>
-      <c r="H18">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>216.30612244897958</v>
-      </c>
-      <c r="I18" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="741" fuelUsageRatio="216"/&gt;</v>
-      </c>
-      <c r="J18" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.708" torque="0.903"/&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1800</v>
-      </c>
-      <c r="B19">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>719.23780769874759</v>
-      </c>
-      <c r="D19">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>676.08353923682273</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>127.42935818076241</v>
-      </c>
-      <c r="F19">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>184.36587992110307</v>
-      </c>
-      <c r="G19">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>719.23780769874759</v>
-      </c>
-      <c r="H19">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>217.9387755102041</v>
-      </c>
-      <c r="I19" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="719" fuelUsageRatio="218"/&gt;</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.75" torque="0.877"/&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1900</v>
-      </c>
-      <c r="B20">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>696.17446146090538</v>
-      </c>
-      <c r="D20">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>654.40399377325105</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>130.19555897059445</v>
-      </c>
-      <c r="F20">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>188.36804276596644</v>
-      </c>
-      <c r="G20">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>696.17446146090538</v>
-      </c>
-      <c r="H20">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>220.22448979591837</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="696" fuelUsageRatio="220"/&gt;</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.792" torque="0.849"/&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2000</v>
-      </c>
-      <c r="B21">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>671.31978735992982</v>
-      </c>
-      <c r="D21">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>631.04060011833394</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>132.15509950122177</v>
-      </c>
-      <c r="F21">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>191.20312268261878</v>
-      </c>
-      <c r="G21">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>671.31978735992982</v>
-      </c>
-      <c r="H21">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>223.16326530612244</v>
-      </c>
-      <c r="I21" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="671" fuelUsageRatio="223"/&gt;</v>
-      </c>
-      <c r="J21" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.833" torque="0.819"/&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2100</v>
-      </c>
-      <c r="B22">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>641.74659762895055</v>
-      </c>
-      <c r="D22">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>603.24180177121343</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>132.65002970885322</v>
-      </c>
-      <c r="F22">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>191.91919191919192</v>
-      </c>
-      <c r="G22">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>641.74659762895044</v>
-      </c>
-      <c r="H22">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>226.75510204081633</v>
-      </c>
-      <c r="I22" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="642" fuelUsageRatio="227"/&gt;</v>
-      </c>
-      <c r="J22" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.875" torque="0.783"/&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2200</v>
-      </c>
-      <c r="B23">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>606.45053475935822</v>
-      </c>
-      <c r="D23">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>570.06350267379673</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>131.3235294117647</v>
-      </c>
-      <c r="F23">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>190</v>
-      </c>
-      <c r="G23">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>606.45053475935822</v>
-      </c>
-      <c r="H23">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>231</v>
-      </c>
-      <c r="I23" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="606" fuelUsageRatio="231"/&gt;</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.917" torque="0.74"/&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2300</v>
-      </c>
-      <c r="B24">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>539.06714200831834</v>
-      </c>
-      <c r="D24">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>506.72311348781921</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>122.03802733214494</v>
-      </c>
-      <c r="F24">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>176.56565656565652</v>
-      </c>
-      <c r="G24">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>539.06714200831834</v>
-      </c>
-      <c r="H24">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>256.66666666666669</v>
-      </c>
-      <c r="I24" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="539" fuelUsageRatio="257"/&gt;</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="0.958" torque="0.657"/&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2400</v>
-      </c>
-      <c r="B25">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>336.91696375519905</v>
-      </c>
-      <c r="D25">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>316.70194592988707</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>79.590017825311932</v>
-      </c>
-      <c r="F25">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>115.15151515151516</v>
-      </c>
-      <c r="G25">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>336.91696375519905</v>
-      </c>
-      <c r="H25">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>333.66666666666663</v>
-      </c>
-      <c r="I25" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="337" fuelUsageRatio="334"/&gt;</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1" torque="0.411"/&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2500</v>
-      </c>
-      <c r="B26">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>462</v>
-      </c>
-      <c r="I26" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2500" motorTorque="0" fuelUsageRatio="462"/&gt;</v>
-      </c>
-      <c r="J26" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.042" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2600</v>
-      </c>
-      <c r="B27" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2600" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J27" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.083" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2700</v>
-      </c>
-      <c r="B28" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2700" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J28" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.125" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2800</v>
-      </c>
-      <c r="B29" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2800" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J29" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.167" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2900</v>
-      </c>
-      <c r="B30" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2900" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J30" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.208" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3000</v>
-      </c>
-      <c r="B31" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3000" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J31" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.25" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3100</v>
-      </c>
-      <c r="B32" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3100" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J32" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.292" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3200</v>
-      </c>
-      <c r="B33" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3200" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J33" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.333" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3300</v>
-      </c>
-      <c r="B34" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3300" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J34" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.375" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3400</v>
-      </c>
-      <c r="B35" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3400" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J35" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.417" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3500</v>
-      </c>
-      <c r="B36" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3500" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J36" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.458" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3600</v>
-      </c>
-      <c r="B37" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3600" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J37" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.5" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3700</v>
-      </c>
-      <c r="B38" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3700" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J38" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.542" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3800</v>
-      </c>
-      <c r="B39" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3800" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J39" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.583" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3900</v>
-      </c>
-      <c r="B40" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="3900" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J40" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.625" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4000</v>
-      </c>
-      <c r="B41" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4000" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J41" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.667" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4100</v>
-      </c>
-      <c r="B42" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4100" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J42" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.708" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4200</v>
-      </c>
-      <c r="B43" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4200" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J43" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.75" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4300</v>
-      </c>
-      <c r="B44" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4300" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J44" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.792" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4400</v>
-      </c>
-      <c r="B45" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4400" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J45" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.833" torque="0"/&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4500</v>
-      </c>
-      <c r="B46" s="1">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;1,0,IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2))),(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/Table15[[#This Row],[rpm]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT],Table36[maxT])))))</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46">
-        <f>$L$2*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <f>Table15[[#This Row],[kw_pto]]*1.36/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f>Table15[[#This Row],[pto]]/0.94</f>
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[idleRpm],Table36[fuelIdleRate],IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,0))))</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="5" t="str">
-        <f>CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table36[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),"")))</f>
-        <v xml:space="preserve">        &lt;torque rpm="4500" motorTorque="0" fuelUsageRatio="0"/&gt;</v>
-      </c>
-      <c r="J46" s="4" t="str">
-        <f>CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[maxRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")</f>
-        <v>&lt;torque normRpm="1.875" torque="0"/&gt;</v>
+    <row r="42" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B42" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="3">
+        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
+        <v>500</v>
+      </c>
+      <c r="K42" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v/>
+      </c>
+      <c r="L42" s="10" t="str">
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <v/>
+      </c>
+      <c r="M42" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
+        <v>-21878.888888888891</v>
+      </c>
+      <c r="N42" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
+        <v>-20566.155555555557</v>
+      </c>
+      <c r="S42" s="3">
+        <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I7:I25">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1C56E9C-EE7A-4A8D-B0DC-E752B34F8D7C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:G25">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38D9AB0E-4856-4112-B342-A97DADB3E4E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H42">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16AE14AC-497A-431B-A55E-276DD076547C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I42">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC5EE46E-370E-4713-8616-D3D113139AC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:G42">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98050814-2C89-45D9-81C5-8AFF6038F3C7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J42">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{43DDCF38-9659-4E25-8C46-2A3E5E72C923}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6988,6 +10737,90 @@
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1C56E9C-EE7A-4A8D-B0DC-E752B34F8D7C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I7:I25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38D9AB0E-4856-4112-B342-A97DADB3E4E7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:G25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16AE14AC-497A-431B-A55E-276DD076547C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7:H42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC5EE46E-370E-4713-8616-D3D113139AC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H7:I42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98050814-2C89-45D9-81C5-8AFF6038F3C7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:G42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{43DDCF38-9659-4E25-8C46-2A3E5E72C923}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J7:J42</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="18720" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>rpm</t>
   </si>
@@ -231,11 +231,17 @@
   <si>
     <t>maxPsEcoRate</t>
   </si>
+  <si>
+    <t>fadeOutExp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -329,21 +335,6 @@
       </top>
       <bottom style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,89 +493,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="73">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -593,30 +550,24 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <i/>
         <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -803,6 +754,29 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -846,6 +820,39 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1029,15 +1036,30 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1045,9 +1067,7 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom/>
         <vertical/>
@@ -1312,9 +1332,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1610,61 +1627,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.41504801097392</c:v>
+                  <c:v>212.26633744855968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>553.66529492455413</c:v>
+                  <c:v>437.0189300411522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>679.29257887517133</c:v>
+                  <c:v>906.36374485596684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>693.77865569272967</c:v>
+                  <c:v>1042.4092181069957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>703.25</c:v>
+                  <c:v>1137.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>711.08</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>717.17</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>721.52</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>724.13</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>725</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>725</c:v>
+                  <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>723.40232389252003</c:v>
+                  <c:v>1147.9816452896948</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>721.00580973129979</c:v>
+                  <c:v>1097.9449358690845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>717.81045751633974</c:v>
+                  <c:v>1047.9082264484741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>678.79901960784298</c:v>
+                  <c:v>997.87151702786366</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>641.34803921568619</c:v>
+                  <c:v>948.85569852941171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>605.23459383753493</c:v>
+                  <c:v>906.17997198879539</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>537.9863056333644</c:v>
+                  <c:v>825.35460243878128</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>336.24144102085273</c:v>
+                  <c:v>534.80409581228059</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1884,61 +1901,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.6901451303155</c:v>
+                  <c:v>199.5303572016461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>520.4453772290808</c:v>
+                  <c:v>410.79779423868308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>638.53502414266109</c:v>
+                  <c:v>851.98192016460882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>652.151936351166</c:v>
+                  <c:v>979.86466502057601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>661.05499999999995</c:v>
+                  <c:v>1069.5413999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>668.41520000000003</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>674.13979999999992</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>678.22879999999998</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>680.68219999999997</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>681.5</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>681.5</c:v>
+                  <c:v>1102.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>669.23102759622373</c:v>
+                  <c:v>1066.8561415906074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>650.82756899055914</c:v>
+                  <c:v>995.3284247718226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>626.28962418300659</c:v>
+                  <c:v>923.80070795303766</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>587.23506836945296</c:v>
+                  <c:v>852.27299113425283</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>540.51127450980403</c:v>
+                  <c:v>798.73166151403746</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>487.21384803921569</c:v>
+                  <c:v>729.47487745098033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>433.07897603485839</c:v>
+                  <c:v>664.41045496321897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>270.67436002178653</c:v>
+                  <c:v>430.51729712888584</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2001,8 +2018,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362055952"/>
-        <c:axId val="362058304"/>
+        <c:axId val="249980800"/>
+        <c:axId val="249981976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2166,114 +2183,114 @@
             <c:numRef>
               <c:f>'Calculate from Values'!$H$7:$H$42</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7828739821458064</c:v>
+                  <c:v>3.0228504600004311</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.538630412456278</c:v>
+                  <c:v>24.894062611768252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.715867548603484</c:v>
+                  <c:v>90.351652890353989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.039913863213599</c:v>
+                  <c:v>118.75824390580225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.133821989528798</c:v>
+                  <c:v>145.83030785340313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.26374869109948</c:v>
+                  <c:v>167.04502617801046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.34411727748689</c:v>
+                  <c:v>183.74952879581153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.30059057591625</c:v>
+                  <c:v>200.4540314136126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>134.05883141361258</c:v>
+                  <c:v>217.15853403141364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.54450261780107</c:v>
+                  <c:v>233.86303664921471</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154.86910994764401</c:v>
+                  <c:v>250.56753926701575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164.82968133927997</c:v>
+                  <c:v>261.57152462307602</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>174.55135414646756</c:v>
+                  <c:v>265.8061457308192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>183.99999999999997</c:v>
+                  <c:v>268.61563752312719</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>183.66666666666663</c:v>
+                  <c:v>269.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>182.66666666666666</c:v>
+                  <c:v>270.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.99999999999997</c:v>
+                  <c:v>270.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>168.55026455026453</c:v>
+                  <c:v>258.58230057558467</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>110.13227513227511</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                  <c:v>175.16934153935222</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2440,114 +2457,114 @@
             <c:numRef>
               <c:f>'Calculate from Values'!$I$7:$I$42</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6159015432170585</c:v>
+                  <c:v>2.8414794324004049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.646312587708891</c:v>
+                  <c:v>23.400418855062156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.652915495687267</c:v>
+                  <c:v>84.930553716932749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.297519031420791</c:v>
+                  <c:v>111.63274927145412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.725792670157063</c:v>
+                  <c:v>137.08048938219895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.187923769633514</c:v>
+                  <c:v>157.02232460732984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.60347024083769</c:v>
+                  <c:v>172.72455706806281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115.90255514136128</c:v>
+                  <c:v>188.42678952879581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126.01530152879582</c:v>
+                  <c:v>204.12902198952881</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135.871832460733</c:v>
+                  <c:v>219.83125445026178</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>145.57696335078538</c:v>
+                  <c:v>235.53348691099475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>152.48656712558983</c:v>
+                  <c:v>243.08680252368185</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157.56160623101286</c:v>
+                  <c:v>240.96327937931457</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>160.54000000000002</c:v>
+                  <c:v>236.80252702293572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>158.89166666666665</c:v>
+                  <c:v>230.60454545454547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>153.94666666666669</c:v>
+                  <c:v>227.49215909090907</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145.70500000000001</c:v>
+                  <c:v>218.15499999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>135.68296296296296</c:v>
+                  <c:v>208.15875196334568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>88.656481481481492</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                  <c:v>141.01131993917852</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="24" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="25" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="26" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="27" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="28" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="29" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="30" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="31" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="32" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="33" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="34" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="35" formatCode="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2563,14 +2580,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362054776"/>
-        <c:axId val="362054384"/>
+        <c:axId val="327271392"/>
+        <c:axId val="249974920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362055952"/>
+        <c:axId val="249980800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2670,13 +2688,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362058304"/>
+        <c:crossAx val="249981976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362058304"/>
+        <c:axId val="249981976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,18 +2796,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362055952"/>
+        <c:crossAx val="249980800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362054384"/>
+        <c:axId val="249974920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2826,12 +2844,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362054776"/>
+        <c:crossAx val="327271392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362054776"/>
+        <c:axId val="327271392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362054384"/>
+        <c:crossAx val="249974920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3129,112 +3147,112 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>345</c:v>
+                  <c:v>260.79918367346932</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>325.83333333333331</c:v>
+                  <c:v>251.38217687074825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>278.33333333333331</c:v>
+                  <c:v>227.58013605442176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.83333333333334</c:v>
+                  <c:v>210.45156462585035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.33333333333334</c:v>
+                  <c:v>206.22503401360544</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>232.5</c:v>
+                  <c:v>202.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>228.33333333333334</c:v>
+                  <c:v>199.99646258503404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>225.83333333333334</c:v>
+                  <c:v>197.9944217687075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225</c:v>
+                  <c:v>196.73387755102041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>225.30864197530863</c:v>
+                  <c:v>196.21482993197282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>226.23456790123456</c:v>
+                  <c:v>196.42932281393823</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>227.77777777777777</c:v>
+                  <c:v>197.36094674556216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>229.93827160493828</c:v>
+                  <c:v>199.00920447074296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>232.71604938271605</c:v>
+                  <c:v>201.37409598948062</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>236.11111111111111</c:v>
+                  <c:v>204.45562130177515</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>240.12345679012347</c:v>
+                  <c:v>208.25378040762658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>244.75308641975309</c:v>
+                  <c:v>212.76857330703484</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>250</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>277.77777777777777</c:v>
+                  <c:v>242.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>361.11111111111109</c:v>
+                  <c:v>314.88888888888891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>500</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,14 +3267,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362056344"/>
-        <c:axId val="362058696"/>
+        <c:axId val="334791288"/>
+        <c:axId val="334793248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362056344"/>
+        <c:axId val="334791288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
+          <c:min val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3356,17 +3375,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362058696"/>
+        <c:crossAx val="334793248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362058696"/>
+        <c:axId val="334793248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="150"/>
+          <c:max val="260"/>
+          <c:min val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3460,10 +3479,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362056344"/>
+        <c:crossAx val="334791288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3775,11 +3795,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362057912"/>
-        <c:axId val="362059480"/>
+        <c:axId val="334787760"/>
+        <c:axId val="334792072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362057912"/>
+        <c:axId val="334787760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -3838,12 +3858,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362059480"/>
+        <c:crossAx val="334792072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362059480"/>
+        <c:axId val="334792072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362057912"/>
+        <c:crossAx val="334787760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4161,11 +4181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="362061048"/>
-        <c:axId val="362059872"/>
+        <c:axId val="334790896"/>
+        <c:axId val="334786584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="362061048"/>
+        <c:axId val="334790896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -4224,12 +4244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362059872"/>
+        <c:crossAx val="334786584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362059872"/>
+        <c:axId val="334786584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362061048"/>
+        <c:crossAx val="334790896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6699,7 +6719,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A6:V42">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6725,65 +6745,65 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="22">
-    <tableColumn id="1" name="rpm" dataDxfId="69"/>
-    <tableColumn id="7" name="rawData" dataDxfId="68">
+    <tableColumn id="1" name="rpm" dataDxfId="70"/>
+    <tableColumn id="7" name="rawData" dataDxfId="69">
       <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="manualData" dataDxfId="67"/>
-    <tableColumn id="12" name="rawDataEco" dataDxfId="66">
+    <tableColumn id="9" name="manualData" dataDxfId="68"/>
+    <tableColumn id="12" name="rawDataEco" dataDxfId="67">
       <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="manDataEco" dataDxfId="65"/>
-    <tableColumn id="4" name="motor" dataDxfId="64">
+    <tableColumn id="11" name="manDataEco" dataDxfId="66"/>
+    <tableColumn id="4" name="motor" dataDxfId="65">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="motorEco" dataDxfId="63">
+    <tableColumn id="14" name="motorEco" dataDxfId="64">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="62">
+    <tableColumn id="3" name="ps" dataDxfId="63">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="psEco" dataDxfId="61">
+    <tableColumn id="13" name="psEco" dataDxfId="62">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="60">
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="61">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="59">
+    <tableColumn id="5" name="xml" dataDxfId="60">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="58">
+    <tableColumn id="8" name="xml2" dataDxfId="59">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="t1" dataDxfId="57">
+    <tableColumn id="15" name="t1" dataDxfId="58">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="t2" dataDxfId="56">
+    <tableColumn id="18" name="t2" dataDxfId="57">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="t3" dataDxfId="55">
+    <tableColumn id="19" name="t3" dataDxfId="56">
       <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="t4" dataDxfId="54">
+    <tableColumn id="16" name="t4" dataDxfId="55">
       <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="t5" dataDxfId="53">
-      <calculatedColumnFormula>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</calculatedColumnFormula>
+    <tableColumn id="17" name="t5" dataDxfId="1">
+      <calculatedColumnFormula>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="t1E" dataDxfId="52">
+    <tableColumn id="21" name="t1E" dataDxfId="54">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="t2E" dataDxfId="2">
+    <tableColumn id="22" name="t2E" dataDxfId="53">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="t3E" dataDxfId="51">
+    <tableColumn id="23" name="t3E" dataDxfId="52">
       <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="t4E" dataDxfId="50">
+    <tableColumn id="24" name="t4E" dataDxfId="51">
       <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="t5E" dataDxfId="49">
-      <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</calculatedColumnFormula>
+    <tableColumn id="25" name="t5E" dataDxfId="0">
+      <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6791,8 +6811,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:X2" totalsRowShown="0" headerRowDxfId="48">
-  <autoFilter ref="A1:X2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="50">
+  <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -6807,53 +6827,54 @@
     <filterColumn colId="11" hiddenButton="1"/>
     <filterColumn colId="12" hiddenButton="1"/>
     <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
     <filterColumn colId="16" hiddenButton="1"/>
     <filterColumn colId="17" hiddenButton="1"/>
     <filterColumn colId="18" hiddenButton="1"/>
     <filterColumn colId="19" hiddenButton="1"/>
     <filterColumn colId="20" hiddenButton="1"/>
+    <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="24">
-    <tableColumn id="10" name="maxPRpm" dataDxfId="47"/>
-    <tableColumn id="14" name="maxPS" dataDxfId="46"/>
-    <tableColumn id="19" name="maxPSEco" dataDxfId="45">
+  <tableColumns count="25">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="49"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="48"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="47">
       <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="20" name="PSEco" dataDxfId="44">
+    <tableColumn id="20" name="PSEco" dataDxfId="46">
       <calculatedColumnFormula>Table36[PSEcoRate]*Table36[PS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="maxTRpm1" dataDxfId="43"/>
-    <tableColumn id="4" name="maxTRpm" dataDxfId="42"/>
-    <tableColumn id="5" name="maxT" dataDxfId="41"/>
-    <tableColumn id="21" name="maxTEco" dataDxfId="40">
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="45"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="44"/>
+    <tableColumn id="5" name="maxT" dataDxfId="43"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="42">
       <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut" dataDxfId="39"/>
-    <tableColumn id="15" name="linearDown" dataDxfId="38"/>
-    <tableColumn id="22" name="Efficiency" dataDxfId="37"/>
-    <tableColumn id="16" name="Factor" dataDxfId="36"/>
-    <tableColumn id="9" name="fuelMinRpm" dataDxfId="35">
-      <calculatedColumnFormula>0.75*Table36[idleRpm]+0.25*Table36[ratedRpm]</calculatedColumnFormula>
+    <tableColumn id="11" name="fadeOut" dataDxfId="41"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="40"/>
+    <tableColumn id="25" name="fadeOutExp" dataDxfId="2"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="39"/>
+    <tableColumn id="16" name="Factor" dataDxfId="38"/>
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="37">
+      <calculatedColumnFormula>ROUND(0.65*Table36[idleRpm]+0.35*Table36[ratedRpm],-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="fuelMinRate" dataDxfId="34">
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="36">
       <calculatedColumnFormula>0.9*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fuelIdleRate" dataDxfId="33">
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="35">
       <calculatedColumnFormula>0.93*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="fuelRatedRate" dataDxfId="32"/>
-    <tableColumn id="1" name="normRpm" dataDxfId="31">
-      <calculatedColumnFormula>ROUND(Table36[ratedRpm]+MAX(100,0.6667*Table36[fadeOut]),0)</calculatedColumnFormula>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="34"/>
+    <tableColumn id="1" name="normRpm" dataDxfId="3">
+      <calculatedColumnFormula>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="PSEcoRate" dataDxfId="30"/>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="33"/>
     <tableColumn id="23" name="NmEcoRate"/>
-    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="0">
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="32">
       <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6862,7 +6883,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:S4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6881,37 +6902,37 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="f1" dataDxfId="27">
+    <tableColumn id="1" name="f1" dataDxfId="29">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2" dataDxfId="26">
+    <tableColumn id="2" name="f2" dataDxfId="28">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3" dataDxfId="25">
+    <tableColumn id="5" name="f3" dataDxfId="27">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4" dataDxfId="24">
+    <tableColumn id="6" name="f4" dataDxfId="26">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm" dataDxfId="23">
+    <tableColumn id="3" name="Nm" dataDxfId="25">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2" dataDxfId="22">
+    <tableColumn id="4" name="Nm2" dataDxfId="24">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="AnstiegE" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="17" name="AnstiegE" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anstieg" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="14" name="Anstieg" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Abfall" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="15" name="Abfall" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Nm1000" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="16" name="Nm1000" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="NmEco" dataDxfId="18">
@@ -6936,7 +6957,7 @@
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" name="xmlComment" dataDxfId="11">
-      <calculatedColumnFormula>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," --&gt;")</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7276,10 +7297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7295,7 +7316,7 @@
     <col min="13" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -7339,256 +7360,262 @@
         <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1800</v>
-      </c>
-      <c r="B2" s="15">
-        <v>184</v>
-      </c>
-      <c r="C2" s="19">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1900</v>
+      </c>
+      <c r="B2" s="14">
+        <v>270</v>
+      </c>
+      <c r="C2" s="18">
         <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
-        <v>160.54000000000002</v>
+        <v>230.60454545454547</v>
       </c>
       <c r="D2" s="7">
         <v>2100</v>
       </c>
       <c r="E2" s="8">
-        <v>181</v>
-      </c>
-      <c r="F2" s="20">
+        <v>271</v>
+      </c>
+      <c r="F2" s="19">
         <f>Table36[PSEcoRate]*Table36[PS]</f>
-        <v>145.70500000000001</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1400</v>
-      </c>
-      <c r="H2" s="15">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="15">
-        <v>725</v>
-      </c>
-      <c r="J2" s="19">
+        <v>218.155</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1550</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1173</v>
+      </c>
+      <c r="J2" s="18">
         <f>Table36[NmEcoRate]*Table36[maxT]</f>
-        <v>681.5</v>
+        <v>1102.6199999999999</v>
       </c>
       <c r="K2" s="7">
         <v>900</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>0.97</v>
       </c>
       <c r="M2" s="9">
         <v>300</v>
       </c>
-      <c r="N2" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="15">
+      <c r="N2" s="13">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P2" s="14">
         <v>0.94</v>
       </c>
-      <c r="P2" s="16">
+      <c r="Q2" s="15">
         <v>1</v>
       </c>
-      <c r="Q2" s="17">
-        <f>0.75*Table36[idleRpm]+0.25*Table36[ratedRpm]</f>
-        <v>1200</v>
-      </c>
-      <c r="R2" s="18">
+      <c r="R2" s="16">
+        <f>ROUND(0.65*Table36[idleRpm]+0.35*Table36[ratedRpm],-1)</f>
+        <v>1320</v>
+      </c>
+      <c r="S2" s="17">
         <f>0.9*Table36[fuelRatedRate]</f>
-        <v>225</v>
-      </c>
-      <c r="S2" s="18">
+        <v>196.20000000000002</v>
+      </c>
+      <c r="T2" s="17">
         <f>0.93*Table36[fuelRatedRate]</f>
-        <v>232.5</v>
-      </c>
-      <c r="T2" s="9">
-        <v>250</v>
-      </c>
-      <c r="U2" s="11">
-        <f>ROUND(Table36[ratedRpm]+MAX(100,0.6667*Table36[fadeOut]),0)</f>
-        <v>2300</v>
-      </c>
-      <c r="V2" s="7">
+        <v>202.74</v>
+      </c>
+      <c r="U2" s="9">
+        <v>218</v>
+      </c>
+      <c r="V2" s="16">
+        <f>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</f>
+        <v>2200</v>
+      </c>
+      <c r="W2" s="7">
         <v>0.80500000000000005</v>
       </c>
-      <c r="W2" s="9">
+      <c r="X2" s="9">
         <v>0.94</v>
       </c>
-      <c r="X2" s="30">
+      <c r="Y2" s="29">
         <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
-        <v>0.87250000000000005</v>
+        <v>0.85409090909090912</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>1.200000000000001E-7</v>
-      </c>
-      <c r="B4" s="13">
+        <v>3.0000000000000026E-6</v>
+      </c>
+      <c r="B4" s="12">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>3.3055367740966714E-5</v>
-      </c>
-      <c r="C4" s="13">
+        <v>4.2657041279292737E-4</v>
+      </c>
+      <c r="C4" s="12">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.1018455913655572E-7</v>
-      </c>
-      <c r="D4" s="13">
+        <v>1.2187726079797926E-6</v>
+      </c>
+      <c r="D4" s="12">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>3.3333333333333335E-5</v>
-      </c>
-      <c r="E4" s="13">
+        <v>-2.5000000000000001E-5</v>
+      </c>
+      <c r="E4" s="12">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>717.81045751633974</v>
-      </c>
-      <c r="F4" s="13">
+        <v>997.87151702786366</v>
+      </c>
+      <c r="F4" s="12">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>605.23459383753493</v>
-      </c>
-      <c r="G4" s="24">
+        <v>906.17997198879539</v>
+      </c>
+      <c r="G4" s="23">
         <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
-        <v>1.3719133860624575</v>
-      </c>
-      <c r="H4" s="25">
+        <v>1.5115256660420007</v>
+      </c>
+      <c r="H4" s="24">
         <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
-        <v>0.39876976556123322</v>
-      </c>
-      <c r="I4" s="25">
+        <v>0.51152566604200067</v>
+      </c>
+      <c r="I4" s="24">
         <f>Table36[maxT]/Table7[Nm2]-1</f>
-        <v>0.19788261837956678</v>
-      </c>
-      <c r="J4" s="26">
+        <v>0.2944448523019263</v>
+      </c>
+      <c r="J4" s="25">
         <f>1-Table36[maxTRpm]/Table36[ratedRpm]</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K4" s="13">
+        <v>0.26190476190476186</v>
+      </c>
+      <c r="K4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
-        <v>668.41520000000003</v>
-      </c>
-      <c r="L4" s="13">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="L4" s="12">
         <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
-        <v>626.28962418300659</v>
-      </c>
-      <c r="M4" s="13">
+        <v>852.27299113425283</v>
+      </c>
+      <c r="M4" s="12">
         <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
-        <v>487.21384803921569</v>
-      </c>
-      <c r="N4" s="13">
+        <v>729.47487745098033</v>
+      </c>
+      <c r="N4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>2.7004341314254538E-4</v>
-      </c>
-      <c r="O4" s="13">
+        <v>6.4870686926397924E-4</v>
+      </c>
+      <c r="O4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>9.0014471047515134E-7</v>
-      </c>
-      <c r="P4" s="13">
+        <v>1.8534481978970834E-6</v>
+      </c>
+      <c r="P4" s="12">
         <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>1.6483333333333343E-4</v>
-      </c>
-      <c r="Q4" s="13">
+        <v>3.1123863636363678E-4</v>
+      </c>
+      <c r="Q4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
-        <v>703.25</v>
-      </c>
-      <c r="R4" s="13">
+        <v>1137.81</v>
+      </c>
+      <c r="R4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
-        <v>661.05499999999995</v>
-      </c>
-      <c r="S4" s="13" t="str">
-        <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," --&gt;")</f>
-        <v>&lt;!-- 1800: 184(160.54) | 2100: 181(145.705) | 1400..1500: 725(681.5) | 97 | 0.5 --&gt;</v>
+        <v>1069.5413999999998</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," --&gt;")</f>
+        <v>&lt;!-- 1900: 270(230.604545454545) | 2100: 271(218.155) | 1000..1550: 1173(1102.62) | 97 | 1 | 300 | 2.2 --&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -7656,7 +7683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -7664,12 +7691,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -7678,21 +7705,21 @@
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
       <c r="J7" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>345</v>
+        <v>260.79918367346932</v>
       </c>
       <c r="K7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="345"/&gt;&lt;!-- 1800: 184(160.54) | 2100: 181(145.705) | 1400..1500: 725(681.5) | 97 | 0.5 --&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="261"/&gt;&lt;!-- 1900: 270(230.604545454545) | 2100: 271(218.155) | 1000..1550: 1173(1102.62) | 97 | 1 | 300 | 2.2 --&gt;</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
@@ -7704,19 +7731,19 @@
       </c>
       <c r="N7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>554.4799999999999</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>653.10457516339739</v>
+        <v>1948.5689960194609</v>
       </c>
       <c r="P7" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>533676.47058823518</v>
+        <v>2529696.6911764704</v>
       </c>
       <c r="Q7" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -7724,766 +7751,766 @@
       </c>
       <c r="S7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>521.21119999999985</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>129.39624183006595</v>
+        <v>2211.2996106911655</v>
       </c>
       <c r="U7" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V7" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>100</v>
       </c>
       <c r="B8" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>195.41504801097392</v>
-      </c>
-      <c r="C8" s="22"/>
+        <v>212.26633744855968</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="D8" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>183.6901451303155</v>
-      </c>
-      <c r="E8" s="22"/>
+        <v>199.5303572016461</v>
+      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>195.41504801097392</v>
+        <v>212.26633744855968</v>
       </c>
       <c r="G8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>183.6901451303155</v>
-      </c>
-      <c r="H8" s="3">
+        <v>199.5303572016461</v>
+      </c>
+      <c r="H8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>2.7828739821458064</v>
-      </c>
-      <c r="I8" s="3">
+        <v>3.0228504600004311</v>
+      </c>
+      <c r="I8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>2.6159015432170585</v>
+        <v>2.8414794324004049</v>
       </c>
       <c r="J8" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>325.83333333333331</v>
+        <v>251.38217687074825</v>
       </c>
       <c r="K8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="195" motorTorqueEco="184" fuelUsageRatio="326"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="212" motorTorqueEco="200" fuelUsageRatio="251"/&gt;</v>
       </c>
       <c r="L8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.043" torque="0.27"/&gt;</v>
+        <v>&lt;torque normRpm="0.045" torque="0.181"/&gt;</v>
       </c>
       <c r="M8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>147.5956790123457</v>
+        <v>238.79962962962966</v>
       </c>
       <c r="N8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>577.9699999999998</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>663.4894698620177</v>
+        <v>1898.5322865988505</v>
       </c>
       <c r="P8" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>6156.0049019607832</v>
+        <v>24647.426470588231</v>
       </c>
       <c r="Q8" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>138.73993827160496</v>
+        <v>224.47165185185187</v>
       </c>
       <c r="S8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>543.29179999999985</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>209.14456245461193</v>
+        <v>2139.7718938723806</v>
       </c>
       <c r="U8" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V8" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>400</v>
       </c>
       <c r="B9" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>553.66529492455413</v>
-      </c>
-      <c r="C9" s="22"/>
+        <v>437.0189300411522</v>
+      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>520.4453772290808</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>410.79779423868308</v>
+      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>553.66529492455413</v>
+        <v>437.0189300411522</v>
       </c>
       <c r="G9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>520.4453772290808</v>
-      </c>
-      <c r="H9" s="3">
+        <v>410.79779423868308</v>
+      </c>
+      <c r="H9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>31.538630412456278</v>
-      </c>
-      <c r="I9" s="3">
+        <v>24.894062611768252</v>
+      </c>
+      <c r="I9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>29.646312587708891</v>
+        <v>23.400418855062156</v>
       </c>
       <c r="J9" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>278.33333333333331</v>
+        <v>227.58013605442176</v>
       </c>
       <c r="K9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="554" motorTorqueEco="520" fuelUsageRatio="278"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="437" motorTorqueEco="411" fuelUsageRatio="228"/&gt;</v>
       </c>
       <c r="L9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.174" torque="0.764"/&gt;</v>
+        <v>&lt;torque normRpm="0.182" torque="0.373"/&gt;</v>
       </c>
       <c r="M9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>486.19753086419752</v>
+        <v>786.63407407407396</v>
       </c>
       <c r="N9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>637.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>689.85112563543873</v>
+        <v>1748.4221583370193</v>
       </c>
       <c r="P9" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2083.2107843137251</v>
+        <v>5727.3667279411757</v>
       </c>
       <c r="Q9" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>457.02567901234562</v>
+        <v>739.4360296296295</v>
       </c>
       <c r="S9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>599.71999999999991</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>411.58260711692111</v>
+        <v>1925.1887434160258</v>
       </c>
       <c r="U9" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V9" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>700</v>
       </c>
       <c r="B10" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>679.29257887517133</v>
-      </c>
-      <c r="C10" s="22"/>
+        <v>906.36374485596684</v>
+      </c>
+      <c r="C10" s="21"/>
       <c r="D10" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>638.53502414266109</v>
-      </c>
-      <c r="E10" s="22"/>
+        <v>851.98192016460882</v>
+      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>679.29257887517133</v>
+        <v>906.36374485596684</v>
       </c>
       <c r="G10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>638.53502414266109</v>
-      </c>
-      <c r="H10" s="3">
+        <v>851.98192016460882</v>
+      </c>
+      <c r="H10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>67.715867548603484</v>
-      </c>
-      <c r="I10" s="3">
+        <v>90.351652890353989</v>
+      </c>
+      <c r="I10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>63.652915495687267</v>
+        <v>84.930553716932749</v>
       </c>
       <c r="J10" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>245.83333333333334</v>
+        <v>210.45156462585035</v>
       </c>
       <c r="K10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="679" motorTorqueEco="639" fuelUsageRatio="246"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="906" motorTorqueEco="852" fuelUsageRatio="210"/&gt;</v>
       </c>
       <c r="L10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.304" torque="0.937"/&gt;</v>
+        <v>&lt;torque normRpm="0.318" torque="0.773"/&gt;</v>
       </c>
       <c r="M10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>668.52160493827159</v>
+        <v>1081.6218518518517</v>
       </c>
       <c r="N10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>682.36999999999989</v>
+        <v>856.28999999999974</v>
       </c>
       <c r="O10" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>709.02323892519939</v>
+        <v>1598.3120300751882</v>
       </c>
       <c r="P10" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1441.1939775910364</v>
+        <v>3069.6428571428564</v>
       </c>
       <c r="Q10" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>628.41030864197523</v>
+        <v>1016.7245407407406</v>
       </c>
       <c r="S10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>641.42779999999993</v>
+        <v>804.91259999999966</v>
       </c>
       <c r="T10" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>558.81027596223691</v>
+        <v>1710.6055929596714</v>
       </c>
       <c r="U10" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>800</v>
       </c>
       <c r="B11" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>693.77865569272967</v>
-      </c>
-      <c r="C11" s="22"/>
+        <v>1042.4092181069957</v>
+      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>652.151936351166</v>
-      </c>
-      <c r="E11" s="22"/>
+        <v>979.86466502057601</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>693.77865569272967</v>
+        <v>1042.4092181069957</v>
       </c>
       <c r="G11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>652.151936351166</v>
-      </c>
-      <c r="H11" s="3">
+        <v>979.86466502057601</v>
+      </c>
+      <c r="H11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>79.039913863213599</v>
-      </c>
-      <c r="I11" s="3">
+        <v>118.75824390580225</v>
+      </c>
+      <c r="I11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>74.297519031420791</v>
+        <v>111.63274927145412</v>
       </c>
       <c r="J11" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>238.33333333333334</v>
+        <v>206.22503401360544</v>
       </c>
       <c r="K11" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="694" motorTorqueEco="652" fuelUsageRatio="238"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1042" motorTorqueEco="980" fuelUsageRatio="206"/&gt;</v>
       </c>
       <c r="L11" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.348" torque="0.957"/&gt;</v>
+        <v>&lt;torque normRpm="0.364" torque="0.889"/&gt;</v>
       </c>
       <c r="M11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>694.5679012345679</v>
+        <v>1123.7629629629628</v>
       </c>
       <c r="N11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>693.68</v>
+        <v>1032.2399999999998</v>
       </c>
       <c r="O11" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>713.81626724763964</v>
+        <v>1548.2753206545779</v>
       </c>
       <c r="P11" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1322.4877450980389</v>
+        <v>2635.466452205882</v>
       </c>
       <c r="Q11" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>652.89382716049374</v>
+        <v>1056.337185185185</v>
       </c>
       <c r="S11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>652.05920000000003</v>
+        <v>970.3055999999998</v>
       </c>
       <c r="T11" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>595.61719317356585</v>
+        <v>1639.0778761408865</v>
       </c>
       <c r="U11" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V11" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>900</v>
       </c>
       <c r="B12" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>703.25</v>
-      </c>
-      <c r="C12" s="22"/>
+        <v>1137.81</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>661.05499999999995</v>
-      </c>
-      <c r="E12" s="22"/>
+        <v>1069.5413999999998</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>703.25</v>
+        <v>1137.81</v>
       </c>
       <c r="G12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>661.05499999999995</v>
-      </c>
-      <c r="H12" s="3">
+        <v>1069.5413999999998</v>
+      </c>
+      <c r="H12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>90.133821989528798</v>
-      </c>
-      <c r="I12" s="3">
+        <v>145.83030785340313</v>
+      </c>
+      <c r="I12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>84.725792670157063</v>
+        <v>137.08048938219895</v>
       </c>
       <c r="J12" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>232.5</v>
+        <v>202.74</v>
       </c>
       <c r="K12" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="703" motorTorqueEco="661" fuelUsageRatio="233"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="1138" motorTorqueEco="1070" fuelUsageRatio="203"/&gt;</v>
       </c>
       <c r="L12" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.391" torque="0.97"/&gt;</v>
+        <v>&lt;torque normRpm="0.409" torque="0.97"/&gt;</v>
       </c>
       <c r="M12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>703.25</v>
+        <v>1137.81</v>
       </c>
       <c r="N12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>703.25</v>
+        <v>1137.81</v>
       </c>
       <c r="O12" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>717.81045751633974</v>
+        <v>1498.2386112339675</v>
       </c>
       <c r="P12" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1224.9591503267973</v>
+        <v>2301.6748366013071</v>
       </c>
       <c r="Q12" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>661.05499999999995</v>
+        <v>1069.5413999999998</v>
       </c>
       <c r="S12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>661.05499999999995</v>
+        <v>1069.5413999999998</v>
       </c>
       <c r="T12" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>626.28962418300659</v>
+        <v>1567.5501593221015</v>
       </c>
       <c r="U12" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>210.85682189542442</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1000</v>
       </c>
       <c r="B13" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>711.08</v>
-      </c>
-      <c r="C13" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>668.41520000000003</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>711.08</v>
+        <v>1173</v>
       </c>
       <c r="G13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>668.41520000000003</v>
-      </c>
-      <c r="H13" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>101.26374869109948</v>
-      </c>
-      <c r="I13" s="3">
+        <v>167.04502617801046</v>
+      </c>
+      <c r="I13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>95.187923769633514</v>
+        <v>157.02232460732984</v>
       </c>
       <c r="J13" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>228.33333333333334</v>
+        <v>199.99646258503404</v>
       </c>
       <c r="K13" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="711" motorTorqueEco="668" fuelUsageRatio="228"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="200"/&gt;</v>
       </c>
       <c r="L13" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.435" torque="0.981"/&gt;</v>
+        <v>&lt;torque normRpm="0.455" torque="1"/&gt;</v>
       </c>
       <c r="M13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>694.5679012345679</v>
+        <v>1123.7629629629628</v>
       </c>
       <c r="N13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>711.08</v>
+        <v>1173</v>
       </c>
       <c r="O13" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>721.00580973129979</v>
+        <v>1448.2019018133569</v>
       </c>
       <c r="P13" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1142.2549019607841</v>
+        <v>2038.1525735294115</v>
       </c>
       <c r="Q13" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>652.89382716049374</v>
+        <v>1056.337185185185</v>
       </c>
       <c r="S13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>668.41520000000003</v>
+        <v>1102.6199999999999</v>
       </c>
       <c r="T13" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>650.82756899055914</v>
+        <v>1496.0224425033168</v>
       </c>
       <c r="U13" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>386.5409313725487</v>
+        <v>0</v>
       </c>
       <c r="V13" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1100</v>
       </c>
       <c r="B14" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>717.17</v>
-      </c>
-      <c r="C14" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>674.13979999999992</v>
-      </c>
-      <c r="E14" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>717.17</v>
+        <v>1173</v>
       </c>
       <c r="G14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>674.13979999999992</v>
-      </c>
-      <c r="H14" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>112.34411727748689</v>
-      </c>
-      <c r="I14" s="3">
+        <v>183.74952879581153</v>
+      </c>
+      <c r="I14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>105.60347024083769</v>
+        <v>172.72455706806281</v>
       </c>
       <c r="J14" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>225.83333333333334</v>
+        <v>197.9944217687075</v>
       </c>
       <c r="K14" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="717" motorTorqueEco="674" fuelUsageRatio="226"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="198"/&gt;</v>
       </c>
       <c r="L14" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.478" torque="0.989"/&gt;</v>
+        <v>&lt;torque normRpm="0.5" torque="1"/&gt;</v>
       </c>
       <c r="M14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>668.52160493827159</v>
+        <v>1081.6218518518517</v>
       </c>
       <c r="N14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>717.17</v>
+        <v>1137.81</v>
       </c>
       <c r="O14" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>723.40232389251992</v>
+        <v>1398.1651923927468</v>
       </c>
       <c r="P14" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1070.3319964349373</v>
+        <v>1825.7352941176468</v>
       </c>
       <c r="Q14" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>628.41030864197523</v>
+        <v>1016.7245407407406</v>
       </c>
       <c r="S14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>674.13979999999992</v>
+        <v>1069.5413999999998</v>
       </c>
       <c r="T14" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>669.23102759622373</v>
+        <v>1424.4947256845319</v>
       </c>
       <c r="U14" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>509.23757798573956</v>
+        <v>200.52330456976009</v>
       </c>
       <c r="V14" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1200</v>
       </c>
       <c r="B15" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>721.52</v>
-      </c>
-      <c r="C15" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C15" s="21"/>
       <c r="D15" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>678.22879999999998</v>
-      </c>
-      <c r="E15" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E15" s="21"/>
       <c r="F15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>721.52</v>
+        <v>1173</v>
       </c>
       <c r="G15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>678.22879999999998</v>
-      </c>
-      <c r="H15" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>123.30059057591625</v>
-      </c>
-      <c r="I15" s="3">
+        <v>200.4540314136126</v>
+      </c>
+      <c r="I15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>115.90255514136128</v>
+        <v>188.42678952879581</v>
       </c>
       <c r="J15" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>225</v>
+        <v>196.73387755102041</v>
       </c>
       <c r="K15" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="722" motorTorqueEco="678" fuelUsageRatio="225"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="197"/&gt;</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.522" torque="0.995"/&gt;</v>
+        <v>&lt;torque normRpm="0.545" torque="1"/&gt;</v>
       </c>
       <c r="M15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>625.1111111111112</v>
+        <v>1011.3866666666667</v>
       </c>
       <c r="N15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>721.52</v>
+        <v>1032.2399999999998</v>
       </c>
       <c r="O15" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>725</v>
+        <v>1348.1284829721362</v>
       </c>
       <c r="P15" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1006.4950980392155</v>
+        <v>1651.6467524509803</v>
       </c>
       <c r="Q15" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>587.60444444444443</v>
+        <v>950.7034666666666</v>
       </c>
       <c r="S15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>678.22879999999998</v>
+        <v>970.3055999999998</v>
       </c>
       <c r="T15" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>681.5</v>
+        <v>1352.9670088657469</v>
       </c>
       <c r="U15" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>592.19362745098022</v>
+        <v>457.0050307765141</v>
       </c>
       <c r="V15" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1300</v>
       </c>
       <c r="B16" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>724.13</v>
-      </c>
-      <c r="C16" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>680.68219999999997</v>
-      </c>
-      <c r="E16" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E16" s="21"/>
       <c r="F16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>724.13</v>
+        <v>1173</v>
       </c>
       <c r="G16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>680.68219999999997</v>
-      </c>
-      <c r="H16" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>134.05883141361258</v>
-      </c>
-      <c r="I16" s="3">
+        <v>217.15853403141364</v>
+      </c>
+      <c r="I16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>126.01530152879582</v>
+        <v>204.12902198952881</v>
       </c>
       <c r="J16" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>225.30864197530863</v>
+        <v>196.21482993197282</v>
       </c>
       <c r="K16" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="724" motorTorqueEco="681" fuelUsageRatio="225"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="196"/&gt;</v>
       </c>
       <c r="L16" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.565" torque="0.999"/&gt;</v>
+        <v>&lt;torque normRpm="0.591" torque="1"/&gt;</v>
       </c>
       <c r="M16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>564.33641975308637</v>
+        <v>913.05740740740737</v>
       </c>
       <c r="N16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>724.13</v>
+        <v>856.28999999999974</v>
       </c>
       <c r="O16" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>725.79883805374004</v>
+        <v>1298.0917735515261</v>
       </c>
       <c r="P16" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>948.87820512820497</v>
+        <v>1507.0418552036199</v>
       </c>
       <c r="Q16" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>530.4762345679012</v>
+        <v>858.27396296296286</v>
       </c>
       <c r="S16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>680.68219999999997</v>
+        <v>804.91259999999966</v>
       </c>
       <c r="T16" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>687.63448620188808</v>
+        <v>1281.439292046962</v>
       </c>
       <c r="U16" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>644.57998680241326</v>
+        <v>640.40439890991286</v>
       </c>
       <c r="V16" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -8492,81 +8519,81 @@
       </c>
       <c r="B17" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>725</v>
-      </c>
-      <c r="C17" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>681.5</v>
-      </c>
-      <c r="E17" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E17" s="21"/>
       <c r="F17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>725</v>
+        <v>1173</v>
       </c>
       <c r="G17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>681.5</v>
-      </c>
-      <c r="H17" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>144.54450261780107</v>
-      </c>
-      <c r="I17" s="3">
+        <v>233.86303664921471</v>
+      </c>
+      <c r="I17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>135.871832460733</v>
+        <v>219.83125445026178</v>
       </c>
       <c r="J17" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>226.23456790123456</v>
+        <v>196.42932281393823</v>
       </c>
       <c r="K17" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="725" motorTorqueEco="682" fuelUsageRatio="226"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="196"/&gt;</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.609" torque="1"/&gt;</v>
+        <v>&lt;torque normRpm="0.636" torque="1"/&gt;</v>
       </c>
       <c r="M17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>486.19753086419752</v>
+        <v>786.63407407407396</v>
       </c>
       <c r="N17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>725</v>
+        <v>609.95999999999947</v>
       </c>
       <c r="O17" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>725.79883805374004</v>
+        <v>1248.0550641309155</v>
       </c>
       <c r="P17" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>896.14845938375333</v>
+        <v>1385.6026785714284</v>
       </c>
       <c r="Q17" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>457.02567901234562</v>
+        <v>739.4360296296295</v>
       </c>
       <c r="S17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>681.5</v>
+        <v>573.36239999999952</v>
       </c>
       <c r="T17" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>687.63448620188808</v>
+        <v>1209.9115752281773</v>
       </c>
       <c r="U17" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>672.94730392156862</v>
+        <v>766.38191427138997</v>
       </c>
       <c r="V17" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -8575,81 +8602,81 @@
       </c>
       <c r="B18" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>725</v>
-      </c>
-      <c r="C18" s="22"/>
+        <v>1173</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>681.5</v>
-      </c>
-      <c r="E18" s="22"/>
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="E18" s="21"/>
       <c r="F18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>725</v>
+        <v>1173</v>
       </c>
       <c r="G18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>681.5</v>
-      </c>
-      <c r="H18" s="3">
+        <v>1102.6199999999999</v>
+      </c>
+      <c r="H18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>154.86910994764401</v>
-      </c>
-      <c r="I18" s="3">
+        <v>250.56753926701575</v>
+      </c>
+      <c r="I18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>145.57696335078538</v>
+        <v>235.53348691099475</v>
       </c>
       <c r="J18" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>227.77777777777777</v>
+        <v>197.36094674556216</v>
       </c>
       <c r="K18" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="725" motorTorqueEco="682" fuelUsageRatio="228"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="197"/&gt;</v>
       </c>
       <c r="L18" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.652" torque="1"/&gt;</v>
+        <v>&lt;torque normRpm="0.682" torque="1"/&gt;</v>
       </c>
       <c r="M18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>390.6944444444444</v>
+        <v>632.11666666666656</v>
       </c>
       <c r="N18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>724.13</v>
+        <v>293.2499999999992</v>
       </c>
       <c r="O18" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>725</v>
+        <v>1198.0183547103052</v>
       </c>
       <c r="P18" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>847.32843137254895</v>
+        <v>1282.6960784313726</v>
       </c>
       <c r="Q18" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>367.25277777777768</v>
+        <v>594.18966666666654</v>
       </c>
       <c r="S18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>680.68219999999997</v>
+        <v>275.65499999999923</v>
       </c>
       <c r="T18" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>681.5</v>
+        <v>1138.3838584093924</v>
       </c>
       <c r="U18" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>682.09938725490201</v>
+        <v>846.42194741532956</v>
       </c>
       <c r="V18" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -8658,81 +8685,81 @@
       </c>
       <c r="B19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>723.40232389252003</v>
-      </c>
-      <c r="C19" s="22"/>
+        <v>1147.9816452896948</v>
+      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>669.23102759622373</v>
-      </c>
-      <c r="E19" s="22"/>
+        <v>1066.8561415906074</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>723.40232389252003</v>
+        <v>1147.9816452896948</v>
       </c>
       <c r="G19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>669.23102759622373</v>
-      </c>
-      <c r="H19" s="3">
+        <v>1066.8561415906074</v>
+      </c>
+      <c r="H19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>164.82968133927997</v>
-      </c>
-      <c r="I19" s="3">
+        <v>261.57152462307602</v>
+      </c>
+      <c r="I19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>152.48656712558983</v>
+        <v>243.08680252368185</v>
       </c>
       <c r="J19" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>229.93827160493828</v>
+        <v>199.00920447074296</v>
       </c>
       <c r="K19" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="723" motorTorqueEco="669" fuelUsageRatio="230"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1148" motorTorqueEco="1067" fuelUsageRatio="199"/&gt;</v>
       </c>
       <c r="L19" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.696" torque="0.998"/&gt;</v>
+        <v>&lt;torque normRpm="0.727" torque="0.979"/&gt;</v>
       </c>
       <c r="M19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>277.82716049382731</v>
+        <v>449.50518518518538</v>
       </c>
       <c r="N19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>721.52</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>723.40232389252003</v>
+        <v>1147.9816452896948</v>
       </c>
       <c r="P19" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>801.68504901960773</v>
+        <v>1194.8471966911764</v>
       </c>
       <c r="Q19" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>261.15753086419767</v>
+        <v>422.53487407407425</v>
       </c>
       <c r="S19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>678.22879999999998</v>
+        <v>0</v>
       </c>
       <c r="T19" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>669.23102759622373</v>
+        <v>1066.8561415906074</v>
       </c>
       <c r="U19" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>675.63909313725492</v>
+        <v>889.13777625751982</v>
       </c>
       <c r="V19" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -8741,81 +8768,81 @@
       </c>
       <c r="B20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>721.00580973129979</v>
-      </c>
-      <c r="C20" s="22"/>
+        <v>1097.9449358690845</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>650.82756899055914</v>
-      </c>
-      <c r="E20" s="22"/>
+        <v>995.3284247718226</v>
+      </c>
+      <c r="E20" s="21"/>
       <c r="F20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>721.00580973129979</v>
+        <v>1097.9449358690845</v>
       </c>
       <c r="G20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>650.82756899055914</v>
-      </c>
-      <c r="H20" s="3">
+        <v>995.3284247718226</v>
+      </c>
+      <c r="H20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>174.55135414646756</v>
-      </c>
-      <c r="I20" s="3">
+        <v>265.8061457308192</v>
+      </c>
+      <c r="I20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>157.56160623101286</v>
+        <v>240.96327937931457</v>
       </c>
       <c r="J20" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>232.71604938271605</v>
+        <v>201.37409598948062</v>
       </c>
       <c r="K20" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="721" motorTorqueEco="651" fuelUsageRatio="233"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1098" motorTorqueEco="995" fuelUsageRatio="201"/&gt;</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.739" torque="0.994"/&gt;</v>
+        <v>&lt;torque normRpm="0.773" torque="0.936"/&gt;</v>
       </c>
       <c r="M20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>147.5956790123457</v>
+        <v>238.79962962962966</v>
       </c>
       <c r="N20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>717.17</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>721.00580973129979</v>
+        <v>1097.9449358690845</v>
       </c>
       <c r="P20" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>758.65772779700103</v>
+        <v>1119.3987889273355</v>
       </c>
       <c r="Q20" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>138.73993827160496</v>
+        <v>224.47165185185187</v>
       </c>
       <c r="S20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>674.13979999999992</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>650.82756899055914</v>
+        <v>995.3284247718226</v>
       </c>
       <c r="U20" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>656.32154700115336</v>
+        <v>901.11602508650515</v>
       </c>
       <c r="V20" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -8824,41 +8851,41 @@
       </c>
       <c r="B21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>717.81045751633974</v>
-      </c>
-      <c r="C21" s="22"/>
+        <v>1047.9082264484741</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>626.28962418300659</v>
-      </c>
-      <c r="E21" s="22"/>
+        <v>923.80070795303766</v>
+      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>717.81045751633974</v>
+        <v>1047.9082264484741</v>
       </c>
       <c r="G21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>626.28962418300659</v>
-      </c>
-      <c r="H21" s="3">
+        <v>923.80070795303766</v>
+      </c>
+      <c r="H21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>183.99999999999997</v>
-      </c>
-      <c r="I21" s="3">
+        <v>268.61563752312719</v>
+      </c>
+      <c r="I21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>160.54000000000002</v>
+        <v>236.80252702293572</v>
       </c>
       <c r="J21" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>236.11111111111111</v>
+        <v>204.45562130177515</v>
       </c>
       <c r="K21" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="718" motorTorqueEco="626" fuelUsageRatio="236"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1048" motorTorqueEco="924" fuelUsageRatio="204"/&gt;</v>
       </c>
       <c r="L21" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.783" torque="0.99"/&gt;</v>
+        <v>&lt;torque normRpm="0.818" torque="0.893"/&gt;</v>
       </c>
       <c r="M21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8866,19 +8893,19 @@
       </c>
       <c r="N21" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>711.08</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>717.81045751633974</v>
+        <v>1047.9082264484741</v>
       </c>
       <c r="P21" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>717.81045751633974</v>
+        <v>1054.284109477124</v>
       </c>
       <c r="Q21" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -8886,19 +8913,19 @@
       </c>
       <c r="S21" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>668.41520000000003</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>626.28962418300659</v>
+        <v>923.80070795303766</v>
       </c>
       <c r="U21" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>626.28962418300659</v>
+        <v>887.47962390448606</v>
       </c>
       <c r="V21" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>0</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -8907,81 +8934,81 @@
       </c>
       <c r="B22" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>678.79901960784298</v>
-      </c>
-      <c r="C22" s="22"/>
+        <v>997.87151702786366</v>
+      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>587.23506836945296</v>
-      </c>
-      <c r="E22" s="22"/>
+        <v>852.27299113425283</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>678.79901960784298</v>
+        <v>997.87151702786366</v>
       </c>
       <c r="G22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>587.23506836945296</v>
-      </c>
-      <c r="H22" s="3">
+        <v>852.27299113425283</v>
+      </c>
+      <c r="H22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>183.66666666666663</v>
-      </c>
-      <c r="I22" s="3">
+        <v>269.99999999999994</v>
+      </c>
+      <c r="I22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>158.89166666666665</v>
+        <v>230.60454545454547</v>
       </c>
       <c r="J22" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>240.12345679012347</v>
+        <v>208.25378040762658</v>
       </c>
       <c r="K22" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="679" motorTorqueEco="587" fuelUsageRatio="240"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="998" motorTorqueEco="852" fuelUsageRatio="208"/&gt;</v>
       </c>
       <c r="L22" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.826" torque="0.936"/&gt;</v>
+        <v>&lt;torque normRpm="0.864" torque="0.851"/&gt;</v>
       </c>
       <c r="M22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-164.95987654320999</v>
+        <v>-266.89370370370386</v>
       </c>
       <c r="N22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>703.25</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>713.81626724763964</v>
+        <v>997.87151702786377</v>
       </c>
       <c r="P22" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>678.79901960784298</v>
+        <v>997.87151702786366</v>
       </c>
       <c r="Q22" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>336.24144102085273</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-155.06228395061737</v>
+        <v>-250.8800814814816</v>
       </c>
       <c r="S22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>661.05499999999995</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>595.61719317356585</v>
+        <v>852.27299113425295</v>
       </c>
       <c r="U22" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>587.23506836945296</v>
+        <v>852.27299113425283</v>
       </c>
       <c r="V22" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>270.67436002178653</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -8990,81 +9017,81 @@
       </c>
       <c r="B23" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>641.34803921568619</v>
-      </c>
-      <c r="C23" s="22"/>
+        <v>948.85569852941171</v>
+      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>540.51127450980403</v>
-      </c>
-      <c r="E23" s="22"/>
+        <v>798.73166151403746</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>641.34803921568619</v>
+        <v>948.85569852941171</v>
       </c>
       <c r="G23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>540.51127450980403</v>
-      </c>
-      <c r="H23" s="3">
+        <v>798.73166151403746</v>
+      </c>
+      <c r="H23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>182.66666666666666</v>
-      </c>
-      <c r="I23" s="3">
+        <v>270.25</v>
+      </c>
+      <c r="I23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>153.94666666666669</v>
+        <v>227.49215909090907</v>
       </c>
       <c r="J23" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>244.75308641975309</v>
+        <v>212.76857330703484</v>
       </c>
       <c r="K23" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="641" motorTorqueEco="541" fuelUsageRatio="245"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="949" motorTorqueEco="799" fuelUsageRatio="213"/&gt;</v>
       </c>
       <c r="L23" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.87" torque="0.885"/&gt;</v>
+        <v>&lt;torque normRpm="0.909" torque="0.809"/&gt;</v>
       </c>
       <c r="M23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-347.28395061728406</v>
+        <v>-561.88148148148173</v>
       </c>
       <c r="N23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>693.68</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>709.02323892519939</v>
+        <v>947.8348076072532</v>
       </c>
       <c r="P23" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>641.34803921568619</v>
+        <v>948.85569852941171</v>
       </c>
       <c r="Q23" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>537.9863056333644</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-326.44691358024704</v>
+        <v>-528.16859259259274</v>
       </c>
       <c r="S23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>652.05920000000003</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>558.81027596223691</v>
+        <v>780.74527431546801</v>
       </c>
       <c r="U23" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>540.51127450980403</v>
+        <v>798.73166151403746</v>
       </c>
       <c r="V23" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>433.07897603485839</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -9073,81 +9100,81 @@
       </c>
       <c r="B24" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>605.23459383753493</v>
-      </c>
-      <c r="C24" s="22"/>
+        <v>906.17997198879539</v>
+      </c>
+      <c r="C24" s="21"/>
       <c r="D24" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>487.21384803921569</v>
-      </c>
-      <c r="E24" s="22"/>
+        <v>729.47487745098033</v>
+      </c>
+      <c r="E24" s="21"/>
       <c r="F24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>605.23459383753493</v>
+        <v>906.17997198879539</v>
       </c>
       <c r="G24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>487.21384803921569</v>
-      </c>
-      <c r="H24" s="3">
+        <v>729.47487745098033</v>
+      </c>
+      <c r="H24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>180.99999999999997</v>
-      </c>
-      <c r="I24" s="3">
+        <v>270.99999999999994</v>
+      </c>
+      <c r="I24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>145.70500000000001</v>
+        <v>218.15499999999997</v>
       </c>
       <c r="J24" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="K24" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="605" motorTorqueEco="487" fuelUsageRatio="250"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="906" motorTorqueEco="729" fuelUsageRatio="218"/&gt;</v>
       </c>
       <c r="L24" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.913" torque="0.835"/&gt;</v>
+        <v>&lt;torque normRpm="0.955" torque="0.773"/&gt;</v>
       </c>
       <c r="M24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-546.97222222222251</v>
+        <v>-884.96333333333371</v>
       </c>
       <c r="N24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>682.36999999999989</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>703.43137254901922</v>
+        <v>897.79809818664296</v>
       </c>
       <c r="P24" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>605.23459383753493</v>
+        <v>906.17997198879539</v>
       </c>
       <c r="Q24" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>605.23459383753493</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>906.17997198879539</v>
       </c>
       <c r="R24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-514.15388888888913</v>
+        <v>-831.86553333333359</v>
       </c>
       <c r="S24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>641.42779999999993</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>515.86887254901978</v>
+        <v>709.21755749668307</v>
       </c>
       <c r="U24" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>487.21384803921569</v>
+        <v>729.47487745098033</v>
       </c>
       <c r="V24" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>487.21384803921569</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>729.47487745098033</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -9156,81 +9183,81 @@
       </c>
       <c r="B25" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>537.9863056333644</v>
-      </c>
-      <c r="C25" s="22"/>
+        <v>825.35460243878128</v>
+      </c>
+      <c r="C25" s="21"/>
       <c r="D25" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>433.07897603485839</v>
-      </c>
-      <c r="E25" s="22"/>
+        <v>664.41045496321897</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>537.9863056333644</v>
+        <v>825.35460243878128</v>
       </c>
       <c r="G25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>433.07897603485839</v>
-      </c>
-      <c r="H25" s="3">
+        <v>664.41045496321897</v>
+      </c>
+      <c r="H25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>168.55026455026453</v>
-      </c>
-      <c r="I25" s="3">
+        <v>258.58230057558467</v>
+      </c>
+      <c r="I25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>135.68296296296296</v>
+        <v>208.15875196334568</v>
       </c>
       <c r="J25" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>277.77777777777777</v>
+        <v>242.22222222222223</v>
       </c>
       <c r="K25" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="538" motorTorqueEco="433" fuelUsageRatio="278"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="825" motorTorqueEco="664" fuelUsageRatio="242"/&gt;</v>
       </c>
       <c r="L25" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.957" torque="0.742"/&gt;</v>
+        <v>&lt;torque normRpm="1" torque="0.704"/&gt;</v>
       </c>
       <c r="M25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-764.02469135802494</v>
+        <v>-1236.1392592592597</v>
       </c>
       <c r="N25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>669.31999999999994</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>697.040668119099</v>
+        <v>847.76138876603261</v>
       </c>
       <c r="P25" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>570.27629233511573</v>
+        <v>868.97977941176464</v>
       </c>
       <c r="Q25" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>537.9863056333644</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>825.35460243878128</v>
       </c>
       <c r="R25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-718.1832098765434</v>
+        <v>-1161.9709037037039</v>
       </c>
       <c r="S25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>629.16079999999999</v>
+        <v>0</v>
       </c>
       <c r="T25" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>466.79298293391452</v>
+        <v>637.68984067789813</v>
       </c>
       <c r="U25" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>428.23919340463459</v>
+        <v>646.6456554600145</v>
       </c>
       <c r="V25" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>433.07897603485839</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>664.41045496321897</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -9239,81 +9266,81 @@
       </c>
       <c r="B26" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>336.24144102085273</v>
-      </c>
-      <c r="C26" s="22"/>
+        <v>534.80409581228059</v>
+      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>270.67436002178653</v>
-      </c>
-      <c r="E26" s="22"/>
+        <v>430.51729712888584</v>
+      </c>
+      <c r="E26" s="21"/>
       <c r="F26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>336.24144102085273</v>
+        <v>534.80409581228059</v>
       </c>
       <c r="G26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>270.67436002178653</v>
-      </c>
-      <c r="H26" s="3">
+        <v>430.51729712888584</v>
+      </c>
+      <c r="H26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>110.13227513227511</v>
-      </c>
-      <c r="I26" s="3">
+        <v>175.16934153935222</v>
+      </c>
+      <c r="I26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>88.656481481481492</v>
+        <v>141.01131993917852</v>
       </c>
       <c r="J26" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>361.11111111111109</v>
+        <v>314.88888888888891</v>
       </c>
       <c r="K26" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="336" motorTorqueEco="271" fuelUsageRatio="361"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="535" motorTorqueEco="431" fuelUsageRatio="315"/&gt;</v>
       </c>
       <c r="L26" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="1" torque="0.464"/&gt;</v>
+        <v/>
       </c>
       <c r="M26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-998.44135802469077</v>
+        <v>-1615.4092592592583</v>
       </c>
       <c r="N26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>654.53</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>689.85112563543873</v>
+        <v>797.72467934542203</v>
       </c>
       <c r="P26" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>536.32246376811588</v>
+        <v>836.54092071611251</v>
       </c>
       <c r="Q26" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>336.24144102085273</v>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>534.80409581228059</v>
       </c>
       <c r="R26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-938.53487654320929</v>
+        <v>-1518.4847037037025</v>
       </c>
       <c r="S26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>615.25819999999999</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>411.58260711692111</v>
+        <v>566.16212385911331</v>
       </c>
       <c r="U26" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>364.32781862745099</v>
+        <v>552.01431353173666</v>
       </c>
       <c r="V26" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
-        <v>270.67436002178653</v>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
+        <v>430.51729712888584</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -9324,12 +9351,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9348,11 +9375,11 @@
       </c>
       <c r="J27" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K27" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="500"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="436"/&gt;</v>
       </c>
       <c r="L27" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
@@ -9360,42 +9387,42 @@
       </c>
       <c r="M27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-1250.2222222222219</v>
+        <v>-2022.7733333333326</v>
       </c>
       <c r="N27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>637.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>681.86274509803854</v>
+        <v>747.6879699248118</v>
       </c>
       <c r="P27" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>503.24754901960773</v>
+        <v>808.26822916666652</v>
       </c>
       <c r="Q27" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1175.2088888888884</v>
+        <v>-1901.4069333333325</v>
       </c>
       <c r="S27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>599.71999999999991</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>350.23774509803951</v>
+        <v>494.63440704032843</v>
       </c>
       <c r="U27" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>296.09681372549011</v>
+        <v>447.05611665831083</v>
       </c>
       <c r="V27" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9407,12 +9434,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9431,7 +9458,7 @@
       </c>
       <c r="J28" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K28" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9443,42 +9470,42 @@
       </c>
       <c r="M28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-1519.3672839506171</v>
+        <v>-2458.2314814814813</v>
       </c>
       <c r="N28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>619.7299999999999</v>
+        <v>0</v>
       </c>
       <c r="O28" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>673.07552650689809</v>
+        <v>697.65126050420145</v>
       </c>
       <c r="P28" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>470.94607843137243</v>
+        <v>783.66176470588232</v>
       </c>
       <c r="Q28" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1428.2052469135799</v>
+        <v>-2310.7375925925921</v>
       </c>
       <c r="S28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>582.54619999999989</v>
+        <v>0</v>
       </c>
       <c r="T28" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>282.75839687726989</v>
+        <v>423.1066902215436</v>
       </c>
       <c r="U28" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>224.0645343137254</v>
+        <v>333.0102874331547</v>
       </c>
       <c r="V28" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9490,12 +9517,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9514,7 +9541,7 @@
       </c>
       <c r="J29" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K29" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9526,42 +9553,42 @@
       </c>
       <c r="M29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-2268.1983024691349</v>
+        <v>-3669.7884259259245</v>
       </c>
       <c r="N29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>566.44249999999988</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>647.6125635439347</v>
+        <v>572.55948695267546</v>
       </c>
       <c r="P29" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>393.02250445632791</v>
+        <v>735.56066176470586</v>
       </c>
       <c r="Q29" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-2132.1064043209867</v>
+        <v>-3449.6011203703688</v>
       </c>
       <c r="S29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>532.45594999999992</v>
+        <v>0</v>
       </c>
       <c r="T29" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>87.221649192084911</v>
+        <v>244.28739817458145</v>
       </c>
       <c r="U29" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>30.074626782531052</v>
+        <v>14.643241446887926</v>
       </c>
       <c r="V29" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9573,12 +9600,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9597,7 +9624,7 @@
       </c>
       <c r="J30" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K30" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9609,42 +9636,42 @@
       </c>
       <c r="M30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-3125.5555555555561</v>
+        <v>-5056.9333333333343</v>
       </c>
       <c r="N30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>502.2799999999998</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>617.15686274509608</v>
+        <v>447.46771340114952</v>
       </c>
       <c r="P30" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>318.33333333333331</v>
+        <v>702.7910539215685</v>
       </c>
       <c r="Q30" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-2938.0222222222228</v>
+        <v>-4753.5173333333341</v>
       </c>
       <c r="S30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>472.14319999999981</v>
+        <v>0</v>
       </c>
       <c r="T30" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>65.468106127619265</v>
       </c>
       <c r="U30" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
         <v>0</v>
       </c>
       <c r="V30" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9656,12 +9683,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9680,7 +9707,7 @@
       </c>
       <c r="J31" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K31" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9692,31 +9719,31 @@
       </c>
       <c r="M31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-4091.4390432098762</v>
+        <v>-6619.6662037037031</v>
       </c>
       <c r="N31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>427.24249999999978</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>581.70842411038234</v>
+        <v>322.37593984962348</v>
       </c>
       <c r="P31" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>246.1321644042232</v>
+        <v>681.8149038461537</v>
       </c>
       <c r="Q31" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-3845.9527006172834</v>
+        <v>-6222.48623148148</v>
       </c>
       <c r="S31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>401.60794999999979</v>
+        <v>0</v>
       </c>
       <c r="T31" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
@@ -9727,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9739,12 +9766,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9763,7 +9790,7 @@
       </c>
       <c r="J32" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K32" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9775,31 +9802,31 @@
       </c>
       <c r="M32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-5165.8487654320988</v>
+        <v>-8357.9870370370372</v>
       </c>
       <c r="N32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>341.3299999999997</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>541.26724763979337</v>
+        <v>197.28416629809755</v>
       </c>
       <c r="P32" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>175.88585434173666</v>
+        <v>670.10504201680658</v>
       </c>
       <c r="Q32" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-4855.8978395061722</v>
+        <v>-7856.5078148148132</v>
       </c>
       <c r="S32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>320.85019999999969</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
@@ -9810,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9822,12 +9849,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9846,7 +9873,7 @@
       </c>
       <c r="J33" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K33" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9858,31 +9885,31 @@
       </c>
       <c r="M33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-6348.7847222222244</v>
+        <v>-10271.895833333336</v>
       </c>
       <c r="N33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>244.54249999999962</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>495.83333333332916</v>
+        <v>72.192392746571628</v>
       </c>
       <c r="P33" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>107.20343137254902</v>
+        <v>665.80821078431359</v>
       </c>
       <c r="Q33" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-5967.8576388888905</v>
+        <v>-9655.5820833333346</v>
       </c>
       <c r="S33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>229.86994999999965</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
@@ -9893,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9905,12 +9932,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -9929,7 +9956,7 @@
       </c>
       <c r="J34" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K34" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -9941,31 +9968,31 @@
       </c>
       <c r="M34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-7640.2469135802485</v>
+        <v>-12361.392592592594</v>
       </c>
       <c r="N34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>136.87999999999948</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>445.40668119098984</v>
+        <v>0</v>
       </c>
       <c r="P34" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>39.791666666666643</v>
+        <v>667.53446691176464</v>
       </c>
       <c r="Q34" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-7181.8320987654333</v>
+        <v>-11619.709037037037</v>
       </c>
       <c r="S34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>128.66719999999953</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
@@ -9976,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -9988,12 +10015,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10012,7 +10039,7 @@
       </c>
       <c r="J35" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K35" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10024,31 +10051,31 @@
       </c>
       <c r="M35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-9040.2353395061727</v>
+        <v>-14626.477314814814</v>
       </c>
       <c r="N35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>18.342499999999429</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>389.9872912127754</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>674.22091262975778</v>
       </c>
       <c r="Q35" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-8497.8212191358016</v>
+        <v>-13748.888675925924</v>
       </c>
       <c r="S35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>17.241949999999463</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
@@ -10059,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10071,12 +10098,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10095,7 +10122,7 @@
       </c>
       <c r="J36" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K36" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10107,7 +10134,7 @@
       </c>
       <c r="M36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-10548.75</v>
+        <v>-17067.149999999998</v>
       </c>
       <c r="N36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10115,19 +10142,19 @@
       </c>
       <c r="O36" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>329.57516339868567</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>685.04084967320262</v>
       </c>
       <c r="Q36" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-9915.8249999999989</v>
+        <v>-16043.120999999997</v>
       </c>
       <c r="S36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10142,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10154,12 +10181,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10178,7 +10205,7 @@
       </c>
       <c r="J37" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K37" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10190,7 +10217,7 @@
       </c>
       <c r="M37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-12165.790895061729</v>
+        <v>-19683.410648148147</v>
       </c>
       <c r="N37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10198,19 +10225,19 @@
       </c>
       <c r="O37" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>264.17029774872083</v>
+        <v>0</v>
       </c>
       <c r="P37" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>699.34162151702787</v>
       </c>
       <c r="Q37" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-11435.843441358023</v>
+        <v>-18502.406009259255</v>
       </c>
       <c r="S37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10225,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10237,12 +10264,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10261,7 +10288,7 @@
       </c>
       <c r="J38" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K38" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10273,7 +10300,7 @@
       </c>
       <c r="M38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-13891.358024691357</v>
+        <v>-22475.259259259255</v>
       </c>
       <c r="N38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10281,19 +10308,19 @@
       </c>
       <c r="O38" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>193.77269426288075</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>716.60110294117635</v>
       </c>
       <c r="Q38" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-13057.876543209875</v>
+        <v>-21126.743703703698</v>
       </c>
       <c r="S38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10308,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10320,12 +10347,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10344,7 +10371,7 @@
       </c>
       <c r="J39" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K39" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10356,7 +10383,7 @@
       </c>
       <c r="M39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-15725.451388888887</v>
+        <v>-25442.695833333328</v>
       </c>
       <c r="N39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10364,19 +10391,19 @@
       </c>
       <c r="O39" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>118.38235294116551</v>
+        <v>0</v>
       </c>
       <c r="P39" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>736.3966211484593</v>
       </c>
       <c r="Q39" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-14781.924305555553</v>
+        <v>-23916.134083333327</v>
       </c>
       <c r="S39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10391,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10403,12 +10430,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10427,7 +10454,7 @@
       </c>
       <c r="J40" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K40" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10439,7 +10466,7 @@
       </c>
       <c r="M40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-17668.070987654319</v>
+        <v>-28585.720370370364</v>
       </c>
       <c r="N40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10447,19 +10474,19 @@
       </c>
       <c r="O40" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>37.999273783575141</v>
+        <v>0</v>
       </c>
       <c r="P40" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>758.38235294117646</v>
       </c>
       <c r="Q40" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-16607.986728395059</v>
+        <v>-26870.577148148139</v>
       </c>
       <c r="S40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10474,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10486,12 +10513,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10510,7 +10537,7 @@
       </c>
       <c r="J41" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K41" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10522,7 +10549,7 @@
       </c>
       <c r="M41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-19719.216820987658</v>
+        <v>-31904.332870370374</v>
       </c>
       <c r="N41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10534,15 +10561,15 @@
       </c>
       <c r="P41" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>782.27261828644498</v>
       </c>
       <c r="Q41" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-18536.063811728396</v>
+        <v>-29990.072898148148</v>
       </c>
       <c r="S41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10557,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>
@@ -10569,12 +10596,12 @@
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
         <v>0</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
         <v>0</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="22"/>
       <c r="F42" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -10593,7 +10620,7 @@
       </c>
       <c r="J42" s="3">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="K42" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
@@ -10605,7 +10632,7 @@
       </c>
       <c r="M42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-21878.888888888891</v>
+        <v>-35398.533333333333</v>
       </c>
       <c r="N42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10617,15 +10644,15 @@
       </c>
       <c r="P42" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>807.82935049019602</v>
       </c>
       <c r="Q42" s="3">
-        <f>MAX(0,Table7[Nm2]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
       <c r="R42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-20566.155555555557</v>
+        <v>-33274.621333333329</v>
       </c>
       <c r="S42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10640,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <f>MAX(0,Table7[Nm2Eco]*(1-(Table15[[#This Row],[rpm]]-Table36[ratedRpm])^2/(Table36[fadeOut]^2)))</f>
+        <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
         <v>0</v>
       </c>
     </row>

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="20280" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -319,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -474,12 +474,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -517,6 +532,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +540,42 @@
   </cellStyles>
   <dxfs count="73">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -537,17 +585,55 @@
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -559,6 +645,76 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -1075,63 +1231,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right/>
-        <top/>
-        <bottom/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1149,6 +1265,26 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1253,58 +1389,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1323,40 +1407,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1660,13 +1710,13 @@
                   <c:v>1173</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1147.9816452896948</c:v>
+                  <c:v>1152.2705060971757</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1097.9449358690845</c:v>
+                  <c:v>1106.5226574840462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1047.9082264484741</c:v>
+                  <c:v>1053.3088235294117</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>997.87151702786366</c:v>
@@ -1901,61 +1951,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>199.5303572016461</c:v>
+                  <c:v>201.65302057613169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410.79779423868308</c:v>
+                  <c:v>415.16798353909468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>851.98192016460882</c:v>
+                  <c:v>861.04555761316851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>979.86466502057601</c:v>
+                  <c:v>990.28875720164592</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1069.5413999999998</c:v>
+                  <c:v>1080.9195</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1102.6199999999999</c:v>
+                  <c:v>1114.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1066.8561415906074</c:v>
+                  <c:v>1088.0201370320856</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>995.3284247718226</c:v>
+                  <c:v>1024.0189525007863</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>923.80070795303766</c:v>
+                  <c:v>967.12901069518705</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>852.27299113425283</c:v>
+                  <c:v>916.22748381649308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>798.73166151403746</c:v>
+                  <c:v>866.89710060160417</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>729.47487745098033</c:v>
+                  <c:v>815.56197478991601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>664.41045496321897</c:v>
+                  <c:v>742.81914219490329</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>430.51729712888584</c:v>
+                  <c:v>481.32368623105259</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2018,8 +2068,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249980800"/>
-        <c:axId val="249981976"/>
+        <c:axId val="318334496"/>
+        <c:axId val="318337632"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2222,13 +2272,13 @@
                   <c:v>250.56753926701575</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>261.57152462307602</c:v>
+                  <c:v>262.54875615366012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265.8061457308192</c:v>
+                  <c:v>267.88276273331041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>268.61563752312719</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>269.99999999999994</c:v>
@@ -2463,61 +2513,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8414794324004049</c:v>
+                  <c:v>2.8717079370004095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.400418855062156</c:v>
+                  <c:v>23.649359481179843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.930553716932749</c:v>
+                  <c:v>85.834070245836287</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.63274927145412</c:v>
+                  <c:v>112.82033171051211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>137.08048938219895</c:v>
+                  <c:v>138.53879246073296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.02232460732984</c:v>
+                  <c:v>158.69277486910991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.72455706806281</c:v>
+                  <c:v>174.56205235602093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>188.42678952879581</c:v>
+                  <c:v>190.43132984293194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>204.12902198952881</c:v>
+                  <c:v>206.30060732984293</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>219.83125445026178</c:v>
+                  <c:v>222.16988481675392</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>235.53348691099475</c:v>
+                  <c:v>238.03916230366491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>243.08680252368185</c:v>
+                  <c:v>247.90909090909093</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>240.96327937931457</c:v>
+                  <c:v>247.90909090909088</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>236.80252702293572</c:v>
+                  <c:v>247.90909090909088</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>230.60454545454547</c:v>
+                  <c:v>247.90909090909088</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>227.49215909090907</c:v>
+                  <c:v>246.90681818181815</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>218.15499999999997</c:v>
+                  <c:v>243.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>208.15875196334568</c:v>
+                  <c:v>232.72407051802622</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.01131993917852</c:v>
+                  <c:v>157.65240738541704</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
@@ -2580,11 +2630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327271392"/>
-        <c:axId val="249974920"/>
+        <c:axId val="318331752"/>
+        <c:axId val="318332928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249980800"/>
+        <c:axId val="318334496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -2688,13 +2738,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249981976"/>
+        <c:crossAx val="318337632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249981976"/>
+        <c:axId val="318337632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,12 +2846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249980800"/>
+        <c:crossAx val="318334496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249974920"/>
+        <c:axId val="318332928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,12 +2894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327271392"/>
+        <c:crossAx val="318331752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327271392"/>
+        <c:axId val="318331752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249974920"/>
+        <c:crossAx val="318332928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3144,115 +3194,115 @@
             <c:numRef>
               <c:f>'Calculate from Values'!$J$7:$J$42</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>260.79918367346932</c:v>
+                  <c:v>311.38559556786686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>251.38217687074825</c:v>
+                  <c:v>295.71246537396109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.58013605442176</c:v>
+                  <c:v>256.33850415512461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.45156462585035</c:v>
+                  <c:v>228.43268698060939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.22503401360544</c:v>
+                  <c:v>221.67922437673127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.74</c:v>
+                  <c:v>216.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>199.99646258503404</c:v>
+                  <c:v>211.99501385041552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>197.9944217687075</c:v>
+                  <c:v>209.06426592797783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>196.73387755102041</c:v>
+                  <c:v>207.40775623268698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>196.21482993197282</c:v>
+                  <c:v>207.01368233194526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>196.42932281393823</c:v>
+                  <c:v>207.49256395002973</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197.36094674556216</c:v>
+                  <c:v>208.65556216537775</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>199.00920447074296</c:v>
+                  <c:v>210.5026769779893</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>201.37409598948062</c:v>
+                  <c:v>213.03390838786436</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>204.45562130177515</c:v>
+                  <c:v>216.24925639500299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>208.25378040762658</c:v>
+                  <c:v>220.14872099940513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>212.76857330703484</c:v>
+                  <c:v>224.73230220107078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>218</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>242.22222222222223</c:v>
+                  <c:v>244.75450687929043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>314.88888888888891</c:v>
+                  <c:v>313.46409493927865</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>436</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3267,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334791288"/>
-        <c:axId val="334793248"/>
+        <c:axId val="318332144"/>
+        <c:axId val="318334888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334791288"/>
+        <c:axId val="318332144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -3375,13 +3425,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334793248"/>
+        <c:crossAx val="318334888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334793248"/>
+        <c:axId val="318334888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -3448,7 +3498,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3479,7 +3529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334791288"/>
+        <c:crossAx val="318332144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3795,11 +3845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334787760"/>
-        <c:axId val="334792072"/>
+        <c:axId val="318336064"/>
+        <c:axId val="318335280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334787760"/>
+        <c:axId val="318336064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -3858,12 +3908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334792072"/>
+        <c:crossAx val="318335280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334792072"/>
+        <c:axId val="318335280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +3970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334787760"/>
+        <c:crossAx val="318336064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4181,11 +4231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334790896"/>
-        <c:axId val="334786584"/>
+        <c:axId val="317180528"/>
+        <c:axId val="317182096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334790896"/>
+        <c:axId val="317180528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -4244,12 +4294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334786584"/>
+        <c:crossAx val="317182096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334786584"/>
+        <c:axId val="317182096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4306,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334790896"/>
+        <c:crossAx val="317180528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6584,13 +6634,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6616,13 +6666,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
+      <xdr:colOff>76202</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6763,46 +6813,46 @@
     <tableColumn id="3" name="ps" dataDxfId="63">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="psEco" dataDxfId="62">
+    <tableColumn id="13" name="psEco" dataDxfId="8">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="61">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="60">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</calculatedColumnFormula>
+    <tableColumn id="5" name="xml" dataDxfId="7">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="59">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</calculatedColumnFormula>
+    <tableColumn id="8" name="xml2" dataDxfId="6">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="t1" dataDxfId="58">
+    <tableColumn id="15" name="t1" dataDxfId="62">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="t2" dataDxfId="57">
+    <tableColumn id="18" name="t2" dataDxfId="61">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="t3" dataDxfId="56">
-      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</calculatedColumnFormula>
+    <tableColumn id="19" name="t3" dataDxfId="5">
+      <calculatedColumnFormula>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="t4" dataDxfId="55">
+    <tableColumn id="16" name="t4" dataDxfId="60">
       <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="t5" dataDxfId="1">
+    <tableColumn id="17" name="t5" dataDxfId="59">
       <calculatedColumnFormula>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="t1E" dataDxfId="54">
+    <tableColumn id="21" name="t1E" dataDxfId="58">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="t2E" dataDxfId="53">
+    <tableColumn id="22" name="t2E" dataDxfId="57">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="t3E" dataDxfId="52">
-      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</calculatedColumnFormula>
+    <tableColumn id="23" name="t3E" dataDxfId="4">
+      <calculatedColumnFormula>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="t4E" dataDxfId="51">
+    <tableColumn id="24" name="t4E" dataDxfId="56">
       <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="t5E" dataDxfId="0">
+    <tableColumn id="25" name="t5E" dataDxfId="55">
       <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6811,7 +6861,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6836,45 +6886,45 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="10" name="maxPRpm" dataDxfId="49"/>
-    <tableColumn id="14" name="maxPS" dataDxfId="48"/>
-    <tableColumn id="19" name="maxPSEco" dataDxfId="47">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="2"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="1"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="0">
       <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="20" name="PSEco" dataDxfId="46">
+    <tableColumn id="20" name="PSEco" dataDxfId="53">
       <calculatedColumnFormula>Table36[PSEcoRate]*Table36[PS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="maxTRpm1" dataDxfId="45"/>
-    <tableColumn id="4" name="maxTRpm" dataDxfId="44"/>
-    <tableColumn id="5" name="maxT" dataDxfId="43"/>
-    <tableColumn id="21" name="maxTEco" dataDxfId="42">
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="52"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="51"/>
+    <tableColumn id="5" name="maxT" dataDxfId="50"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="49">
       <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut" dataDxfId="41"/>
-    <tableColumn id="15" name="linearDown" dataDxfId="40"/>
-    <tableColumn id="25" name="fadeOutExp" dataDxfId="2"/>
-    <tableColumn id="22" name="Efficiency" dataDxfId="39"/>
-    <tableColumn id="16" name="Factor" dataDxfId="38"/>
-    <tableColumn id="9" name="fuelMinRpm" dataDxfId="37">
-      <calculatedColumnFormula>ROUND(0.65*Table36[idleRpm]+0.35*Table36[ratedRpm],-1)</calculatedColumnFormula>
+    <tableColumn id="11" name="fadeOut" dataDxfId="48"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="47"/>
+    <tableColumn id="25" name="fadeOutExp" dataDxfId="46"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="45"/>
+    <tableColumn id="16" name="Factor" dataDxfId="44"/>
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="12"/>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="9">
+      <calculatedColumnFormula>Table36[fuelMinRate]/0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="fuelMinRate" dataDxfId="36">
-      <calculatedColumnFormula>0.9*Table36[fuelRatedRate]</calculatedColumnFormula>
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="11">
+      <calculatedColumnFormula>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fuelIdleRate" dataDxfId="35">
-      <calculatedColumnFormula>0.93*Table36[fuelRatedRate]</calculatedColumnFormula>
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="10">
+      <calculatedColumnFormula>0.94*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="fuelRatedRate" dataDxfId="34"/>
-    <tableColumn id="1" name="normRpm" dataDxfId="3">
+    <tableColumn id="1" name="normRpm" dataDxfId="43">
       <calculatedColumnFormula>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="PSEcoRate" dataDxfId="33"/>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="42"/>
     <tableColumn id="23" name="NmEcoRate"/>
-    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="32">
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="41">
       <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6883,7 +6933,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A3:S4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6902,62 +6952,62 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="f1" dataDxfId="29">
+    <tableColumn id="1" name="f1" dataDxfId="38">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2" dataDxfId="28">
+    <tableColumn id="2" name="f2" dataDxfId="37">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3" dataDxfId="27">
+    <tableColumn id="5" name="f3" dataDxfId="36">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4" dataDxfId="26">
+    <tableColumn id="6" name="f4" dataDxfId="35">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm" dataDxfId="25">
+    <tableColumn id="3" name="Nm" dataDxfId="34">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2" dataDxfId="24">
+    <tableColumn id="4" name="Nm2" dataDxfId="33">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="32" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="AnstiegE" dataDxfId="22" dataCellStyle="Percent">
+    <tableColumn id="17" name="AnstiegE" dataDxfId="31" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anstieg" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="14" name="Anstieg" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Abfall" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="15" name="Abfall" dataDxfId="29" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Nm1000" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="16" name="Nm1000" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NmEco" dataDxfId="18">
+    <tableColumn id="8" name="NmEco" dataDxfId="27">
       <calculatedColumnFormula>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Nm2Eco" dataDxfId="17">
+    <tableColumn id="9" name="Nm2Eco" dataDxfId="26">
       <calculatedColumnFormula>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="f2Eco" dataDxfId="16">
+    <tableColumn id="12" name="f2Eco" dataDxfId="25">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f3Eco" dataDxfId="15">
+    <tableColumn id="10" name="f3Eco" dataDxfId="24">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f4Eco" dataDxfId="14">
+    <tableColumn id="11" name="f4Eco" dataDxfId="23">
       <calculatedColumnFormula>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="idleT" dataDxfId="13">
+    <tableColumn id="13" name="idleT" dataDxfId="22">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="idleTEco" dataDxfId="12">
+    <tableColumn id="19" name="idleTEco" dataDxfId="21">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="xmlComment" dataDxfId="11">
-      <calculatedColumnFormula>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," --&gt;")</calculatedColumnFormula>
+    <tableColumn id="21" name="xmlComment" dataDxfId="20">
+      <calculatedColumnFormula>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6973,17 +7023,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="10">
+    <tableColumn id="6" name="kw_pto" dataDxfId="19">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="9">
+    <tableColumn id="3" name="ps" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="8">
+    <tableColumn id="5" name="xml" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="7">
+    <tableColumn id="8" name="xml2" dataDxfId="16">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7017,16 +7067,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="6">
+    <tableColumn id="6" name="kw_pto" dataDxfId="15">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="5">
+    <tableColumn id="3" name="ps" dataDxfId="14">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="4">
+    <tableColumn id="5" name="xml" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7300,7 +7350,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7369,16 +7419,16 @@
         <v>7</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>60</v>
@@ -7402,7 +7452,7 @@
       </c>
       <c r="C2" s="18">
         <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
-        <v>230.60454545454547</v>
+        <v>247.90909090909091</v>
       </c>
       <c r="D2" s="7">
         <v>2100</v>
@@ -7412,7 +7462,7 @@
       </c>
       <c r="F2" s="19">
         <f>Table36[PSEcoRate]*Table36[PS]</f>
-        <v>218.155</v>
+        <v>243.9</v>
       </c>
       <c r="G2" s="13">
         <v>1000</v>
@@ -7425,7 +7475,7 @@
       </c>
       <c r="J2" s="18">
         <f>Table36[NmEcoRate]*Table36[maxT]</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="K2" s="7">
         <v>900</v>
@@ -7437,7 +7487,7 @@
         <v>300</v>
       </c>
       <c r="N2" s="13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O2" s="14">
         <v>2.2000000000000002</v>
@@ -7448,34 +7498,34 @@
       <c r="Q2" s="15">
         <v>1</v>
       </c>
-      <c r="R2" s="16">
-        <f>ROUND(0.65*Table36[idleRpm]+0.35*Table36[ratedRpm],-1)</f>
-        <v>1320</v>
-      </c>
-      <c r="S2" s="17">
-        <f>0.9*Table36[fuelRatedRate]</f>
-        <v>196.20000000000002</v>
+      <c r="R2" s="31">
+        <v>207</v>
+      </c>
+      <c r="S2" s="16">
+        <f>Table36[fuelMinRate]/0.9</f>
+        <v>230</v>
       </c>
       <c r="T2" s="17">
-        <f>0.93*Table36[fuelRatedRate]</f>
-        <v>202.74</v>
-      </c>
-      <c r="U2" s="9">
-        <v>218</v>
+        <f>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</f>
+        <v>1280</v>
+      </c>
+      <c r="U2" s="19">
+        <f>0.94*Table36[fuelRatedRate]</f>
+        <v>216.2</v>
       </c>
       <c r="V2" s="16">
         <f>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</f>
         <v>2200</v>
       </c>
       <c r="W2" s="7">
-        <v>0.80500000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="X2" s="9">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="Y2" s="29">
         <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
-        <v>0.85409090909090912</v>
+        <v>0.91818181818181821</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7564,11 +7614,11 @@
       </c>
       <c r="G4" s="23">
         <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
-        <v>1.5115256660420007</v>
+        <v>1.3663584552075885</v>
       </c>
       <c r="H4" s="24">
         <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
-        <v>0.51152566604200067</v>
+        <v>0.36635845520758847</v>
       </c>
       <c r="I4" s="24">
         <f>Table36[maxT]/Table7[Nm2]-1</f>
@@ -7580,27 +7630,27 @@
       </c>
       <c r="K4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="L4" s="12">
         <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
-        <v>852.27299113425283</v>
+        <v>916.22748381649308</v>
       </c>
       <c r="M4" s="12">
         <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
       <c r="N4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>6.4870686926397924E-4</v>
+        <v>5.0797714537880974E-4</v>
       </c>
       <c r="O4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.8534481978970834E-6</v>
+        <v>1.4513632725108851E-6</v>
       </c>
       <c r="P4" s="12">
         <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>3.1123863636363678E-4</v>
+        <v>1.0022727272727252E-4</v>
       </c>
       <c r="Q4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
@@ -7608,11 +7658,11 @@
       </c>
       <c r="R4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f>CONCATENATE("&lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",Table36[maxPSEco],") | ",Table36[ratedRpm],": ",Table36[PS],"(",Table36[PSEco],") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",Table36[maxTEco],") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," --&gt;")</f>
-        <v>&lt;!-- 1900: 270(230.604545454545) | 2100: 271(218.155) | 1000..1550: 1173(1102.62) | 97 | 1 | 300 | 2.2 --&gt;</v>
+        <f>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</f>
+        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -7713,17 +7763,17 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J7" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>260.79918367346932</v>
+      <c r="J7" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>311.38559556786686</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="0" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="261"/&gt;&lt;!-- 1900: 270(230.604545454545) | 2100: 271(218.155) | 1000..1550: 1173(1102.62) | 97 | 1 | 300 | 2.2 --&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
       </c>
       <c r="L7" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0" torque="0"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
       </c>
       <c r="M7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7733,9 +7783,9 @@
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
         <v>0</v>
       </c>
-      <c r="O7" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1948.5689960194609</v>
+      <c r="O7" s="3" t="e">
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P7" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7753,9 +7803,9 @@
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
-      <c r="T7" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>2211.2996106911655</v>
+      <c r="T7" s="3" t="e">
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="U7" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7763,7 +7813,7 @@
       </c>
       <c r="V7" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7777,7 +7827,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>199.5303572016461</v>
+        <v>201.65302057613169</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="3">
@@ -7786,7 +7836,7 @@
       </c>
       <c r="G8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>199.5303572016461</v>
+        <v>201.65302057613169</v>
       </c>
       <c r="H8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -7794,19 +7844,19 @@
       </c>
       <c r="I8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>2.8414794324004049</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>251.38217687074825</v>
+        <v>2.8717079370004095</v>
+      </c>
+      <c r="J8" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>295.71246537396109</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="212" motorTorqueEco="200" fuelUsageRatio="251"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="212" motorTorqueEco="202" fuelUsageRatio="295.7"/&gt;</v>
       </c>
       <c r="L8" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.045" torque="0.181"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.045" torque="0.181"/&gt;</v>
       </c>
       <c r="M8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7817,8 +7867,8 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1898.5322865988505</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1152.2705060971757</v>
       </c>
       <c r="P8" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7830,15 +7880,15 @@
       </c>
       <c r="R8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>224.47165185185187</v>
+        <v>226.85964814814818</v>
       </c>
       <c r="S8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>2139.7718938723806</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1090.8987633905238</v>
       </c>
       <c r="U8" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7846,7 +7896,7 @@
       </c>
       <c r="V8" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7860,7 +7910,7 @@
       <c r="C9" s="21"/>
       <c r="D9" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>410.79779423868308</v>
+        <v>415.16798353909468</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="3">
@@ -7869,7 +7919,7 @@
       </c>
       <c r="G9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>410.79779423868308</v>
+        <v>415.16798353909468</v>
       </c>
       <c r="H9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -7877,19 +7927,19 @@
       </c>
       <c r="I9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>23.400418855062156</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>227.58013605442176</v>
+        <v>23.649359481179843</v>
+      </c>
+      <c r="J9" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>256.33850415512461</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="437" motorTorqueEco="411" fuelUsageRatio="228"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="437" motorTorqueEco="415" fuelUsageRatio="256.3"/&gt;</v>
       </c>
       <c r="L9" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.182" torque="0.373"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.182" torque="0.373"/&gt;</v>
       </c>
       <c r="M9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7900,8 +7950,8 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1748.4221583370193</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1255.203165476717</v>
       </c>
       <c r="P9" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7913,23 +7963,23 @@
       </c>
       <c r="R9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>739.4360296296295</v>
+        <v>747.30237037037034</v>
       </c>
       <c r="S9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1925.1887434160258</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1207.346283106544</v>
       </c>
       <c r="U9" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>393.19539605615779</v>
       </c>
       <c r="V9" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7943,7 +7993,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>851.98192016460882</v>
+        <v>861.04555761316851</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="3">
@@ -7952,7 +8002,7 @@
       </c>
       <c r="G10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>851.98192016460882</v>
+        <v>861.04555761316851</v>
       </c>
       <c r="H10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -7960,19 +8010,19 @@
       </c>
       <c r="I10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>84.930553716932749</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>210.45156462585035</v>
+        <v>85.834070245836287</v>
+      </c>
+      <c r="J10" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>228.43268698060939</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="906" motorTorqueEco="852" fuelUsageRatio="210"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="906" motorTorqueEco="861" fuelUsageRatio="228.4"/&gt;</v>
       </c>
       <c r="L10" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.318" torque="0.773"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.318" torque="0.773"/&gt;</v>
       </c>
       <c r="M10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7983,8 +8033,8 @@
         <v>856.28999999999974</v>
       </c>
       <c r="O10" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1598.3120300751882</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1306.6694951664876</v>
       </c>
       <c r="P10" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7996,23 +8046,23 @@
       </c>
       <c r="R10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1016.7245407407406</v>
+        <v>1027.5407592592592</v>
       </c>
       <c r="S10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>804.91259999999966</v>
+        <v>813.47549999999967</v>
       </c>
       <c r="T10" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1710.6055929596714</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1265.5700429645542</v>
       </c>
       <c r="U10" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>1039.0823147440824</v>
       </c>
       <c r="V10" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8026,7 +8076,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>979.86466502057601</v>
+        <v>990.28875720164592</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="3">
@@ -8035,7 +8085,7 @@
       </c>
       <c r="G11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>979.86466502057601</v>
+        <v>990.28875720164592</v>
       </c>
       <c r="H11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8043,19 +8093,19 @@
       </c>
       <c r="I11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>111.63274927145412</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>206.22503401360544</v>
+        <v>112.82033171051211</v>
+      </c>
+      <c r="J11" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>221.67922437673127</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1042" motorTorqueEco="980" fuelUsageRatio="206"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1042" motorTorqueEco="990" fuelUsageRatio="221.7"/&gt;</v>
       </c>
       <c r="L11" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.364" torque="0.889"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.364" torque="0.889"/&gt;</v>
       </c>
       <c r="M11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8066,8 +8116,8 @@
         <v>1032.2399999999998</v>
       </c>
       <c r="O11" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1548.2753206545779</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1312.3879762431288</v>
       </c>
       <c r="P11" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8079,23 +8129,23 @@
       </c>
       <c r="R11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1056.337185185185</v>
+        <v>1067.5748148148148</v>
       </c>
       <c r="S11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>970.3055999999998</v>
+        <v>980.62799999999982</v>
       </c>
       <c r="T11" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1639.0778761408865</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1272.0393496154443</v>
       </c>
       <c r="U11" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>1111.5400442847615</v>
       </c>
       <c r="V11" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8109,7 +8159,7 @@
       <c r="C12" s="21"/>
       <c r="D12" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="3">
@@ -8118,7 +8168,7 @@
       </c>
       <c r="G12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="H12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8126,19 +8176,19 @@
       </c>
       <c r="I12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>137.08048938219895</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>202.74</v>
+        <v>138.53879246073296</v>
+      </c>
+      <c r="J12" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>216.2</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="1138" motorTorqueEco="1070" fuelUsageRatio="203"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="1138" motorTorqueEco="1081" fuelUsageRatio="216.2"/&gt;</v>
       </c>
       <c r="L12" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.409" torque="0.97"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.409" torque="0.97"/&gt;</v>
       </c>
       <c r="M12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8149,8 +8199,8 @@
         <v>1137.81</v>
       </c>
       <c r="O12" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1498.2386112339675</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1312.3879762431288</v>
       </c>
       <c r="P12" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8162,23 +8212,23 @@
       </c>
       <c r="R12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="S12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="T12" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1567.5501593221015</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1272.0393496154441</v>
       </c>
       <c r="U12" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>1152.2560160427822</v>
       </c>
       <c r="V12" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8192,7 +8242,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="3">
@@ -8201,7 +8251,7 @@
       </c>
       <c r="G13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8209,19 +8259,19 @@
       </c>
       <c r="I13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>157.02232460732984</v>
-      </c>
-      <c r="J13" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>199.99646258503404</v>
+        <v>158.69277486910991</v>
+      </c>
+      <c r="J13" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>211.99501385041552</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="200"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="212"/&gt;</v>
       </c>
       <c r="L13" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.455" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.455" torque="1"/&gt;</v>
       </c>
       <c r="M13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8232,8 +8282,8 @@
         <v>1173</v>
       </c>
       <c r="O13" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1448.2019018133569</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1306.6694951664876</v>
       </c>
       <c r="P13" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8245,23 +8295,23 @@
       </c>
       <c r="R13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1056.337185185185</v>
+        <v>1067.5748148148148</v>
       </c>
       <c r="S13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="T13" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1496.0224425033168</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1265.5700429645542</v>
       </c>
       <c r="U13" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>1170.7527573529424</v>
       </c>
       <c r="V13" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8275,7 +8325,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="3">
@@ -8284,7 +8334,7 @@
       </c>
       <c r="G14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8292,19 +8342,19 @@
       </c>
       <c r="I14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>172.72455706806281</v>
-      </c>
-      <c r="J14" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>197.9944217687075</v>
+        <v>174.56205235602093</v>
+      </c>
+      <c r="J14" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>209.06426592797783</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="198"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="209.1"/&gt;</v>
       </c>
       <c r="L14" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.5" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.5" torque="1"/&gt;</v>
       </c>
       <c r="M14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8315,8 +8365,8 @@
         <v>1137.81</v>
       </c>
       <c r="O14" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1398.1651923927468</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1295.2325330132053</v>
       </c>
       <c r="P14" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8328,23 +8378,23 @@
       </c>
       <c r="R14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1016.7245407407406</v>
+        <v>1027.5407592592592</v>
       </c>
       <c r="S14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1069.5413999999998</v>
+        <v>1080.9195</v>
       </c>
       <c r="T14" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1424.4947256845319</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1252.6314296627743</v>
       </c>
       <c r="U14" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>200.52330456976009</v>
+        <v>1173.0900583373852</v>
       </c>
       <c r="V14" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8358,7 +8408,7 @@
       <c r="C15" s="21"/>
       <c r="D15" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="3">
@@ -8367,7 +8417,7 @@
       </c>
       <c r="G15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8375,19 +8425,19 @@
       </c>
       <c r="I15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>188.42678952879581</v>
-      </c>
-      <c r="J15" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>196.73387755102041</v>
+        <v>190.43132984293194</v>
+      </c>
+      <c r="J15" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>207.40775623268698</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="197"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207.4"/&gt;</v>
       </c>
       <c r="L15" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.545" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.545" torque="1"/&gt;</v>
       </c>
       <c r="M15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8398,8 +8448,8 @@
         <v>1032.2399999999998</v>
       </c>
       <c r="O15" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1348.1284829721362</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1278.0770897832817</v>
       </c>
       <c r="P15" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8411,23 +8461,23 @@
       </c>
       <c r="R15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>950.7034666666666</v>
+        <v>960.81733333333341</v>
       </c>
       <c r="S15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>970.3055999999998</v>
+        <v>980.62799999999982</v>
       </c>
       <c r="T15" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1352.9670088657469</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1233.2235097101041</v>
       </c>
       <c r="U15" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>457.0050307765141</v>
+        <v>1163.3077790775405</v>
       </c>
       <c r="V15" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8441,7 +8491,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="3">
@@ -8450,7 +8500,7 @@
       </c>
       <c r="G16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8458,19 +8508,19 @@
       </c>
       <c r="I16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>204.12902198952881</v>
-      </c>
-      <c r="J16" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>196.21482993197282</v>
+        <v>206.30060732984293</v>
+      </c>
+      <c r="J16" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>207.01368233194526</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="196"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207"/&gt;</v>
       </c>
       <c r="L16" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.591" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.591" torque="1"/&gt;</v>
       </c>
       <c r="M16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8481,8 +8531,8 @@
         <v>856.28999999999974</v>
       </c>
       <c r="O16" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1298.0917735515261</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1255.203165476717</v>
       </c>
       <c r="P16" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8494,23 +8544,23 @@
       </c>
       <c r="R16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>858.27396296296286</v>
+        <v>867.40453703703702</v>
       </c>
       <c r="S16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>804.91259999999966</v>
+        <v>813.47549999999967</v>
       </c>
       <c r="T16" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1281.439292046962</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1207.3462831065438</v>
       </c>
       <c r="U16" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>640.40439890991286</v>
+        <v>1144.2027457836284</v>
       </c>
       <c r="V16" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -8524,7 +8574,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="3">
@@ -8533,7 +8583,7 @@
       </c>
       <c r="G17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8541,19 +8591,19 @@
       </c>
       <c r="I17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>219.83125445026178</v>
-      </c>
-      <c r="J17" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>196.42932281393823</v>
+        <v>222.16988481675392</v>
+      </c>
+      <c r="J17" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>207.49256395002973</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="196"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207.5"/&gt;</v>
       </c>
       <c r="L17" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.636" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.636" torque="1"/&gt;</v>
       </c>
       <c r="M17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8564,8 +8614,8 @@
         <v>609.95999999999947</v>
       </c>
       <c r="O17" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1248.0550641309155</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1226.6107600935113</v>
       </c>
       <c r="P17" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8577,23 +8627,23 @@
       </c>
       <c r="R17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>739.4360296296295</v>
+        <v>747.30237037037034</v>
       </c>
       <c r="S17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>573.36239999999952</v>
+        <v>579.46199999999953</v>
       </c>
       <c r="T17" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1209.9115752281773</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1174.9997498520936</v>
       </c>
       <c r="U17" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>766.38191427138997</v>
+        <v>1117.7726914629488</v>
       </c>
       <c r="V17" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -8607,7 +8657,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="3">
@@ -8616,7 +8666,7 @@
       </c>
       <c r="G18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1102.6199999999999</v>
+        <v>1114.3499999999999</v>
       </c>
       <c r="H18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8624,19 +8674,19 @@
       </c>
       <c r="I18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>235.53348691099475</v>
-      </c>
-      <c r="J18" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>197.36094674556216</v>
+        <v>238.03916230366491</v>
+      </c>
+      <c r="J18" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>208.65556216537775</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1173" motorTorqueEco="1103" fuelUsageRatio="197"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="208.7"/&gt;</v>
       </c>
       <c r="L18" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.682" torque="1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.682" torque="1"/&gt;</v>
       </c>
       <c r="M18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8647,8 +8697,8 @@
         <v>293.2499999999992</v>
       </c>
       <c r="O18" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1198.0183547103052</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1192.2998736336638</v>
       </c>
       <c r="P18" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8660,23 +8710,23 @@
       </c>
       <c r="R18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>594.18966666666654</v>
+        <v>600.51083333333327</v>
       </c>
       <c r="S18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>275.65499999999923</v>
+        <v>278.58749999999924</v>
       </c>
       <c r="T18" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1138.3838584093924</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1136.1839099467538</v>
       </c>
       <c r="U18" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>846.42194741532956</v>
+        <v>1085.4826203208556</v>
       </c>
       <c r="V18" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -8685,41 +8735,41 @@
       </c>
       <c r="B19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1147.9816452896948</v>
+        <v>1152.2705060971757</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1066.8561415906074</v>
+        <v>1088.0201370320856</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1147.9816452896948</v>
+        <v>1152.2705060971757</v>
       </c>
       <c r="G19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1066.8561415906074</v>
+        <v>1088.0201370320856</v>
       </c>
       <c r="H19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>261.57152462307602</v>
+        <v>262.54875615366012</v>
       </c>
       <c r="I19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>243.08680252368185</v>
-      </c>
-      <c r="J19" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>199.00920447074296</v>
+        <v>247.90909090909093</v>
+      </c>
+      <c r="J19" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>210.5026769779893</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1148" motorTorqueEco="1067" fuelUsageRatio="199"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1152" motorTorqueEco="1088" fuelUsageRatio="210.5"/&gt;</v>
       </c>
       <c r="L19" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.727" torque="0.979"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.727" torque="0.982"/&gt;</v>
       </c>
       <c r="M19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8730,8 +8780,8 @@
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1147.9816452896948</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1152.2705060971757</v>
       </c>
       <c r="P19" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8743,23 +8793,23 @@
       </c>
       <c r="R19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>422.53487407407425</v>
+        <v>427.02992592592614</v>
       </c>
       <c r="S19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T19" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>1066.8561415906074</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1088.0201370320856</v>
       </c>
       <c r="U19" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>889.13777625751982</v>
+        <v>1048.4312855113637</v>
       </c>
       <c r="V19" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -8768,41 +8818,41 @@
       </c>
       <c r="B20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1097.9449358690845</v>
+        <v>1106.5226574840462</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>995.3284247718226</v>
+        <v>1024.0189525007863</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1097.9449358690845</v>
+        <v>1106.5226574840462</v>
       </c>
       <c r="G20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>995.3284247718226</v>
+        <v>1024.0189525007863</v>
       </c>
       <c r="H20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>265.8061457308192</v>
+        <v>267.88276273331041</v>
       </c>
       <c r="I20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>240.96327937931457</v>
-      </c>
-      <c r="J20" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>201.37409598948062</v>
+        <v>247.90909090909088</v>
+      </c>
+      <c r="J20" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>213.03390838786436</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1098" motorTorqueEco="995" fuelUsageRatio="201"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1107" motorTorqueEco="1024" fuelUsageRatio="213"/&gt;</v>
       </c>
       <c r="L20" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.773" torque="0.936"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.773" torque="0.943"/&gt;</v>
       </c>
       <c r="M20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8813,8 +8863,8 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1097.9449358690845</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1106.5226574840462</v>
       </c>
       <c r="P20" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8826,23 +8876,23 @@
       </c>
       <c r="R20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>224.47165185185187</v>
+        <v>226.85964814814818</v>
       </c>
       <c r="S20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>995.3284247718226</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>1024.0189525007863</v>
       </c>
       <c r="U20" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>901.11602508650515</v>
+        <v>1007.4589100346021</v>
       </c>
       <c r="V20" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -8851,41 +8901,41 @@
       </c>
       <c r="B21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1047.9082264484741</v>
+        <v>1053.3088235294117</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>923.80070795303766</v>
+        <v>967.12901069518705</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1047.9082264484741</v>
+        <v>1053.3088235294117</v>
       </c>
       <c r="G21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>923.80070795303766</v>
+        <v>967.12901069518705</v>
       </c>
       <c r="H21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>268.61563752312719</v>
+        <v>270</v>
       </c>
       <c r="I21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>236.80252702293572</v>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>204.45562130177515</v>
+        <v>247.90909090909088</v>
+      </c>
+      <c r="J21" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>216.24925639500299</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1048" motorTorqueEco="924" fuelUsageRatio="204"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1053" motorTorqueEco="967" fuelUsageRatio="216.2"/&gt;</v>
       </c>
       <c r="L21" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.818" torque="0.893"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.818" torque="0.898"/&gt;</v>
       </c>
       <c r="M21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8896,8 +8946,8 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>1047.9082264484741</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>1053.3088235294117</v>
       </c>
       <c r="P21" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8916,16 +8966,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>923.80070795303766</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>967.12901069518705</v>
       </c>
       <c r="U21" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>887.47962390448606</v>
+        <v>963.2190006684491</v>
       </c>
       <c r="V21" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -8939,7 +8989,7 @@
       <c r="C22" s="21"/>
       <c r="D22" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>852.27299113425283</v>
+        <v>916.22748381649308</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="3">
@@ -8948,7 +8998,7 @@
       </c>
       <c r="G22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>852.27299113425283</v>
+        <v>916.22748381649308</v>
       </c>
       <c r="H22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8956,19 +9006,19 @@
       </c>
       <c r="I22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>230.60454545454547</v>
-      </c>
-      <c r="J22" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>208.25378040762658</v>
+        <v>247.90909090909088</v>
+      </c>
+      <c r="J22" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>220.14872099940513</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="998" motorTorqueEco="852" fuelUsageRatio="208"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="998" motorTorqueEco="916" fuelUsageRatio="220.1"/&gt;</v>
       </c>
       <c r="L22" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.864" torque="0.851"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.864" torque="0.851"/&gt;</v>
       </c>
       <c r="M22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8979,8 +9029,8 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>997.87151702786377</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>997.87151702786366</v>
       </c>
       <c r="P22" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -8992,23 +9042,23 @@
       </c>
       <c r="R22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-250.8800814814816</v>
+        <v>-253.54901851851866</v>
       </c>
       <c r="S22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>852.27299113425295</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>916.22748381649308</v>
       </c>
       <c r="U22" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>852.27299113425283</v>
+        <v>916.22748381649308</v>
       </c>
       <c r="V22" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -9022,7 +9072,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>798.73166151403746</v>
+        <v>866.89710060160417</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="3">
@@ -9031,7 +9081,7 @@
       </c>
       <c r="G23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>798.73166151403746</v>
+        <v>866.89710060160417</v>
       </c>
       <c r="H23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -9039,19 +9089,19 @@
       </c>
       <c r="I23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>227.49215909090907</v>
-      </c>
-      <c r="J23" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>212.76857330703484</v>
+        <v>246.90681818181815</v>
+      </c>
+      <c r="J23" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>224.73230220107078</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="949" motorTorqueEco="799" fuelUsageRatio="213"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="949" motorTorqueEco="867" fuelUsageRatio="224.7"/&gt;</v>
       </c>
       <c r="L23" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.909" torque="0.809"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.909" torque="0.809"/&gt;</v>
       </c>
       <c r="M23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9062,8 +9112,8 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>947.8348076072532</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>934.96822518481054</v>
       </c>
       <c r="P23" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9075,23 +9125,23 @@
       </c>
       <c r="R23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-528.16859259259274</v>
+        <v>-533.78740740740761</v>
       </c>
       <c r="S23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>780.74527431546801</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>845.06511065670281</v>
       </c>
       <c r="U23" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>798.73166151403746</v>
+        <v>866.89710060160417</v>
       </c>
       <c r="V23" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -9105,7 +9155,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="3">
@@ -9114,7 +9164,7 @@
       </c>
       <c r="G24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
       <c r="H24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -9122,19 +9172,19 @@
       </c>
       <c r="I24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>218.15499999999997</v>
-      </c>
-      <c r="J24" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>218</v>
+        <v>243.9</v>
+      </c>
+      <c r="J24" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>230</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="906" motorTorqueEco="729" fuelUsageRatio="218"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="906" motorTorqueEco="816" fuelUsageRatio="230"/&gt;</v>
       </c>
       <c r="L24" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="0.955" torque="0.773"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="0.955" torque="0.773"/&gt;</v>
       </c>
       <c r="M24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9145,8 +9195,8 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>897.79809818664296</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>866.34645226511634</v>
       </c>
       <c r="P24" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9158,23 +9208,23 @@
       </c>
       <c r="R24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-831.86553333333359</v>
+        <v>-840.71516666666707</v>
       </c>
       <c r="S24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>709.21755749668307</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>767.43343084602259</v>
       </c>
       <c r="U24" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
       <c r="V24" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>729.47487745098033</v>
+        <v>815.56197478991601</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -9188,7 +9238,7 @@
       <c r="C25" s="21"/>
       <c r="D25" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>664.41045496321897</v>
+        <v>742.81914219490329</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="3">
@@ -9197,7 +9247,7 @@
       </c>
       <c r="G25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>664.41045496321897</v>
+        <v>742.81914219490329</v>
       </c>
       <c r="H25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -9205,19 +9255,19 @@
       </c>
       <c r="I25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>208.15875196334568</v>
-      </c>
-      <c r="J25" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>242.22222222222223</v>
+        <v>232.72407051802622</v>
+      </c>
+      <c r="J25" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>244.75450687929043</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="825" motorTorqueEco="664" fuelUsageRatio="242"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="825" motorTorqueEco="743" fuelUsageRatio="244.8"/&gt;</v>
       </c>
       <c r="L25" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
-        <v>&lt;torque normRpm="1" torque="0.704"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
+        <v xml:space="preserve">        &lt;torque normRpm="1" torque="0.704"/&gt;</v>
       </c>
       <c r="M25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9228,8 +9278,8 @@
         <v>0</v>
       </c>
       <c r="O25" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>847.76138876603261</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>792.00619826878096</v>
       </c>
       <c r="P25" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9241,23 +9291,23 @@
       </c>
       <c r="R25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1161.9709037037039</v>
+        <v>-1174.3322962962966</v>
       </c>
       <c r="S25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T25" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>637.68984067789813</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>683.33244438445251</v>
       </c>
       <c r="U25" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>646.6456554600145</v>
+        <v>762.49548037190084</v>
       </c>
       <c r="V25" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>664.41045496321897</v>
+        <v>742.81914219490329</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -9271,7 +9321,7 @@
       <c r="C26" s="21"/>
       <c r="D26" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>430.51729712888584</v>
+        <v>481.32368623105259</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="3">
@@ -9280,7 +9330,7 @@
       </c>
       <c r="G26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>430.51729712888584</v>
+        <v>481.32368623105259</v>
       </c>
       <c r="H26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -9288,18 +9338,18 @@
       </c>
       <c r="I26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>141.01131993917852</v>
-      </c>
-      <c r="J26" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>314.88888888888891</v>
+        <v>157.65240738541704</v>
+      </c>
+      <c r="J26" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>313.46409493927865</v>
       </c>
       <c r="K26" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="535" motorTorqueEco="431" fuelUsageRatio="315"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="535" motorTorqueEco="481" fuelUsageRatio="313.5"/&gt;</v>
       </c>
       <c r="L26" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M26" s="3">
@@ -9311,8 +9361,8 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>797.72467934542203</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>711.94746319580429</v>
       </c>
       <c r="P26" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9324,23 +9374,23 @@
       </c>
       <c r="R26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1518.4847037037025</v>
+        <v>-1534.6387962962954</v>
       </c>
       <c r="S26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>566.16212385911331</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>592.76215127199214</v>
       </c>
       <c r="U26" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>552.01431353173666</v>
+        <v>707.92344803534058</v>
       </c>
       <c r="V26" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>430.51729712888584</v>
+        <v>481.32368623105259</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -9373,16 +9423,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J27" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J27" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="436"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="460"/&gt;</v>
       </c>
       <c r="L27" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M27" s="3">
@@ -9394,8 +9444,8 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>747.6879699248118</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>626.17024704618655</v>
       </c>
       <c r="P27" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9407,19 +9457,19 @@
       </c>
       <c r="R27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1901.4069333333325</v>
+        <v>-1921.6346666666661</v>
       </c>
       <c r="S27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>494.63440704032843</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>495.72255150864191</v>
       </c>
       <c r="U27" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>447.05611665831083</v>
+        <v>652.03407002005349</v>
       </c>
       <c r="V27" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9456,16 +9506,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J28" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J28" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L28" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M28" s="3">
@@ -9477,8 +9527,8 @@
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>697.65126050420145</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>534.67454981992751</v>
       </c>
       <c r="P28" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9490,19 +9540,19 @@
       </c>
       <c r="R28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-2310.7375925925921</v>
+        <v>-2335.3199074074073</v>
       </c>
       <c r="S28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T28" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>423.1066902215436</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>392.21364509440167</v>
       </c>
       <c r="U28" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>333.0102874331547</v>
+        <v>594.98542780748676</v>
       </c>
       <c r="V28" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9539,16 +9589,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J29" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K29" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L29" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M29" s="3">
@@ -9560,8 +9610,8 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>572.55948695267546</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>280.91695204397502</v>
       </c>
       <c r="P29" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9573,19 +9623,19 @@
       </c>
       <c r="R29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-3449.6011203703688</v>
+        <v>-3486.2990046296286</v>
       </c>
       <c r="S29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>244.28739817458145</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>105.13816246115711</v>
       </c>
       <c r="U29" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>14.643241446887926</v>
+        <v>448.12196919056908</v>
       </c>
       <c r="V29" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9622,16 +9672,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J30" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J30" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L30" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M30" s="3">
@@ -9643,8 +9693,8 @@
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>447.46771340114952</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>0</v>
       </c>
       <c r="P30" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9656,19 +9706,19 @@
       </c>
       <c r="R30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-4753.5173333333341</v>
+        <v>-4804.086666666668</v>
       </c>
       <c r="S30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T30" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>65.468106127619265</v>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <v>0</v>
       </c>
       <c r="U30" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>296.41067847593644</v>
       </c>
       <c r="V30" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9705,16 +9755,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J31" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J31" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L31" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M31" s="3">
@@ -9726,8 +9776,8 @@
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>322.37593984962348</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>0</v>
       </c>
       <c r="P31" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9739,19 +9789,19 @@
       </c>
       <c r="R31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-6222.48623148148</v>
+        <v>-6288.6828935185185</v>
       </c>
       <c r="S31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T31" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U31" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>140.97028614767666</v>
       </c>
       <c r="V31" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9788,16 +9838,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J32" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J32" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K32" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L32" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M32" s="3">
@@ -9809,8 +9859,8 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>197.28416629809755</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9822,14 +9872,14 @@
       </c>
       <c r="R32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-7856.5078148148132</v>
+        <v>-7940.0876851851845</v>
       </c>
       <c r="S32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U32" s="3">
@@ -9871,16 +9921,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J33" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J33" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K33" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L33" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M33" s="3">
@@ -9892,8 +9942,8 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>72.192392746571628</v>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -9905,14 +9955,14 @@
       </c>
       <c r="R33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-9655.5820833333346</v>
+        <v>-9758.3010416666693</v>
       </c>
       <c r="S33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U33" s="3">
@@ -9954,16 +10004,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J34" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J34" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K34" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L34" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M34" s="3">
@@ -9975,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P34" s="3">
@@ -9988,14 +10038,14 @@
       </c>
       <c r="R34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-11619.709037037037</v>
+        <v>-11743.322962962964</v>
       </c>
       <c r="S34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U34" s="3">
@@ -10037,16 +10087,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J35" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J35" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K35" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L35" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M35" s="3">
@@ -10058,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P35" s="3">
@@ -10071,14 +10121,14 @@
       </c>
       <c r="R35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-13748.888675925924</v>
+        <v>-13895.153449074074</v>
       </c>
       <c r="S35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U35" s="3">
@@ -10120,16 +10170,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J36" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J36" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K36" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L36" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M36" s="3">
@@ -10141,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P36" s="3">
@@ -10154,14 +10204,14 @@
       </c>
       <c r="R36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-16043.120999999997</v>
+        <v>-16213.7925</v>
       </c>
       <c r="S36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U36" s="3">
@@ -10203,16 +10253,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J37" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J37" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K37" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L37" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M37" s="3">
@@ -10224,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P37" s="3">
@@ -10237,14 +10287,14 @@
       </c>
       <c r="R37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-18502.406009259255</v>
+        <v>-18699.24011574074</v>
       </c>
       <c r="S37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U37" s="3">
@@ -10286,16 +10336,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J38" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J38" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K38" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L38" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M38" s="3">
@@ -10307,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P38" s="3">
@@ -10320,14 +10370,14 @@
       </c>
       <c r="R38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-21126.743703703698</v>
+        <v>-21351.496296296296</v>
       </c>
       <c r="S38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U38" s="3">
@@ -10369,16 +10419,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J39" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J39" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K39" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L39" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M39" s="3">
@@ -10390,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P39" s="3">
@@ -10403,14 +10453,14 @@
       </c>
       <c r="R39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-23916.134083333327</v>
+        <v>-24170.56104166666</v>
       </c>
       <c r="S39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U39" s="3">
@@ -10452,16 +10502,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J40" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J40" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K40" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L40" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M40" s="3">
@@ -10473,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P40" s="3">
@@ -10486,14 +10536,14 @@
       </c>
       <c r="R40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-26870.577148148139</v>
+        <v>-27156.434351851847</v>
       </c>
       <c r="S40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U40" s="3">
@@ -10535,16 +10585,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J41" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K41" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L41" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M41" s="3">
@@ -10556,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P41" s="3">
@@ -10569,14 +10619,14 @@
       </c>
       <c r="R41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-29990.072898148148</v>
+        <v>-30309.116226851856</v>
       </c>
       <c r="S41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U41" s="3">
@@ -10618,16 +10668,16 @@
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J42" s="3">
-        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2,Table36[fuelRatedRate]*2)))</f>
-        <v>436</v>
+      <c r="J42" s="30">
+        <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
+        <v>460</v>
       </c>
       <c r="K42" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],0),"""/&gt;",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
         <v/>
       </c>
       <c r="L42" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",CONCATENATE("&lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;"))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
         <v/>
       </c>
       <c r="M42" s="3">
@@ -10639,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
         <v>0</v>
       </c>
       <c r="P42" s="3">
@@ -10652,14 +10702,14 @@
       </c>
       <c r="R42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-33274.621333333329</v>
+        <v>-33628.606666666667</v>
       </c>
       <c r="S42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
         <v>0</v>
       </c>
       <c r="U42" s="3">

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="23190" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -541,71 +541,6 @@
   <dxfs count="73">
     <dxf>
       <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -617,113 +552,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1251,6 +1079,96 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1389,6 +1307,62 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <i/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1411,6 +1385,32 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1677,61 +1677,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.26633744855968</c:v>
+                  <c:v>240.37037037037044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>437.0189300411522</c:v>
+                  <c:v>704.81481481481478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>906.36374485596684</c:v>
+                  <c:v>912.59259259259272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1042.4092181069957</c:v>
+                  <c:v>953.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1137.81</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1173</c:v>
+                  <c:v>1023.6111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1173</c:v>
+                  <c:v>1051.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1173</c:v>
+                  <c:v>1072.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1173</c:v>
+                  <c:v>1087.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1173</c:v>
+                  <c:v>1096.9444444444443</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1173</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1152.2705060971757</c:v>
+                  <c:v>1072.4929856811145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1106.5226574840462</c:v>
+                  <c:v>1032.6557093425604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1053.3088235294117</c:v>
+                  <c:v>975.28594771241819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>997.87151702786366</c:v>
+                  <c:v>923.95510835913308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>948.85569852941171</c:v>
+                  <c:v>796.06627888149092</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>906.17997198879539</c:v>
+                  <c:v>478.62033819495952</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>825.35460243878128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>534.80409581228059</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1951,61 +1951,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201.65302057613169</c:v>
+                  <c:v>228.3518518518519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>415.16798353909468</c:v>
+                  <c:v>669.57407407407413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>861.04555761316851</c:v>
+                  <c:v>866.96296296296305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>990.28875720164592</c:v>
+                  <c:v>905.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1080.9195</c:v>
+                  <c:v>940.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>972.43055555555554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>998.55555555555566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>1018.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>1033.3888888888889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>1042.0972222222222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1114.3499999999999</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1088.0201370320856</c:v>
+                  <c:v>987.47702205882354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1024.0189525007863</c:v>
+                  <c:v>929.39013840830444</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>967.12901069518705</c:v>
+                  <c:v>877.75735294117646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>916.22748381649308</c:v>
+                  <c:v>831.55959752321974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>866.89710060160417</c:v>
+                  <c:v>716.45965099334182</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>815.56197478991601</c:v>
+                  <c:v>430.75830437546352</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>742.81914219490329</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>481.32368623105259</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2068,8 +2068,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318334496"/>
-        <c:axId val="318337632"/>
+        <c:axId val="374297712"/>
+        <c:axId val="374295752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2239,61 +2239,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0228504600004311</c:v>
+                  <c:v>3.4230754314523959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.894062611768252</c:v>
+                  <c:v>40.148613535000962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.351652890353989</c:v>
+                  <c:v>90.972580957921295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118.75824390580225</c:v>
+                  <c:v>108.61012216404887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145.83030785340313</c:v>
+                  <c:v>126.88586387434555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.04502617801046</c:v>
+                  <c:v>145.77079697498544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>183.74952879581153</c:v>
+                  <c:v>164.65573007562537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200.4540314136126</c:v>
+                  <c:v>183.27958115183247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217.15853403141364</c:v>
+                  <c:v>201.38126817917399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>233.86303664921471</c:v>
+                  <c:v>218.699709133217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250.56753926701575</c:v>
+                  <c:v>234.97382198952886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>262.54875615366012</c:v>
+                  <c:v>244.37117663268117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>267.88276273331041</c:v>
+                  <c:v>249.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>270</c:v>
+                  <c:v>249.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>269.99999999999994</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>270.25</c:v>
+                  <c:v>226.7330134615346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>270.99999999999994</c:v>
+                  <c:v>143.13504564238789</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>258.58230057558467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175.16934153935222</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
@@ -2513,61 +2513,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8717079370004095</c:v>
+                  <c:v>3.2519216598797756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.649359481179843</c:v>
+                  <c:v>38.141182858250929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.834070245836287</c:v>
+                  <c:v>86.423951910025224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.82033171051211</c:v>
+                  <c:v>103.17961605584642</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138.53879246073296</c:v>
+                  <c:v>120.54157068062827</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>158.69277486910991</c:v>
+                  <c:v>138.48225712623619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174.56205235602093</c:v>
+                  <c:v>156.42294357184412</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190.43132984293194</c:v>
+                  <c:v>174.11560209424087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.30060732984293</c:v>
+                  <c:v>191.31220477021526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>222.16988481675392</c:v>
+                  <c:v>207.76472367655614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>238.03916230366491</c:v>
+                  <c:v>223.22513089005241</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>247.90909090909093</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>247.90909090909088</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>247.90909090909088</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>247.90909090909088</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>246.90681818181815</c:v>
+                  <c:v>204.05971211538113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>243.9</c:v>
+                  <c:v>128.8215410781491</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>232.72407051802622</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>157.65240738541704</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
@@ -2630,11 +2630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318331752"/>
-        <c:axId val="318332928"/>
+        <c:axId val="374298104"/>
+        <c:axId val="374300064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318334496"/>
+        <c:axId val="374297712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -2738,13 +2738,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318337632"/>
+        <c:crossAx val="374295752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318337632"/>
+        <c:axId val="374295752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,12 +2846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318334496"/>
+        <c:crossAx val="374297712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318332928"/>
+        <c:axId val="374300064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,12 +2894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318331752"/>
+        <c:crossAx val="374298104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318331752"/>
+        <c:axId val="374298104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318332928"/>
+        <c:crossAx val="374300064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3197,64 +3197,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>311.38559556786686</c:v>
+                  <c:v>304.1749999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>295.71246537396109</c:v>
+                  <c:v>289.7999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.33850415512461</c:v>
+                  <c:v>253.57499999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.43268698060939</c:v>
+                  <c:v>227.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.67922437673127</c:v>
+                  <c:v>221.37499999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>216.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>211.99501385041552</c:v>
+                  <c:v>212.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209.06426592797783</c:v>
+                  <c:v>209.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207.40775623268698</c:v>
+                  <c:v>207.57499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207.01368233194526</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.49256395002973</c:v>
+                  <c:v>207.63888888888889</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208.65556216537775</c:v>
+                  <c:v>209.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>210.5026769779893</c:v>
+                  <c:v>212.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>213.03390838786436</c:v>
+                  <c:v>217.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>216.24925639500299</c:v>
+                  <c:v>222.97222222222223</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>220.14872099940513</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224.73230220107078</c:v>
+                  <c:v>244.75450687929043</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230</c:v>
+                  <c:v>313.46409493927865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>244.75450687929043</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>313.46409493927865</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>460</c:v>
@@ -3317,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318332144"/>
-        <c:axId val="318334888"/>
+        <c:axId val="374296144"/>
+        <c:axId val="374300456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318332144"/>
+        <c:axId val="374296144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -3425,13 +3425,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318334888"/>
+        <c:crossAx val="374300456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318334888"/>
+        <c:axId val="374300456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -3529,7 +3529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318332144"/>
+        <c:crossAx val="374296144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3845,11 +3845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318336064"/>
-        <c:axId val="318335280"/>
+        <c:axId val="374300848"/>
+        <c:axId val="374296928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318336064"/>
+        <c:axId val="374300848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -3908,12 +3908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318335280"/>
+        <c:crossAx val="374296928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318335280"/>
+        <c:axId val="374296928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +3970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318336064"/>
+        <c:crossAx val="374300848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4231,11 +4231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317180528"/>
-        <c:axId val="317182096"/>
+        <c:axId val="374231496"/>
+        <c:axId val="374237376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317180528"/>
+        <c:axId val="374231496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -4294,12 +4294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317182096"/>
+        <c:crossAx val="374237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317182096"/>
+        <c:axId val="374237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317180528"/>
+        <c:crossAx val="374231496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6813,46 +6813,46 @@
     <tableColumn id="3" name="ps" dataDxfId="63">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="psEco" dataDxfId="8">
+    <tableColumn id="13" name="psEco" dataDxfId="62">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="3">
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="61">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="7">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</calculatedColumnFormula>
+    <tableColumn id="5" name="xml" dataDxfId="0">
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="6">
+    <tableColumn id="8" name="xml2" dataDxfId="60">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="t1" dataDxfId="62">
+    <tableColumn id="15" name="t1" dataDxfId="59">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="t2" dataDxfId="61">
+    <tableColumn id="18" name="t2" dataDxfId="58">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="t3" dataDxfId="5">
+    <tableColumn id="19" name="t3" dataDxfId="57">
       <calculatedColumnFormula>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="t4" dataDxfId="60">
+    <tableColumn id="16" name="t4" dataDxfId="56">
       <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="t5" dataDxfId="59">
+    <tableColumn id="17" name="t5" dataDxfId="55">
       <calculatedColumnFormula>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="t1E" dataDxfId="58">
+    <tableColumn id="21" name="t1E" dataDxfId="54">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="t2E" dataDxfId="57">
+    <tableColumn id="22" name="t2E" dataDxfId="53">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="t3E" dataDxfId="4">
+    <tableColumn id="23" name="t3E" dataDxfId="52">
       <calculatedColumnFormula>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="t4E" dataDxfId="56">
+    <tableColumn id="24" name="t4E" dataDxfId="51">
       <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="t5E" dataDxfId="55">
+    <tableColumn id="25" name="t5E" dataDxfId="50">
       <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6861,7 +6861,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6886,45 +6886,45 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="10" name="maxPRpm" dataDxfId="2"/>
-    <tableColumn id="14" name="maxPS" dataDxfId="1"/>
-    <tableColumn id="19" name="maxPSEco" dataDxfId="0">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="48"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="47"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="46">
       <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="20" name="PSEco" dataDxfId="53">
+    <tableColumn id="20" name="PSEco" dataDxfId="45">
       <calculatedColumnFormula>Table36[PSEcoRate]*Table36[PS]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="maxTRpm1" dataDxfId="52"/>
-    <tableColumn id="4" name="maxTRpm" dataDxfId="51"/>
-    <tableColumn id="5" name="maxT" dataDxfId="50"/>
-    <tableColumn id="21" name="maxTEco" dataDxfId="49">
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="44"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="43"/>
+    <tableColumn id="5" name="maxT" dataDxfId="42"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="41">
       <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut" dataDxfId="48"/>
-    <tableColumn id="15" name="linearDown" dataDxfId="47"/>
-    <tableColumn id="25" name="fadeOutExp" dataDxfId="46"/>
-    <tableColumn id="22" name="Efficiency" dataDxfId="45"/>
-    <tableColumn id="16" name="Factor" dataDxfId="44"/>
-    <tableColumn id="13" name="fuelMinRate" dataDxfId="12"/>
-    <tableColumn id="18" name="fuelRatedRate" dataDxfId="9">
+    <tableColumn id="11" name="fadeOut" dataDxfId="40"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="39"/>
+    <tableColumn id="25" name="fadeOutExp" dataDxfId="38"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="37"/>
+    <tableColumn id="16" name="Factor" dataDxfId="36"/>
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="35"/>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="34">
       <calculatedColumnFormula>Table36[fuelMinRate]/0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="fuelMinRpm" dataDxfId="11">
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="33">
       <calculatedColumnFormula>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fuelIdleRate" dataDxfId="10">
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="32">
       <calculatedColumnFormula>0.94*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="normRpm" dataDxfId="43">
+    <tableColumn id="1" name="normRpm" dataDxfId="31">
       <calculatedColumnFormula>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="PSEcoRate" dataDxfId="42"/>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="30"/>
     <tableColumn id="23" name="NmEcoRate"/>
-    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="41">
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="29">
       <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6933,7 +6933,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A3:S4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6952,61 +6952,61 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="f1" dataDxfId="38">
+    <tableColumn id="1" name="f1" dataDxfId="26">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2" dataDxfId="37">
+    <tableColumn id="2" name="f2" dataDxfId="25">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3" dataDxfId="36">
+    <tableColumn id="5" name="f3" dataDxfId="24">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4" dataDxfId="35">
+    <tableColumn id="6" name="f4" dataDxfId="23">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm" dataDxfId="34">
+    <tableColumn id="3" name="Nm" dataDxfId="22">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2" dataDxfId="33">
+    <tableColumn id="4" name="Nm2" dataDxfId="21">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="AnstiegE" dataDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="17" name="AnstiegE" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anstieg" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="14" name="Anstieg" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Abfall" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="15" name="Abfall" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Nm1000" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="16" name="Nm1000" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NmEco" dataDxfId="27">
+    <tableColumn id="8" name="NmEco" dataDxfId="15">
       <calculatedColumnFormula>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Nm2Eco" dataDxfId="26">
+    <tableColumn id="9" name="Nm2Eco" dataDxfId="14">
       <calculatedColumnFormula>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="f2Eco" dataDxfId="25">
+    <tableColumn id="12" name="f2Eco" dataDxfId="13">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f3Eco" dataDxfId="24">
+    <tableColumn id="10" name="f3Eco" dataDxfId="12">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f4Eco" dataDxfId="23">
+    <tableColumn id="11" name="f4Eco" dataDxfId="11">
       <calculatedColumnFormula>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="idleT" dataDxfId="22">
+    <tableColumn id="13" name="idleT" dataDxfId="10">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="idleTEco" dataDxfId="21">
+    <tableColumn id="19" name="idleTEco" dataDxfId="9">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="xmlComment" dataDxfId="20">
+    <tableColumn id="21" name="xmlComment" dataDxfId="8">
       <calculatedColumnFormula>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7023,17 +7023,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="19">
+    <tableColumn id="6" name="kw_pto" dataDxfId="7">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="18">
+    <tableColumn id="3" name="ps" dataDxfId="6">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="17">
+    <tableColumn id="5" name="xml" dataDxfId="5">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="16">
+    <tableColumn id="8" name="xml2" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7067,16 +7067,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="15">
+    <tableColumn id="6" name="kw_pto" dataDxfId="3">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="14">
+    <tableColumn id="3" name="ps" dataDxfId="2">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="13">
+    <tableColumn id="5" name="xml" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7350,7 +7350,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,49 +7448,49 @@
         <v>1900</v>
       </c>
       <c r="B2" s="14">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="C2" s="18">
         <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
-        <v>247.90909090909091</v>
+        <v>225</v>
       </c>
       <c r="D2" s="7">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E2" s="8">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="F2" s="19">
         <f>Table36[PSEcoRate]*Table36[PS]</f>
-        <v>243.9</v>
+        <v>225</v>
       </c>
       <c r="G2" s="13">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H2" s="14">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="I2" s="14">
-        <v>1173</v>
+        <v>1100</v>
       </c>
       <c r="J2" s="18">
         <f>Table36[NmEcoRate]*Table36[maxT]</f>
-        <v>1114.3499999999999</v>
+        <v>1045</v>
       </c>
       <c r="K2" s="7">
         <v>900</v>
       </c>
       <c r="L2" s="11">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="M2" s="9">
         <v>300</v>
       </c>
       <c r="N2" s="13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="14">
         <v>0.94</v>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="T2" s="17">
         <f>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</f>
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="U2" s="19">
         <f>0.94*Table36[fuelRatedRate]</f>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="V2" s="16">
         <f>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</f>
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="W2" s="7">
         <v>0.9</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="Y2" s="29">
         <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
-        <v>0.91818181818181821</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7590,82 +7590,82 @@
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>3.0000000000000026E-6</v>
+        <v>2.7777777777777771E-7</v>
       </c>
       <c r="B4" s="12">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>4.2657041279292737E-4</v>
+        <v>4.0010202645651574E-4</v>
       </c>
       <c r="C4" s="12">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.2187726079797926E-6</v>
+        <v>1.0002550661412894E-6</v>
       </c>
       <c r="D4" s="12">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>-2.5000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="12">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>997.87151702786366</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="F4" s="12">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="G4" s="23">
         <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
-        <v>1.3663584552075885</v>
+        <v>1.1694057268437723</v>
       </c>
       <c r="H4" s="24">
         <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
-        <v>0.36635845520758847</v>
+        <v>0.25667481093659106</v>
       </c>
       <c r="I4" s="24">
         <f>Table36[maxT]/Table7[Nm2]-1</f>
-        <v>0.2944448523019263</v>
+        <v>0.19053403141361258</v>
       </c>
       <c r="J4" s="25">
         <f>1-Table36[maxTRpm]/Table36[ratedRpm]</f>
-        <v>0.26190476190476186</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
-        <v>1114.3499999999999</v>
+        <v>972.43055555555554</v>
       </c>
       <c r="L4" s="12">
         <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
-        <v>916.22748381649308</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="M4" s="12">
         <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="N4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>5.0797714537880974E-4</v>
+        <v>5.1062297243248866E-4</v>
       </c>
       <c r="O4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.4513632725108851E-6</v>
+        <v>1.2765574310812216E-6</v>
       </c>
       <c r="P4" s="12">
         <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>1.0022727272727252E-4</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
-        <v>1137.81</v>
+        <v>990</v>
       </c>
       <c r="R4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
-        <v>1080.9195</v>
+        <v>940.5</v>
       </c>
       <c r="S4" s="12" t="str">
         <f>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -7765,15 +7765,15 @@
       </c>
       <c r="J7" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>311.38559556786686</v>
+        <v>304.1749999999999</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 270(248) | 2100: 271(244) | 1000..1550: 1173(1114) | 97 | 0.8 | 300 | 2.2 | 2200 | 1280: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
       </c>
       <c r="M7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="N7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>412.50000000000011</v>
       </c>
       <c r="O7" s="3" t="e">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
@@ -7789,11 +7789,11 @@
       </c>
       <c r="P7" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2529696.6911764704</v>
+        <v>1755514.7058823528</v>
       </c>
       <c r="Q7" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="S7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>391.87500000000011</v>
       </c>
       <c r="T7" s="3" t="e">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
@@ -7809,11 +7809,11 @@
       </c>
       <c r="U7" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>1579963.2352941176</v>
       </c>
       <c r="V7" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7822,81 +7822,81 @@
       </c>
       <c r="B8" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>212.26633744855968</v>
+        <v>240.37037037037044</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>201.65302057613169</v>
+        <v>228.3518518518519</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>212.26633744855968</v>
+        <v>240.37037037037044</v>
       </c>
       <c r="G8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>201.65302057613169</v>
+        <v>228.3518518518519</v>
       </c>
       <c r="H8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>3.0228504600004311</v>
+        <v>3.4230754314523959</v>
       </c>
       <c r="I8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>2.8717079370004095</v>
+        <v>3.2519216598797756</v>
       </c>
       <c r="J8" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>295.71246537396109</v>
+        <v>289.7999999999999</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="212" motorTorqueEco="202" fuelUsageRatio="295.7"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="240" motorTorqueEco="228" fuelUsageRatio="289.8"/&gt;</v>
       </c>
       <c r="L8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.045" torque="0.181"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.05" torque="0.219"/&gt;</v>
       </c>
       <c r="M8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>238.79962962962966</v>
+        <v>207.77777777777783</v>
       </c>
       <c r="N8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>501.11111111111131</v>
       </c>
       <c r="O8" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1152.2705060971757</v>
+        <v>329.80359907120709</v>
       </c>
       <c r="P8" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>24647.426470588231</v>
+        <v>17555.147058823528</v>
       </c>
       <c r="Q8" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>226.85964814814818</v>
+        <v>197.38888888888894</v>
       </c>
       <c r="S8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>476.05555555555571</v>
       </c>
       <c r="T8" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1090.8987633905238</v>
+        <v>111.19823916408642</v>
       </c>
       <c r="U8" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>15799.632352941177</v>
       </c>
       <c r="V8" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7905,81 +7905,81 @@
       </c>
       <c r="B9" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>437.0189300411522</v>
+        <v>704.81481481481478</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>415.16798353909468</v>
+        <v>669.57407407407413</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>437.0189300411522</v>
+        <v>704.81481481481478</v>
       </c>
       <c r="G9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>415.16798353909468</v>
+        <v>669.57407407407413</v>
       </c>
       <c r="H9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>24.894062611768252</v>
+        <v>40.148613535000962</v>
       </c>
       <c r="I9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>23.649359481179843</v>
+        <v>38.141182858250929</v>
       </c>
       <c r="J9" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>256.33850415512461</v>
+        <v>253.57499999999993</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="437" motorTorqueEco="415" fuelUsageRatio="256.3"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="705" motorTorqueEco="670" fuelUsageRatio="253.6"/&gt;</v>
       </c>
       <c r="L9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.182" torque="0.373"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.2" torque="0.641"/&gt;</v>
       </c>
       <c r="M9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>786.63407407407396</v>
+        <v>684.44444444444446</v>
       </c>
       <c r="N9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>730.27777777777783</v>
       </c>
       <c r="O9" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1255.203165476717</v>
+        <v>676.39197948916387</v>
       </c>
       <c r="P9" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>5727.3667279411757</v>
+        <v>4388.786764705882</v>
       </c>
       <c r="Q9" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>747.30237037037034</v>
+        <v>650.22222222222217</v>
       </c>
       <c r="S9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>693.76388888888903</v>
       </c>
       <c r="T9" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1207.346283106544</v>
+        <v>531.4090315402475</v>
       </c>
       <c r="U9" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>393.19539605615779</v>
+        <v>3949.9080882352941</v>
       </c>
       <c r="V9" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7988,81 +7988,81 @@
       </c>
       <c r="B10" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>906.36374485596684</v>
+        <v>912.59259259259272</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>861.04555761316851</v>
+        <v>866.96296296296305</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>906.36374485596684</v>
+        <v>912.59259259259272</v>
       </c>
       <c r="G10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>861.04555761316851</v>
+        <v>866.96296296296305</v>
       </c>
       <c r="H10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>90.351652890353989</v>
+        <v>90.972580957921295</v>
       </c>
       <c r="I10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>85.834070245836287</v>
+        <v>86.423951910025224</v>
       </c>
       <c r="J10" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>228.43268698060939</v>
+        <v>227.7</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="906" motorTorqueEco="861" fuelUsageRatio="228.4"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="913" motorTorqueEco="867" fuelUsageRatio="227.7"/&gt;</v>
       </c>
       <c r="L10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.318" torque="0.773"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.35" torque="0.83"/&gt;</v>
       </c>
       <c r="M10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1081.6218518518517</v>
+        <v>941.11111111111109</v>
       </c>
       <c r="N10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>856.28999999999974</v>
+        <v>904.44444444444457</v>
       </c>
       <c r="O10" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1306.6694951664876</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="P10" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>3069.6428571428564</v>
+        <v>2507.8781512605042</v>
       </c>
       <c r="Q10" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1027.5407592592592</v>
+        <v>894.05555555555554</v>
       </c>
       <c r="S10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>813.47549999999967</v>
+        <v>859.22222222222229</v>
       </c>
       <c r="T10" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1265.5700429645542</v>
+        <v>831.55959752321985</v>
       </c>
       <c r="U10" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1039.0823147440824</v>
+        <v>2257.0903361344535</v>
       </c>
       <c r="V10" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8071,81 +8071,81 @@
       </c>
       <c r="B11" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1042.4092181069957</v>
+        <v>953.33333333333337</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>990.28875720164592</v>
+        <v>905.66666666666674</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1042.4092181069957</v>
+        <v>953.33333333333337</v>
       </c>
       <c r="G11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>990.28875720164592</v>
+        <v>905.66666666666674</v>
       </c>
       <c r="H11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>118.75824390580225</v>
+        <v>108.61012216404887</v>
       </c>
       <c r="I11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>112.82033171051211</v>
+        <v>103.17961605584642</v>
       </c>
       <c r="J11" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>221.67922437673127</v>
+        <v>221.37499999999997</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="1042" motorTorqueEco="990" fuelUsageRatio="221.7"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="953" motorTorqueEco="906" fuelUsageRatio="221.4"/&gt;</v>
       </c>
       <c r="L11" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.364" torque="0.889"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.4" torque="0.867"/&gt;</v>
       </c>
       <c r="M11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1123.7629629629628</v>
+        <v>977.77777777777771</v>
       </c>
       <c r="N11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>1032.2399999999998</v>
+        <v>950.27777777777783</v>
       </c>
       <c r="O11" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1312.3879762431288</v>
+        <v>984.47053986068101</v>
       </c>
       <c r="P11" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2635.466452205882</v>
+        <v>2194.393382352941</v>
       </c>
       <c r="Q11" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1067.5748148148148</v>
+        <v>928.8888888888888</v>
       </c>
       <c r="S11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>980.62799999999982</v>
+        <v>902.76388888888891</v>
       </c>
       <c r="T11" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1272.0393496154443</v>
+        <v>904.9297358746129</v>
       </c>
       <c r="U11" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1111.5400442847615</v>
+        <v>1974.9540441176471</v>
       </c>
       <c r="V11" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8154,81 +8154,81 @@
       </c>
       <c r="B12" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1137.81</v>
+        <v>990</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1080.9195</v>
+        <v>940.5</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1137.81</v>
+        <v>990</v>
       </c>
       <c r="G12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1080.9195</v>
+        <v>940.5</v>
       </c>
       <c r="H12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>145.83030785340313</v>
+        <v>126.88586387434555</v>
       </c>
       <c r="I12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>138.53879246073296</v>
+        <v>120.54157068062827</v>
       </c>
       <c r="J12" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
         <v>216.2</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="1138" motorTorqueEco="1081" fuelUsageRatio="216.2"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="990" motorTorqueEco="941" fuelUsageRatio="216.2"/&gt;</v>
       </c>
       <c r="L12" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.409" torque="0.97"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.45" torque="0.9"/&gt;</v>
       </c>
       <c r="M12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1137.81</v>
+        <v>990</v>
       </c>
       <c r="N12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>1137.81</v>
+        <v>990</v>
       </c>
       <c r="O12" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1312.3879762431288</v>
+        <v>1033.9831656346751</v>
       </c>
       <c r="P12" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2301.6748366013071</v>
+        <v>1950.5718954248364</v>
       </c>
       <c r="Q12" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1080.9195</v>
+        <v>940.5</v>
       </c>
       <c r="S12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1080.9195</v>
+        <v>940.5</v>
       </c>
       <c r="T12" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1272.0393496154441</v>
+        <v>964.95984907120737</v>
       </c>
       <c r="U12" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1152.2560160427822</v>
+        <v>1755.5147058823529</v>
       </c>
       <c r="V12" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8237,81 +8237,81 @@
       </c>
       <c r="B13" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>972.43055555555554</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="G13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>972.43055555555554</v>
       </c>
       <c r="H13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>167.04502617801046</v>
+        <v>145.77079697498544</v>
       </c>
       <c r="I13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>158.69277486910991</v>
+        <v>138.48225712623619</v>
       </c>
       <c r="J13" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>211.99501385041552</v>
+        <v>212.17499999999998</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="212"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1024" motorTorqueEco="972" fuelUsageRatio="212.2"/&gt;</v>
       </c>
       <c r="L13" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.455" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.5" torque="0.931"/&gt;</v>
       </c>
       <c r="M13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1123.7629629629628</v>
+        <v>977.77777777777771</v>
       </c>
       <c r="N13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>1173</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="O13" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1306.6694951664876</v>
+        <v>1072.4929856811145</v>
       </c>
       <c r="P13" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2038.1525735294115</v>
+        <v>1755.5147058823527</v>
       </c>
       <c r="Q13" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1067.5748148148148</v>
+        <v>928.8888888888888</v>
       </c>
       <c r="S13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1114.3499999999999</v>
+        <v>972.43055555555554</v>
       </c>
       <c r="T13" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1265.5700429645542</v>
+        <v>1011.6499371130031</v>
       </c>
       <c r="U13" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1170.7527573529424</v>
+        <v>1579.9632352941176</v>
       </c>
       <c r="V13" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8320,81 +8320,81 @@
       </c>
       <c r="B14" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>998.55555555555566</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="G14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>998.55555555555566</v>
       </c>
       <c r="H14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>183.74952879581153</v>
+        <v>164.65573007562537</v>
       </c>
       <c r="I14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>174.56205235602093</v>
+        <v>156.42294357184412</v>
       </c>
       <c r="J14" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>209.06426592797783</v>
+        <v>209.3</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="209.1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1051" motorTorqueEco="999" fuelUsageRatio="209.3"/&gt;</v>
       </c>
       <c r="L14" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.5" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.55" torque="0.956"/&gt;</v>
       </c>
       <c r="M14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1081.6218518518517</v>
+        <v>941.11111111111109</v>
       </c>
       <c r="N14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>1137.81</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="O14" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1295.2325330132053</v>
+        <v>1100</v>
       </c>
       <c r="P14" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1825.7352941176468</v>
+        <v>1595.922459893048</v>
       </c>
       <c r="Q14" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>1027.5407592592592</v>
+        <v>894.05555555555554</v>
       </c>
       <c r="S14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1080.9195</v>
+        <v>998.55555555555566</v>
       </c>
       <c r="T14" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1252.6314296627743</v>
+        <v>1045</v>
       </c>
       <c r="U14" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1173.0900583373852</v>
+        <v>1436.3302139037432</v>
       </c>
       <c r="V14" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8403,81 +8403,81 @@
       </c>
       <c r="B15" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1072.5</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>1018.875</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1072.5</v>
       </c>
       <c r="G15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>1018.875</v>
       </c>
       <c r="H15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>200.4540314136126</v>
+        <v>183.27958115183247</v>
       </c>
       <c r="I15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>190.43132984293194</v>
+        <v>174.11560209424087</v>
       </c>
       <c r="J15" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207.40775623268698</v>
+        <v>207.57499999999999</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207.4"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1073" motorTorqueEco="1019" fuelUsageRatio="207.6"/&gt;</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.545" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.6" torque="0.975"/&gt;</v>
       </c>
       <c r="M15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>1011.3866666666667</v>
+        <v>880.00000000000011</v>
       </c>
       <c r="N15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>1032.2399999999998</v>
+        <v>1072.5</v>
       </c>
       <c r="O15" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1278.0770897832817</v>
+        <v>1116.5042085913312</v>
       </c>
       <c r="P15" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1651.6467524509803</v>
+        <v>1462.9289215686274</v>
       </c>
       <c r="Q15" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>960.81733333333341</v>
+        <v>836.00000000000011</v>
       </c>
       <c r="S15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>980.62799999999982</v>
+        <v>1018.875</v>
       </c>
       <c r="T15" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1233.2235097101041</v>
+        <v>1065.010037732198</v>
       </c>
       <c r="U15" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1163.3077790775405</v>
+        <v>1316.6360294117646</v>
       </c>
       <c r="V15" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8486,81 +8486,81 @@
       </c>
       <c r="B16" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>1033.3888888888889</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="G16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>1033.3888888888889</v>
       </c>
       <c r="H16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>217.15853403141364</v>
+        <v>201.38126817917399</v>
       </c>
       <c r="I16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>206.30060732984293</v>
+        <v>191.31220477021526</v>
       </c>
       <c r="J16" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207.01368233194526</v>
+        <v>207</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1088" motorTorqueEco="1033" fuelUsageRatio="207"/&gt;</v>
       </c>
       <c r="L16" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.591" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.65" torque="0.989"/&gt;</v>
       </c>
       <c r="M16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>913.05740740740737</v>
+        <v>794.44444444444446</v>
       </c>
       <c r="N16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>856.28999999999974</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="O16" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1255.203165476717</v>
+        <v>1122.0056114551082</v>
       </c>
       <c r="P16" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1507.0418552036199</v>
+        <v>1350.3959276018097</v>
       </c>
       <c r="Q16" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>867.40453703703702</v>
+        <v>754.72222222222229</v>
       </c>
       <c r="S16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>813.47549999999967</v>
+        <v>1033.3888888888889</v>
       </c>
       <c r="T16" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1207.3462831065438</v>
+        <v>1071.6800503095974</v>
       </c>
       <c r="U16" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1144.2027457836284</v>
+        <v>1215.356334841629</v>
       </c>
       <c r="V16" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -8569,81 +8569,81 @@
       </c>
       <c r="B17" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>1042.0972222222222</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="G17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>1042.0972222222222</v>
       </c>
       <c r="H17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>233.86303664921471</v>
+        <v>218.699709133217</v>
       </c>
       <c r="I17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>222.16988481675392</v>
+        <v>207.76472367655614</v>
       </c>
       <c r="J17" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207.49256395002973</v>
+        <v>207.63888888888889</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="207.5"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1097" motorTorqueEco="1042" fuelUsageRatio="207.6"/&gt;</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.636" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.7" torque="0.997"/&gt;</v>
       </c>
       <c r="M17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>786.63407407407396</v>
+        <v>684.44444444444446</v>
       </c>
       <c r="N17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>609.95999999999947</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="O17" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1226.6107600935113</v>
+        <v>1116.5042085913312</v>
       </c>
       <c r="P17" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1385.6026785714284</v>
+        <v>1253.9390756302521</v>
       </c>
       <c r="Q17" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>747.30237037037034</v>
+        <v>650.22222222222217</v>
       </c>
       <c r="S17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>579.46199999999953</v>
+        <v>1042.0972222222222</v>
       </c>
       <c r="T17" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1174.9997498520936</v>
+        <v>1065.010037732198</v>
       </c>
       <c r="U17" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1117.7726914629488</v>
+        <v>1128.5451680672268</v>
       </c>
       <c r="V17" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -8652,81 +8652,81 @@
       </c>
       <c r="B18" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1173</v>
+        <v>1100</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1114.3499999999999</v>
+        <v>1045</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1173</v>
+        <v>1100</v>
       </c>
       <c r="G18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1114.3499999999999</v>
+        <v>1045</v>
       </c>
       <c r="H18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>250.56753926701575</v>
+        <v>234.97382198952886</v>
       </c>
       <c r="I18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>238.03916230366491</v>
+        <v>223.22513089005241</v>
       </c>
       <c r="J18" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>208.65556216537775</v>
+        <v>209.55555555555554</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1173" motorTorqueEco="1114" fuelUsageRatio="208.7"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1100" motorTorqueEco="1045" fuelUsageRatio="209.6"/&gt;</v>
       </c>
       <c r="L18" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.682" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.75" torque="1"/&gt;</v>
       </c>
       <c r="M18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>632.11666666666656</v>
+        <v>549.99999999999989</v>
       </c>
       <c r="N18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>293.2499999999992</v>
+        <v>1100</v>
       </c>
       <c r="O18" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1192.2998736336638</v>
+        <v>1100</v>
       </c>
       <c r="P18" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1282.6960784313726</v>
+        <v>1170.3431372549019</v>
       </c>
       <c r="Q18" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>600.51083333333327</v>
+        <v>522.49999999999989</v>
       </c>
       <c r="S18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>278.58749999999924</v>
+        <v>1045</v>
       </c>
       <c r="T18" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1136.1839099467538</v>
+        <v>1045</v>
       </c>
       <c r="U18" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1085.4826203208556</v>
+        <v>1053.3088235294117</v>
       </c>
       <c r="V18" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -8735,81 +8735,81 @@
       </c>
       <c r="B19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1152.2705060971757</v>
+        <v>1072.4929856811145</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1088.0201370320856</v>
+        <v>987.47702205882354</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1152.2705060971757</v>
+        <v>1072.4929856811145</v>
       </c>
       <c r="G19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1088.0201370320856</v>
+        <v>987.47702205882354</v>
       </c>
       <c r="H19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>262.54875615366012</v>
+        <v>244.37117663268117</v>
       </c>
       <c r="I19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>247.90909090909093</v>
+        <v>225</v>
       </c>
       <c r="J19" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>210.5026769779893</v>
+        <v>212.75</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1152" motorTorqueEco="1088" fuelUsageRatio="210.5"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1072" motorTorqueEco="987" fuelUsageRatio="212.8"/&gt;</v>
       </c>
       <c r="L19" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.727" torque="0.982"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.8" torque="0.975"/&gt;</v>
       </c>
       <c r="M19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>449.50518518518538</v>
+        <v>391.11111111111131</v>
       </c>
       <c r="N19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="O19" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1152.2705060971757</v>
+        <v>1072.4929856811145</v>
       </c>
       <c r="P19" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1194.8471966911764</v>
+        <v>1097.1966911764705</v>
       </c>
       <c r="Q19" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>427.02992592592614</v>
+        <v>371.55555555555577</v>
       </c>
       <c r="S19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>1042.0972222222222</v>
       </c>
       <c r="T19" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1088.0201370320856</v>
+        <v>987.47702205882354</v>
       </c>
       <c r="U19" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1048.4312855113637</v>
+        <v>987.47702205882354</v>
       </c>
       <c r="V19" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -8818,81 +8818,81 @@
       </c>
       <c r="B20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1106.5226574840462</v>
+        <v>1032.6557093425604</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1024.0189525007863</v>
+        <v>929.39013840830444</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1106.5226574840462</v>
+        <v>1032.6557093425604</v>
       </c>
       <c r="G20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1024.0189525007863</v>
+        <v>929.39013840830444</v>
       </c>
       <c r="H20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>267.88276273331041</v>
+        <v>249.99999999999994</v>
       </c>
       <c r="I20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>247.90909090909088</v>
+        <v>225</v>
       </c>
       <c r="J20" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>213.03390838786436</v>
+        <v>217.22222222222223</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1107" motorTorqueEco="1024" fuelUsageRatio="213"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1033" motorTorqueEco="929" fuelUsageRatio="217.2"/&gt;</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.773" torque="0.943"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.85" torque="0.939"/&gt;</v>
       </c>
       <c r="M20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>238.79962962962966</v>
+        <v>207.77777777777783</v>
       </c>
       <c r="N20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="O20" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1106.5226574840462</v>
+        <v>1032.6557093425604</v>
       </c>
       <c r="P20" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1119.3987889273355</v>
+        <v>1032.6557093425604</v>
       </c>
       <c r="Q20" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>226.85964814814818</v>
+        <v>197.38888888888894</v>
       </c>
       <c r="S20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>1033.3888888888889</v>
       </c>
       <c r="T20" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1024.0189525007863</v>
+        <v>929.39013840830444</v>
       </c>
       <c r="U20" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1007.4589100346021</v>
+        <v>929.39013840830444</v>
       </c>
       <c r="V20" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -8901,41 +8901,41 @@
       </c>
       <c r="B21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>1053.3088235294117</v>
+        <v>975.28594771241819</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>967.12901069518705</v>
+        <v>877.75735294117646</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>1053.3088235294117</v>
+        <v>975.28594771241819</v>
       </c>
       <c r="G21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>967.12901069518705</v>
+        <v>877.75735294117646</v>
       </c>
       <c r="H21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>270</v>
+        <v>249.99999999999994</v>
       </c>
       <c r="I21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>247.90909090909088</v>
+        <v>225</v>
       </c>
       <c r="J21" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>216.24925639500299</v>
+        <v>222.97222222222223</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="1053" motorTorqueEco="967" fuelUsageRatio="216.2"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="975" motorTorqueEco="878" fuelUsageRatio="223"/&gt;</v>
       </c>
       <c r="L21" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.818" torque="0.898"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.9" torque="0.887"/&gt;</v>
       </c>
       <c r="M21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8943,19 +8943,19 @@
       </c>
       <c r="N21" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>1072.5</v>
       </c>
       <c r="O21" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1053.3088235294117</v>
+        <v>975.28594771241819</v>
       </c>
       <c r="P21" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1054.284109477124</v>
+        <v>975.28594771241819</v>
       </c>
       <c r="Q21" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -8963,19 +8963,19 @@
       </c>
       <c r="S21" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>1018.875</v>
       </c>
       <c r="T21" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>967.12901069518705</v>
+        <v>877.75735294117646</v>
       </c>
       <c r="U21" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>963.2190006684491</v>
+        <v>877.75735294117646</v>
       </c>
       <c r="V21" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -8984,81 +8984,81 @@
       </c>
       <c r="B22" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>997.87151702786366</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>916.22748381649308</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>997.87151702786366</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="G22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>916.22748381649308</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="H22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>269.99999999999994</v>
+        <v>250</v>
       </c>
       <c r="I22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>247.90909090909088</v>
+        <v>225</v>
       </c>
       <c r="J22" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>220.14872099940513</v>
+        <v>230</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="998" motorTorqueEco="916" fuelUsageRatio="220.1"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="924" motorTorqueEco="832" fuelUsageRatio="230"/&gt;</v>
       </c>
       <c r="L22" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.864" torque="0.851"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.95" torque="0.84"/&gt;</v>
       </c>
       <c r="M22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-266.89370370370386</v>
+        <v>-232.22222222222237</v>
       </c>
       <c r="N22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="O22" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>997.87151702786366</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="P22" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>997.87151702786366</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="Q22" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="R22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-253.54901851851866</v>
+        <v>-220.61111111111126</v>
       </c>
       <c r="S22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>998.55555555555566</v>
       </c>
       <c r="T22" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>916.22748381649308</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="U22" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>916.22748381649308</v>
+        <v>831.55959752321974</v>
       </c>
       <c r="V22" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>831.55959752321974</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -9067,81 +9067,81 @@
       </c>
       <c r="B23" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>948.85569852941171</v>
+        <v>796.06627888149092</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>866.89710060160417</v>
+        <v>716.45965099334182</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>948.85569852941171</v>
+        <v>796.06627888149092</v>
       </c>
       <c r="G23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>866.89710060160417</v>
+        <v>716.45965099334182</v>
       </c>
       <c r="H23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>270.25</v>
+        <v>226.7330134615346</v>
       </c>
       <c r="I23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>246.90681818181815</v>
+        <v>204.05971211538113</v>
       </c>
       <c r="J23" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>224.73230220107078</v>
+        <v>244.75450687929043</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="949" motorTorqueEco="867" fuelUsageRatio="224.7"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="796" motorTorqueEco="716" fuelUsageRatio="244.8"/&gt;</v>
       </c>
       <c r="L23" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.909" torque="0.809"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="1" torque="0.724"/&gt;</v>
       </c>
       <c r="M23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-561.88148148148173</v>
+        <v>-488.88888888888908</v>
       </c>
       <c r="N23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="O23" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>934.96822518481054</v>
+        <v>852.4368711300308</v>
       </c>
       <c r="P23" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>948.85569852941171</v>
+        <v>877.75735294117635</v>
       </c>
       <c r="Q23" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>796.06627888149092</v>
       </c>
       <c r="R23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-533.78740740740761</v>
+        <v>-464.44444444444463</v>
       </c>
       <c r="S23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>972.43055555555554</v>
       </c>
       <c r="T23" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>845.06511065670281</v>
+        <v>744.84943401702776</v>
       </c>
       <c r="U23" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>866.89710060160417</v>
+        <v>789.98161764705878</v>
       </c>
       <c r="V23" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>716.45965099334182</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -9150,81 +9150,81 @@
       </c>
       <c r="B24" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>906.17997198879539</v>
+        <v>478.62033819495952</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>815.56197478991601</v>
+        <v>430.75830437546352</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>906.17997198879539</v>
+        <v>478.62033819495952</v>
       </c>
       <c r="G24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>815.56197478991601</v>
+        <v>430.75830437546352</v>
       </c>
       <c r="H24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>270.99999999999994</v>
+        <v>143.13504564238789</v>
       </c>
       <c r="I24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>243.9</v>
+        <v>128.8215410781491</v>
       </c>
       <c r="J24" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>230</v>
+        <v>313.46409493927865</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="906" motorTorqueEco="816" fuelUsageRatio="230"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="479" motorTorqueEco="431" fuelUsageRatio="313.5"/&gt;</v>
       </c>
       <c r="L24" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.955" torque="0.773"/&gt;</v>
+        <v/>
       </c>
       <c r="M24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-884.96333333333371</v>
+        <v>-770.00000000000034</v>
       </c>
       <c r="N24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="O24" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>866.34645226511634</v>
+        <v>769.91582817337451</v>
       </c>
       <c r="P24" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>906.17997198879539</v>
+        <v>835.95938375350136</v>
       </c>
       <c r="Q24" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>906.17997198879539</v>
+        <v>478.62033819495952</v>
       </c>
       <c r="R24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-840.71516666666707</v>
+        <v>-731.50000000000034</v>
       </c>
       <c r="S24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>940.5</v>
       </c>
       <c r="T24" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>767.43343084602259</v>
+        <v>644.79924535603709</v>
       </c>
       <c r="U24" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>815.56197478991601</v>
+        <v>752.36344537815125</v>
       </c>
       <c r="V24" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>815.56197478991601</v>
+        <v>430.75830437546352</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -9233,81 +9233,81 @@
       </c>
       <c r="B25" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>825.35460243878128</v>
+        <v>0</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>742.81914219490329</v>
+        <v>0</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>825.35460243878128</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>742.81914219490329</v>
+        <v>0</v>
       </c>
       <c r="H25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>258.58230057558467</v>
+        <v>0</v>
       </c>
       <c r="I25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>232.72407051802622</v>
+        <v>0</v>
       </c>
       <c r="J25" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>244.75450687929043</v>
+        <v>460</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="825" motorTorqueEco="743" fuelUsageRatio="244.8"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="460"/&gt;</v>
       </c>
       <c r="L25" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="1" torque="0.704"/&gt;</v>
+        <v/>
       </c>
       <c r="M25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-1236.1392592592597</v>
+        <v>-1075.5555555555559</v>
       </c>
       <c r="N25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>950.27777777777783</v>
       </c>
       <c r="O25" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>792.00619826878096</v>
+        <v>676.39197948916399</v>
       </c>
       <c r="P25" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>868.97977941176464</v>
+        <v>797.96122994652399</v>
       </c>
       <c r="Q25" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>825.35460243878128</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1174.3322962962966</v>
+        <v>-1021.7777777777782</v>
       </c>
       <c r="S25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>902.76388888888891</v>
       </c>
       <c r="T25" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>683.33244438445251</v>
+        <v>531.40903154024738</v>
       </c>
       <c r="U25" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>762.49548037190084</v>
+        <v>718.16510695187162</v>
       </c>
       <c r="V25" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>742.81914219490329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -9316,37 +9316,37 @@
       </c>
       <c r="B26" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>534.80409581228059</v>
+        <v>0</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="3">
         <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>481.32368623105259</v>
+        <v>0</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>534.80409581228059</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>481.32368623105259</v>
+        <v>0</v>
       </c>
       <c r="H26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>175.16934153935222</v>
+        <v>0</v>
       </c>
       <c r="I26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>157.65240738541704</v>
+        <v>0</v>
       </c>
       <c r="J26" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>313.46409493927865</v>
+        <v>460</v>
       </c>
       <c r="K26" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="535" motorTorqueEco="481" fuelUsageRatio="313.5"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v/>
       </c>
       <c r="L26" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
@@ -9354,43 +9354,43 @@
       </c>
       <c r="M26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-1615.4092592592583</v>
+        <v>-1405.5555555555547</v>
       </c>
       <c r="N26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>904.44444444444457</v>
       </c>
       <c r="O26" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>711.94746319580429</v>
+        <v>571.86532507739912</v>
       </c>
       <c r="P26" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>836.54092071611251</v>
+        <v>763.26726342710992</v>
       </c>
       <c r="Q26" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>534.80409581228059</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1534.6387962962954</v>
+        <v>-1335.2777777777769</v>
       </c>
       <c r="S26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>859.22222222222229</v>
       </c>
       <c r="T26" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>592.76215127199214</v>
+        <v>404.67879256965921</v>
       </c>
       <c r="U26" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>707.92344803534058</v>
+        <v>686.9405370843989</v>
       </c>
       <c r="V26" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>481.32368623105259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -9428,8 +9428,8 @@
         <v>460</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="460"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v/>
       </c>
       <c r="L27" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
@@ -9437,19 +9437,19 @@
       </c>
       <c r="M27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-2022.7733333333326</v>
+        <v>-1759.9999999999995</v>
       </c>
       <c r="N27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>852.5</v>
       </c>
       <c r="O27" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>626.17024704618655</v>
+        <v>456.33586493808031</v>
       </c>
       <c r="P27" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>808.26822916666652</v>
+        <v>731.4644607843137</v>
       </c>
       <c r="Q27" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9457,19 +9457,19 @@
       </c>
       <c r="R27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1921.6346666666661</v>
+        <v>-1671.9999999999995</v>
       </c>
       <c r="S27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>809.875</v>
       </c>
       <c r="T27" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>495.72255150864191</v>
+        <v>264.60852844427217</v>
       </c>
       <c r="U27" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>652.03407002005349</v>
+        <v>658.31801470588232</v>
       </c>
       <c r="V27" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9511,7 +9511,7 @@
         <v>460</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L28" s="10" t="str">
@@ -9520,19 +9520,19 @@
       </c>
       <c r="M28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-2458.2314814814813</v>
+        <v>-2138.8888888888887</v>
       </c>
       <c r="N28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>794.44444444444457</v>
       </c>
       <c r="O28" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>534.67454981992751</v>
+        <v>329.80359907120709</v>
       </c>
       <c r="P28" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>783.66176470588232</v>
+        <v>702.2058823529411</v>
       </c>
       <c r="Q28" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9540,19 +9540,19 @@
       </c>
       <c r="R28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-2335.3199074074073</v>
+        <v>-2031.9444444444443</v>
       </c>
       <c r="S28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>754.72222222222229</v>
       </c>
       <c r="T28" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>392.21364509440167</v>
+        <v>111.19823916408642</v>
       </c>
       <c r="U28" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>594.98542780748676</v>
+        <v>631.98529411764707</v>
       </c>
       <c r="V28" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9594,7 +9594,7 @@
         <v>460</v>
       </c>
       <c r="K29" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L29" s="10" t="str">
@@ -9603,19 +9603,19 @@
       </c>
       <c r="M29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-3669.7884259259245</v>
+        <v>-3193.0555555555547</v>
       </c>
       <c r="N29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>622.56944444444457</v>
       </c>
       <c r="O29" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>280.91695204397502</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>735.56066176470586</v>
+        <v>638.36898395721914</v>
       </c>
       <c r="Q29" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9623,19 +9623,19 @@
       </c>
       <c r="R29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-3486.2990046296286</v>
+        <v>-3033.4027777777769</v>
       </c>
       <c r="S29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>591.44097222222229</v>
       </c>
       <c r="T29" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>105.13816246115711</v>
+        <v>0</v>
       </c>
       <c r="U29" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>448.12196919056908</v>
+        <v>574.5320855614973</v>
       </c>
       <c r="V29" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9677,7 +9677,7 @@
         <v>460</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L30" s="10" t="str">
@@ -9686,11 +9686,11 @@
       </c>
       <c r="M30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-5056.9333333333343</v>
+        <v>-4400.0000000000009</v>
       </c>
       <c r="N30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>412.50000000000011</v>
       </c>
       <c r="O30" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="P30" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>702.7910539215685</v>
+        <v>585.17156862745094</v>
       </c>
       <c r="Q30" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9706,11 +9706,11 @@
       </c>
       <c r="R30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-4804.086666666668</v>
+        <v>-4180.0000000000009</v>
       </c>
       <c r="S30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>391.87500000000011</v>
       </c>
       <c r="T30" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="U30" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>296.41067847593644</v>
+        <v>526.65441176470586</v>
       </c>
       <c r="V30" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9760,7 +9760,7 @@
         <v>460</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L31" s="10" t="str">
@@ -9769,11 +9769,11 @@
       </c>
       <c r="M31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-6619.6662037037031</v>
+        <v>-5759.7222222222217</v>
       </c>
       <c r="N31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>0</v>
+        <v>164.23611111111137</v>
       </c>
       <c r="O31" s="3">
         <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
@@ -9781,7 +9781,7 @@
       </c>
       <c r="P31" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>681.8149038461537</v>
+        <v>540.15837104072398</v>
       </c>
       <c r="Q31" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9789,11 +9789,11 @@
       </c>
       <c r="R31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-6288.6828935185185</v>
+        <v>-5471.7361111111113</v>
       </c>
       <c r="S31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>0</v>
+        <v>156.02430555555583</v>
       </c>
       <c r="T31" s="3">
         <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="U31" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>140.97028614767666</v>
+        <v>486.14253393665155</v>
       </c>
       <c r="V31" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9843,7 +9843,7 @@
         <v>460</v>
       </c>
       <c r="K32" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L32" s="10" t="str">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="M32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-8357.9870370370372</v>
+        <v>-7272.2222222222217</v>
       </c>
       <c r="N32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="P32" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>670.10504201680658</v>
+        <v>501.57563025210078</v>
       </c>
       <c r="Q32" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="R32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-7940.0876851851845</v>
+        <v>-6908.6111111111113</v>
       </c>
       <c r="S32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="U32" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>451.41806722689074</v>
       </c>
       <c r="V32" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9926,7 +9926,7 @@
         <v>460</v>
       </c>
       <c r="K33" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L33" s="10" t="str">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="M33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-10271.895833333336</v>
+        <v>-8937.5000000000018</v>
       </c>
       <c r="N33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="P33" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>665.80821078431359</v>
+        <v>468.13725490196072</v>
       </c>
       <c r="Q33" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="R33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-9758.3010416666693</v>
+        <v>-8490.6250000000018</v>
       </c>
       <c r="S33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="U33" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>421.3235294117647</v>
       </c>
       <c r="V33" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10009,7 +10009,7 @@
         <v>460</v>
       </c>
       <c r="K34" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L34" s="10" t="str">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="M34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-12361.392592592594</v>
+        <v>-10755.555555555558</v>
       </c>
       <c r="N34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10030,7 +10030,7 @@
       </c>
       <c r="P34" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>667.53446691176464</v>
+        <v>438.87867647058818</v>
       </c>
       <c r="Q34" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10038,7 +10038,7 @@
       </c>
       <c r="R34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-11743.322962962964</v>
+        <v>-10217.777777777779</v>
       </c>
       <c r="S34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10050,7 +10050,7 @@
       </c>
       <c r="U34" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>394.99080882352939</v>
       </c>
       <c r="V34" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10092,7 +10092,7 @@
         <v>460</v>
       </c>
       <c r="K35" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L35" s="10" t="str">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="M35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-14626.477314814814</v>
+        <v>-12726.388888888889</v>
       </c>
       <c r="N35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="P35" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>674.22091262975778</v>
+        <v>413.06228373702419</v>
       </c>
       <c r="Q35" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="R35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-13895.153449074074</v>
+        <v>-12090.069444444445</v>
       </c>
       <c r="S35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10133,7 +10133,7 @@
       </c>
       <c r="U35" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>371.75605536332176</v>
       </c>
       <c r="V35" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10175,7 +10175,7 @@
         <v>460</v>
       </c>
       <c r="K36" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L36" s="10" t="str">
@@ -10184,7 +10184,7 @@
       </c>
       <c r="M36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-17067.149999999998</v>
+        <v>-14850</v>
       </c>
       <c r="N36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="P36" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>685.04084967320262</v>
+        <v>390.11437908496731</v>
       </c>
       <c r="Q36" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="R36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-16213.7925</v>
+        <v>-14107.5</v>
       </c>
       <c r="S36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="U36" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>351.10294117647055</v>
       </c>
       <c r="V36" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10258,7 +10258,7 @@
         <v>460</v>
       </c>
       <c r="K37" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L37" s="10" t="str">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="M37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-19683.410648148147</v>
+        <v>-17126.388888888891</v>
       </c>
       <c r="N37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="P37" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>699.34162151702787</v>
+        <v>369.5820433436532</v>
       </c>
       <c r="Q37" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="R37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-18699.24011574074</v>
+        <v>-16270.069444444445</v>
       </c>
       <c r="S37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="U37" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>332.62383900928791</v>
       </c>
       <c r="V37" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10341,7 +10341,7 @@
         <v>460</v>
       </c>
       <c r="K38" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L38" s="10" t="str">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="M38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-22475.259259259255</v>
+        <v>-19555.555555555555</v>
       </c>
       <c r="N38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10362,7 +10362,7 @@
       </c>
       <c r="P38" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>716.60110294117635</v>
+        <v>351.10294117647055</v>
       </c>
       <c r="Q38" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="R38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-21351.496296296296</v>
+        <v>-18577.777777777777</v>
       </c>
       <c r="S38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="U38" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>315.99264705882354</v>
       </c>
       <c r="V38" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10424,7 +10424,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L39" s="10" t="str">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="M39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-25442.695833333328</v>
+        <v>-22137.499999999996</v>
       </c>
       <c r="N39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="P39" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>736.3966211484593</v>
+        <v>334.38375350140052</v>
       </c>
       <c r="Q39" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10453,7 +10453,7 @@
       </c>
       <c r="R39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-24170.56104166666</v>
+        <v>-21030.624999999996</v>
       </c>
       <c r="S39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="U39" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>300.94537815126051</v>
       </c>
       <c r="V39" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10507,7 +10507,7 @@
         <v>460</v>
       </c>
       <c r="K40" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L40" s="10" t="str">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="M40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-28585.720370370364</v>
+        <v>-24872.222222222219</v>
       </c>
       <c r="N40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="P40" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>758.38235294117646</v>
+        <v>319.18449197860957</v>
       </c>
       <c r="Q40" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="R40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-27156.434351851847</v>
+        <v>-23628.611111111106</v>
       </c>
       <c r="S40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="U40" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>287.26604278074865</v>
       </c>
       <c r="V40" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10590,7 +10590,7 @@
         <v>460</v>
       </c>
       <c r="K41" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L41" s="10" t="str">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="M41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-31904.332870370374</v>
+        <v>-27759.722222222226</v>
       </c>
       <c r="N41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10611,7 +10611,7 @@
       </c>
       <c r="P41" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>782.27261828644498</v>
+        <v>305.30690537084394</v>
       </c>
       <c r="Q41" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="R41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-30309.116226851856</v>
+        <v>-26371.736111111113</v>
       </c>
       <c r="S41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="U41" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>274.77621483375958</v>
       </c>
       <c r="V41" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10673,7 +10673,7 @@
         <v>460</v>
       </c>
       <c r="K42" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L42" s="10" t="str">
@@ -10682,7 +10682,7 @@
       </c>
       <c r="M42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>-35398.533333333333</v>
+        <v>-30800.000000000004</v>
       </c>
       <c r="N42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
@@ -10694,7 +10694,7 @@
       </c>
       <c r="P42" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>807.82935049019602</v>
+        <v>292.58578431372547</v>
       </c>
       <c r="Q42" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10702,7 +10702,7 @@
       </c>
       <c r="R42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-33628.606666666667</v>
+        <v>-29260.000000000004</v>
       </c>
       <c r="S42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="U42" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>0</v>
+        <v>263.32720588235293</v>
       </c>
       <c r="V42" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23190" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="24645" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -551,6 +551,39 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1369,33 +1402,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1441,9 +1447,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1456,9 +1459,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1722,16 +1722,16 @@
                   <c:v>923.95510835913308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>796.06627888149092</c:v>
+                  <c:v>868.97977941176464</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>478.62033819495952</c:v>
+                  <c:v>802.52100840336129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>636.71088270018754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>139.28050559066608</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1951,61 +1951,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228.3518518518519</c:v>
+                  <c:v>240.37037037037044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>669.57407407407413</c:v>
+                  <c:v>704.81481481481478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>866.96296296296305</c:v>
+                  <c:v>912.59259259259272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>905.66666666666674</c:v>
+                  <c:v>953.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>940.5</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>972.43055555555554</c:v>
+                  <c:v>1023.6111111111111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>998.55555555555566</c:v>
+                  <c:v>1051.1111111111111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1018.875</c:v>
+                  <c:v>1072.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1033.3888888888889</c:v>
+                  <c:v>1087.7777777777778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1042.0972222222222</c:v>
+                  <c:v>1096.9444444444443</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1045</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>987.47702205882354</c:v>
+                  <c:v>1072.4929856811145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>929.39013840830444</c:v>
+                  <c:v>1032.6557093425604</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>877.75735294117646</c:v>
+                  <c:v>975.28594771241819</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>831.55959752321974</c:v>
+                  <c:v>923.95510835913308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>716.45965099334182</c:v>
+                  <c:v>868.97977941176464</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>430.75830437546352</c:v>
+                  <c:v>802.52100840336129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>636.71088270018754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>139.28050559066608</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2068,8 +2068,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374297712"/>
-        <c:axId val="374295752"/>
+        <c:axId val="324524728"/>
+        <c:axId val="357168752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2284,16 +2284,16 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>226.7330134615346</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>143.13504564238789</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>199.48051948051949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>45.619834710743824</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
@@ -2513,61 +2513,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2519216598797756</c:v>
+                  <c:v>3.4230754314523959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.141182858250929</c:v>
+                  <c:v>40.148613535000962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.423951910025224</c:v>
+                  <c:v>90.972580957921295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.17961605584642</c:v>
+                  <c:v>108.61012216404887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.54157068062827</c:v>
+                  <c:v>126.88586387434555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138.48225712623619</c:v>
+                  <c:v>145.77079697498544</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.42294357184412</c:v>
+                  <c:v>164.65573007562537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.11560209424087</c:v>
+                  <c:v>183.27958115183247</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>191.31220477021526</c:v>
+                  <c:v>201.38126817917399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.76472367655614</c:v>
+                  <c:v>218.699709133217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>223.22513089005241</c:v>
+                  <c:v>234.97382198952886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225</c:v>
+                  <c:v>244.37117663268117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225</c:v>
+                  <c:v>249.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225</c:v>
+                  <c:v>249.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>225</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>204.05971211538113</c:v>
+                  <c:v>247.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>128.8215410781491</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>199.48051948051949</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>45.619834710743824</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
                   <c:v>0</c:v>
@@ -2630,11 +2630,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374298104"/>
-        <c:axId val="374300064"/>
+        <c:axId val="276489232"/>
+        <c:axId val="357169136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374297712"/>
+        <c:axId val="324524728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -2738,13 +2738,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374295752"/>
+        <c:crossAx val="357168752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374295752"/>
+        <c:axId val="357168752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,12 +2846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374297712"/>
+        <c:crossAx val="324524728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374300064"/>
+        <c:axId val="357169136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,12 +2894,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374298104"/>
+        <c:crossAx val="276489232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374298104"/>
+        <c:axId val="276489232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="374300064"/>
+        <c:crossAx val="357169136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3197,64 +3197,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>304.1749999999999</c:v>
+                  <c:v>283.04374999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>289.7999999999999</c:v>
+                  <c:v>272.4222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>253.57499999999993</c:v>
+                  <c:v>245.3493055555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.7</c:v>
+                  <c:v>225.46388888888887</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>221.37499999999997</c:v>
+                  <c:v>220.43263888888887</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>216.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.17499999999998</c:v>
+                  <c:v>212.76597222222222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209.3</c:v>
+                  <c:v>210.13055555555556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207.57499999999999</c:v>
+                  <c:v>208.29374999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207</c:v>
+                  <c:v>207.25555555555556</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>207.01774691358025</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>207.63888888888889</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>209.55555555555554</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>212.75</c:v>
+                  <c:v>209.14737654320987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>217.22222222222223</c:v>
+                  <c:v>211.54320987654322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>222.97222222222223</c:v>
+                  <c:v>214.82638888888889</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>218.99691358024691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>224.05478395061729</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>244.75450687929043</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>313.46409493927865</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>460</c:v>
+                  <c:v>262.03842321622847</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>460</c:v>
+                  <c:v>411.23669051775721</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>460</c:v>
@@ -3317,11 +3317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374296144"/>
-        <c:axId val="374300456"/>
+        <c:axId val="276490800"/>
+        <c:axId val="276490016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374296144"/>
+        <c:axId val="276490800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -3425,13 +3425,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374300456"/>
+        <c:crossAx val="276490016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374300456"/>
+        <c:axId val="276490016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -3529,7 +3529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374296144"/>
+        <c:crossAx val="276490800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3845,11 +3845,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374300848"/>
-        <c:axId val="374296928"/>
+        <c:axId val="276490408"/>
+        <c:axId val="276491192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374300848"/>
+        <c:axId val="276490408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -3908,12 +3908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374296928"/>
+        <c:crossAx val="276491192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374296928"/>
+        <c:axId val="276491192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +3970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374300848"/>
+        <c:crossAx val="276490408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4231,11 +4231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="374231496"/>
-        <c:axId val="374237376"/>
+        <c:axId val="324870288"/>
+        <c:axId val="324875384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="374231496"/>
+        <c:axId val="324870288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -4294,12 +4294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374237376"/>
+        <c:crossAx val="324875384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="374237376"/>
+        <c:axId val="324875384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="374231496"/>
+        <c:crossAx val="324870288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6770,89 +6770,65 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A6:V42">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
-    <filterColumn colId="19" hiddenButton="1"/>
-    <filterColumn colId="20" hiddenButton="1"/>
-    <filterColumn colId="21" hiddenButton="1"/>
-  </autoFilter>
   <tableColumns count="22">
     <tableColumn id="1" name="rpm" dataDxfId="70"/>
-    <tableColumn id="7" name="rawData" dataDxfId="69">
-      <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</calculatedColumnFormula>
+    <tableColumn id="7" name="rawData" dataDxfId="2">
+      <calculatedColumnFormula>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="manualData" dataDxfId="68"/>
-    <tableColumn id="12" name="rawDataEco" dataDxfId="67">
-      <calculatedColumnFormula>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</calculatedColumnFormula>
+    <tableColumn id="9" name="manualData" dataDxfId="69"/>
+    <tableColumn id="12" name="rawDataEco" dataDxfId="1">
+      <calculatedColumnFormula>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="manDataEco" dataDxfId="66"/>
-    <tableColumn id="4" name="motor" dataDxfId="65">
+    <tableColumn id="11" name="manDataEco" dataDxfId="68"/>
+    <tableColumn id="4" name="motor" dataDxfId="67">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="motorEco" dataDxfId="64">
+    <tableColumn id="14" name="motorEco" dataDxfId="66">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="63">
+    <tableColumn id="3" name="ps" dataDxfId="65">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="psEco" dataDxfId="62">
+    <tableColumn id="13" name="psEco" dataDxfId="64">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="61">
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="63">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="xml" dataDxfId="0">
-      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="60">
+    <tableColumn id="8" name="xml2" dataDxfId="62">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="t1" dataDxfId="59">
+    <tableColumn id="15" name="t1" dataDxfId="11">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="t2" dataDxfId="58">
+    <tableColumn id="18" name="t2" dataDxfId="9">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="t3" dataDxfId="57">
-      <calculatedColumnFormula>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</calculatedColumnFormula>
+    <tableColumn id="19" name="t3" dataDxfId="8">
+      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="t4" dataDxfId="56">
+    <tableColumn id="16" name="t4" dataDxfId="7">
       <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="t5" dataDxfId="55">
+    <tableColumn id="17" name="t5" dataDxfId="6">
       <calculatedColumnFormula>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="t1E" dataDxfId="54">
+    <tableColumn id="21" name="t1E" dataDxfId="5">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="t2E" dataDxfId="53">
+    <tableColumn id="22" name="t2E" dataDxfId="4">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="t3E" dataDxfId="52">
-      <calculatedColumnFormula>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</calculatedColumnFormula>
+    <tableColumn id="23" name="t3E" dataDxfId="3">
+      <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="t4E" dataDxfId="51">
+    <tableColumn id="24" name="t4E" dataDxfId="10">
       <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="t5E" dataDxfId="50">
+    <tableColumn id="25" name="t5E" dataDxfId="61">
       <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6861,7 +6837,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6886,45 +6862,45 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="10" name="maxPRpm" dataDxfId="48"/>
-    <tableColumn id="14" name="maxPS" dataDxfId="47"/>
-    <tableColumn id="19" name="maxPSEco" dataDxfId="46">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="59"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="58"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="57">
       <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="20" name="PSEco" dataDxfId="45">
-      <calculatedColumnFormula>Table36[PSEcoRate]*Table36[PS]</calculatedColumnFormula>
+    <tableColumn id="20" name="PSEco" dataDxfId="56">
+      <calculatedColumnFormula>Table36[PS]*Table36[PSEcoRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="maxTRpm1" dataDxfId="44"/>
-    <tableColumn id="4" name="maxTRpm" dataDxfId="43"/>
-    <tableColumn id="5" name="maxT" dataDxfId="42"/>
-    <tableColumn id="21" name="maxTEco" dataDxfId="41">
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="55"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="54"/>
+    <tableColumn id="5" name="maxT" dataDxfId="53"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="52">
       <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut" dataDxfId="40"/>
-    <tableColumn id="15" name="linearDown" dataDxfId="39"/>
-    <tableColumn id="25" name="fadeOutExp" dataDxfId="38"/>
-    <tableColumn id="22" name="Efficiency" dataDxfId="37"/>
-    <tableColumn id="16" name="Factor" dataDxfId="36"/>
-    <tableColumn id="13" name="fuelMinRate" dataDxfId="35"/>
-    <tableColumn id="18" name="fuelRatedRate" dataDxfId="34">
+    <tableColumn id="11" name="fadeOut" dataDxfId="51"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="50"/>
+    <tableColumn id="25" name="fadeOutExp" dataDxfId="49"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="48"/>
+    <tableColumn id="16" name="Factor" dataDxfId="47"/>
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="46"/>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="45">
       <calculatedColumnFormula>Table36[fuelMinRate]/0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="fuelMinRpm" dataDxfId="33">
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="44">
       <calculatedColumnFormula>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fuelIdleRate" dataDxfId="32">
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="43">
       <calculatedColumnFormula>0.94*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="normRpm" dataDxfId="31">
+    <tableColumn id="1" name="normRpm" dataDxfId="42">
       <calculatedColumnFormula>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="PSEcoRate" dataDxfId="30"/>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="41"/>
     <tableColumn id="23" name="NmEcoRate"/>
-    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="29">
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="40">
       <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6933,7 +6909,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A3:S4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6952,61 +6928,61 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="f1" dataDxfId="26">
+    <tableColumn id="1" name="f1" dataDxfId="37">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2" dataDxfId="25">
+    <tableColumn id="2" name="f2" dataDxfId="36">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3" dataDxfId="24">
+    <tableColumn id="5" name="f3" dataDxfId="35">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4" dataDxfId="23">
+    <tableColumn id="6" name="f4" dataDxfId="34">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm" dataDxfId="22">
+    <tableColumn id="3" name="Nm" dataDxfId="33">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2" dataDxfId="21">
+    <tableColumn id="4" name="Nm2" dataDxfId="32">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataDxfId="20" dataCellStyle="Percent">
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="31" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="AnstiegE" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="17" name="AnstiegE" dataDxfId="30" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anstieg" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="14" name="Anstieg" dataDxfId="29" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Abfall" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="15" name="Abfall" dataDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Nm1000" dataDxfId="16" dataCellStyle="Percent">
+    <tableColumn id="16" name="Nm1000" dataDxfId="27" dataCellStyle="Percent">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NmEco" dataDxfId="15">
+    <tableColumn id="8" name="NmEco" dataDxfId="26">
       <calculatedColumnFormula>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Nm2Eco" dataDxfId="14">
+    <tableColumn id="9" name="Nm2Eco" dataDxfId="25">
       <calculatedColumnFormula>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="f2Eco" dataDxfId="13">
+    <tableColumn id="12" name="f2Eco" dataDxfId="24">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f3Eco" dataDxfId="12">
+    <tableColumn id="10" name="f3Eco" dataDxfId="23">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f4Eco" dataDxfId="11">
+    <tableColumn id="11" name="f4Eco" dataDxfId="22">
       <calculatedColumnFormula>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="idleT" dataDxfId="10">
+    <tableColumn id="13" name="idleT" dataDxfId="21">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="idleTEco" dataDxfId="9">
+    <tableColumn id="19" name="idleTEco" dataDxfId="20">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="xmlComment" dataDxfId="8">
+    <tableColumn id="21" name="xmlComment" dataDxfId="19">
       <calculatedColumnFormula>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7023,17 +6999,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="7">
+    <tableColumn id="6" name="kw_pto" dataDxfId="18">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="6">
+    <tableColumn id="3" name="ps" dataDxfId="17">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="5">
+    <tableColumn id="5" name="xml" dataDxfId="16">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="4">
+    <tableColumn id="8" name="xml2" dataDxfId="15">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7067,16 +7043,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="3">
+    <tableColumn id="6" name="kw_pto" dataDxfId="14">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="2">
+    <tableColumn id="3" name="ps" dataDxfId="13">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="1">
+    <tableColumn id="5" name="xml" dataDxfId="12">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7350,17 +7326,17 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -7452,17 +7428,17 @@
       </c>
       <c r="C2" s="18">
         <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="D2" s="7">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E2" s="8">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F2" s="19">
-        <f>Table36[PSEcoRate]*Table36[PS]</f>
-        <v>225</v>
+        <f>Table36[PS]*Table36[PSEcoRate]</f>
+        <v>240</v>
       </c>
       <c r="G2" s="13">
         <v>1500</v>
@@ -7475,7 +7451,7 @@
       </c>
       <c r="J2" s="18">
         <f>Table36[NmEcoRate]*Table36[maxT]</f>
-        <v>1045</v>
+        <v>1100</v>
       </c>
       <c r="K2" s="7">
         <v>900</v>
@@ -7484,13 +7460,13 @@
         <v>0.9</v>
       </c>
       <c r="M2" s="9">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N2" s="13">
         <v>0.5</v>
       </c>
       <c r="O2" s="14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P2" s="14">
         <v>0.94</v>
@@ -7507,7 +7483,7 @@
       </c>
       <c r="T2" s="17">
         <f>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</f>
-        <v>1300</v>
+        <v>1380</v>
       </c>
       <c r="U2" s="19">
         <f>0.94*Table36[fuelRatedRate]</f>
@@ -7515,17 +7491,17 @@
       </c>
       <c r="V2" s="16">
         <f>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</f>
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="W2" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="X2" s="9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="29">
         <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -7602,7 +7578,7 @@
       </c>
       <c r="D4" s="12">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="E4" s="12">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
@@ -7610,47 +7586,47 @@
       </c>
       <c r="F4" s="12">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="G4" s="23">
         <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
-        <v>1.1694057268437723</v>
+        <v>1.2754944735311229</v>
       </c>
       <c r="H4" s="24">
         <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
-        <v>0.25667481093659106</v>
+        <v>0.37068062827225146</v>
       </c>
       <c r="I4" s="24">
         <f>Table36[maxT]/Table7[Nm2]-1</f>
-        <v>0.19053403141361258</v>
+        <v>0.37068062827225146</v>
       </c>
       <c r="J4" s="25">
         <f>1-Table36[maxTRpm]/Table36[ratedRpm]</f>
-        <v>0.21052631578947367</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
-        <v>972.43055555555554</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="L4" s="12">
         <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
-        <v>831.55959752321974</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="M4" s="12">
         <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="N4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>5.1062297243248866E-4</v>
+        <v>4.0010202645651574E-4</v>
       </c>
       <c r="O4" s="12">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.2765574310812216E-6</v>
+        <v>1.0002550661412894E-6</v>
       </c>
       <c r="P4" s="12">
         <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>0</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="Q4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
@@ -7658,14 +7634,14 @@
       </c>
       <c r="R4" s="12">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
-        <v>940.5</v>
+        <v>990</v>
       </c>
       <c r="S4" s="12" t="str">
         <f>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="4" customFormat="1" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -7738,12 +7714,12 @@
         <v>0</v>
       </c>
       <c r="B7" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E7" s="20"/>
@@ -7765,15 +7741,15 @@
       </c>
       <c r="J7" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>304.1749999999999</v>
+        <v>283.04374999999993</v>
       </c>
       <c r="K7" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(225) | 1900: 250(225) | 1500..1500: 1100(1045) | 90 | 0.5 | 300 | 1.8 | 2000 | 1300: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
       </c>
       <c r="M7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7783,17 +7759,17 @@
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
         <v>412.50000000000011</v>
       </c>
-      <c r="O7" s="3" t="e">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>#DIV/0!</v>
+      <c r="O7" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>192.26852747677987</v>
       </c>
       <c r="P7" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1755514.7058823528</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -7801,19 +7777,19 @@
       </c>
       <c r="S7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>391.87500000000011</v>
-      </c>
-      <c r="T7" s="3" t="e">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>#DIV/0!</v>
+        <v>412.50000000000011</v>
+      </c>
+      <c r="T7" s="3">
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>192.26852747677987</v>
       </c>
       <c r="U7" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1579963.2352941176</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7821,13 +7797,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>240.37037037037044</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>228.3518518518519</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>240.37037037037044</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="3">
@@ -7836,7 +7812,7 @@
       </c>
       <c r="G8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>228.3518518518519</v>
+        <v>240.37037037037044</v>
       </c>
       <c r="H8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -7844,19 +7820,19 @@
       </c>
       <c r="I8" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>3.2519216598797756</v>
+        <v>3.4230754314523959</v>
       </c>
       <c r="J8" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>289.7999999999999</v>
+        <v>272.4222222222221</v>
       </c>
       <c r="K8" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="240" motorTorqueEco="228" fuelUsageRatio="289.8"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="240" fuelUsageRatio="272.4"/&gt;</v>
       </c>
       <c r="L8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.05" torque="0.219"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.045" torque="0.219"/&gt;</v>
       </c>
       <c r="M8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7867,36 +7843,36 @@
         <v>501.11111111111131</v>
       </c>
       <c r="O8" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>329.80359907120709</v>
       </c>
       <c r="P8" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>17555.147058823528</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>197.38888888888894</v>
+        <v>207.77777777777783</v>
       </c>
       <c r="S8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>476.05555555555571</v>
+        <v>501.11111111111131</v>
       </c>
       <c r="T8" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>111.19823916408642</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>329.80359907120709</v>
       </c>
       <c r="U8" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>15799.632352941177</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7904,13 +7880,13 @@
         <v>400</v>
       </c>
       <c r="B9" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>704.81481481481478</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>669.57407407407413</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>704.81481481481478</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="3">
@@ -7919,7 +7895,7 @@
       </c>
       <c r="G9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>669.57407407407413</v>
+        <v>704.81481481481478</v>
       </c>
       <c r="H9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -7927,19 +7903,19 @@
       </c>
       <c r="I9" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>38.141182858250929</v>
+        <v>40.148613535000962</v>
       </c>
       <c r="J9" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>253.57499999999993</v>
+        <v>245.3493055555555</v>
       </c>
       <c r="K9" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="705" motorTorqueEco="670" fuelUsageRatio="253.6"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="705" fuelUsageRatio="245.3"/&gt;</v>
       </c>
       <c r="L9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.2" torque="0.641"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.182" torque="0.641"/&gt;</v>
       </c>
       <c r="M9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7950,36 +7926,36 @@
         <v>730.27777777777783</v>
       </c>
       <c r="O9" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>676.39197948916387</v>
       </c>
       <c r="P9" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>4388.786764705882</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>650.22222222222217</v>
+        <v>684.44444444444446</v>
       </c>
       <c r="S9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>693.76388888888903</v>
+        <v>730.27777777777783</v>
       </c>
       <c r="T9" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>531.4090315402475</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>676.39197948916387</v>
       </c>
       <c r="U9" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>3949.9080882352941</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7987,13 +7963,13 @@
         <v>700</v>
       </c>
       <c r="B10" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>912.59259259259272</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>866.96296296296305</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>912.59259259259272</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="3">
@@ -8002,7 +7978,7 @@
       </c>
       <c r="G10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>866.96296296296305</v>
+        <v>912.59259259259272</v>
       </c>
       <c r="H10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8010,19 +7986,19 @@
       </c>
       <c r="I10" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>86.423951910025224</v>
+        <v>90.972580957921295</v>
       </c>
       <c r="J10" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>227.7</v>
+        <v>225.46388888888887</v>
       </c>
       <c r="K10" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="913" motorTorqueEco="867" fuelUsageRatio="227.7"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="913" fuelUsageRatio="225.5"/&gt;</v>
       </c>
       <c r="L10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.35" torque="0.83"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.318" torque="0.83"/&gt;</v>
       </c>
       <c r="M10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8033,36 +8009,36 @@
         <v>904.44444444444457</v>
       </c>
       <c r="O10" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>923.95510835913308</v>
       </c>
       <c r="P10" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2507.8781512605042</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>894.05555555555554</v>
+        <v>941.11111111111109</v>
       </c>
       <c r="S10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>859.22222222222229</v>
+        <v>904.44444444444457</v>
       </c>
       <c r="T10" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>831.55959752321985</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>923.95510835913308</v>
       </c>
       <c r="U10" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2257.0903361344535</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8070,13 +8046,13 @@
         <v>800</v>
       </c>
       <c r="B11" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>953.33333333333337</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>905.66666666666674</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>953.33333333333337</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="3">
@@ -8085,7 +8061,7 @@
       </c>
       <c r="G11" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>905.66666666666674</v>
+        <v>953.33333333333337</v>
       </c>
       <c r="H11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8093,19 +8069,19 @@
       </c>
       <c r="I11" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>103.17961605584642</v>
+        <v>108.61012216404887</v>
       </c>
       <c r="J11" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>221.37499999999997</v>
+        <v>220.43263888888887</v>
       </c>
       <c r="K11" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="953" motorTorqueEco="906" fuelUsageRatio="221.4"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="800" motorTorque="953" fuelUsageRatio="220.4"/&gt;</v>
       </c>
       <c r="L11" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.4" torque="0.867"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.364" torque="0.867"/&gt;</v>
       </c>
       <c r="M11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8116,36 +8092,36 @@
         <v>950.27777777777783</v>
       </c>
       <c r="O11" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>984.47053986068101</v>
       </c>
       <c r="P11" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>2194.393382352941</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R11" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>928.8888888888888</v>
+        <v>977.77777777777771</v>
       </c>
       <c r="S11" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>902.76388888888891</v>
+        <v>950.27777777777783</v>
       </c>
       <c r="T11" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>904.9297358746129</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>984.47053986068101</v>
       </c>
       <c r="U11" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1974.9540441176471</v>
+        <v>0</v>
       </c>
       <c r="V11" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8153,13 +8129,13 @@
         <v>900</v>
       </c>
       <c r="B12" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>990</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>940.5</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>990</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="3">
@@ -8168,7 +8144,7 @@
       </c>
       <c r="G12" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>940.5</v>
+        <v>990</v>
       </c>
       <c r="H12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8176,19 +8152,19 @@
       </c>
       <c r="I12" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>120.54157068062827</v>
+        <v>126.88586387434555</v>
       </c>
       <c r="J12" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
         <v>216.2</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="990" motorTorqueEco="941" fuelUsageRatio="216.2"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="900" motorTorque="990" fuelUsageRatio="216.2"/&gt;</v>
       </c>
       <c r="L12" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.45" torque="0.9"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.409" torque="0.9"/&gt;</v>
       </c>
       <c r="M12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8199,36 +8175,36 @@
         <v>990</v>
       </c>
       <c r="O12" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1033.9831656346751</v>
       </c>
       <c r="P12" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1950.5718954248364</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R12" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>940.5</v>
+        <v>990</v>
       </c>
       <c r="S12" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>940.5</v>
+        <v>990</v>
       </c>
       <c r="T12" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>964.95984907120737</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1033.9831656346751</v>
       </c>
       <c r="U12" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1755.5147058823529</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8236,13 +8212,13 @@
         <v>1000</v>
       </c>
       <c r="B13" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1023.6111111111111</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>972.43055555555554</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1023.6111111111111</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="3">
@@ -8251,7 +8227,7 @@
       </c>
       <c r="G13" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>972.43055555555554</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="H13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8259,19 +8235,19 @@
       </c>
       <c r="I13" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>138.48225712623619</v>
+        <v>145.77079697498544</v>
       </c>
       <c r="J13" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>212.17499999999998</v>
+        <v>212.76597222222222</v>
       </c>
       <c r="K13" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1024" motorTorqueEco="972" fuelUsageRatio="212.2"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1000" motorTorque="1024" fuelUsageRatio="212.8"/&gt;</v>
       </c>
       <c r="L13" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.5" torque="0.931"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.455" torque="0.931"/&gt;</v>
       </c>
       <c r="M13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8282,36 +8258,36 @@
         <v>1023.6111111111111</v>
       </c>
       <c r="O13" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1072.4929856811145</v>
       </c>
       <c r="P13" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1755.5147058823527</v>
+        <v>333.54779411764702</v>
       </c>
       <c r="Q13" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R13" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>928.8888888888888</v>
+        <v>977.77777777777771</v>
       </c>
       <c r="S13" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>972.43055555555554</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="T13" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1011.6499371130031</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1072.4929856811145</v>
       </c>
       <c r="U13" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1579.9632352941176</v>
+        <v>333.54779411764702</v>
       </c>
       <c r="V13" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8319,13 +8295,13 @@
         <v>1100</v>
       </c>
       <c r="B14" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1051.1111111111111</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>998.55555555555566</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1051.1111111111111</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="3">
@@ -8334,7 +8310,7 @@
       </c>
       <c r="G14" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>998.55555555555566</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="H14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8342,19 +8318,19 @@
       </c>
       <c r="I14" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>156.42294357184412</v>
+        <v>164.65573007562537</v>
       </c>
       <c r="J14" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>209.3</v>
+        <v>210.13055555555556</v>
       </c>
       <c r="K14" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1051" motorTorqueEco="999" fuelUsageRatio="209.3"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1100" motorTorque="1051" fuelUsageRatio="210.1"/&gt;</v>
       </c>
       <c r="L14" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.55" torque="0.956"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.5" torque="0.956"/&gt;</v>
       </c>
       <c r="M14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8365,36 +8341,36 @@
         <v>1051.1111111111111</v>
       </c>
       <c r="O14" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1100</v>
       </c>
       <c r="P14" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1595.922459893048</v>
+        <v>574.5320855614973</v>
       </c>
       <c r="Q14" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R14" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>894.05555555555554</v>
+        <v>941.11111111111109</v>
       </c>
       <c r="S14" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>998.55555555555566</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="T14" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1045</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1100</v>
       </c>
       <c r="U14" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1436.3302139037432</v>
+        <v>574.5320855614973</v>
       </c>
       <c r="V14" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8402,13 +8378,13 @@
         <v>1200</v>
       </c>
       <c r="B15" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1072.5</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1018.875</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1072.5</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="3">
@@ -8417,7 +8393,7 @@
       </c>
       <c r="G15" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1018.875</v>
+        <v>1072.5</v>
       </c>
       <c r="H15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8425,19 +8401,19 @@
       </c>
       <c r="I15" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>174.11560209424087</v>
+        <v>183.27958115183247</v>
       </c>
       <c r="J15" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207.57499999999999</v>
+        <v>208.29374999999999</v>
       </c>
       <c r="K15" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1073" motorTorqueEco="1019" fuelUsageRatio="207.6"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1200" motorTorque="1073" fuelUsageRatio="208.3"/&gt;</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.6" torque="0.975"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.545" torque="0.975"/&gt;</v>
       </c>
       <c r="M15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8448,36 +8424,36 @@
         <v>1072.5</v>
       </c>
       <c r="O15" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1116.5042085913312</v>
       </c>
       <c r="P15" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1462.9289215686274</v>
+        <v>746.09375</v>
       </c>
       <c r="Q15" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R15" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>836.00000000000011</v>
+        <v>880.00000000000011</v>
       </c>
       <c r="S15" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1018.875</v>
+        <v>1072.5</v>
       </c>
       <c r="T15" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1065.010037732198</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1116.5042085913312</v>
       </c>
       <c r="U15" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1316.6360294117646</v>
+        <v>746.09375</v>
       </c>
       <c r="V15" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8485,13 +8461,13 @@
         <v>1300</v>
       </c>
       <c r="B16" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1087.7777777777778</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1033.3888888888889</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1087.7777777777778</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="3">
@@ -8500,7 +8476,7 @@
       </c>
       <c r="G16" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1033.3888888888889</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="H16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8508,19 +8484,19 @@
       </c>
       <c r="I16" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>191.31220477021526</v>
+        <v>201.38126817917399</v>
       </c>
       <c r="J16" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207</v>
+        <v>207.25555555555556</v>
       </c>
       <c r="K16" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1088" motorTorqueEco="1033" fuelUsageRatio="207"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1300" motorTorque="1088" fuelUsageRatio="207.3"/&gt;</v>
       </c>
       <c r="L16" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.65" torque="0.989"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.591" torque="0.989"/&gt;</v>
       </c>
       <c r="M16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8531,36 +8507,36 @@
         <v>1087.7777777777778</v>
       </c>
       <c r="O16" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1122.0056114551082</v>
       </c>
       <c r="P16" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1350.3959276018097</v>
+        <v>864.25339366515834</v>
       </c>
       <c r="Q16" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R16" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>754.72222222222229</v>
+        <v>794.44444444444446</v>
       </c>
       <c r="S16" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1033.3888888888889</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="T16" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1071.6800503095974</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1122.0056114551082</v>
       </c>
       <c r="U16" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1215.356334841629</v>
+        <v>864.25339366515834</v>
       </c>
       <c r="V16" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -8568,13 +8544,13 @@
         <v>1400</v>
       </c>
       <c r="B17" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1096.9444444444443</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1042.0972222222222</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1096.9444444444443</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="3">
@@ -8583,7 +8559,7 @@
       </c>
       <c r="G17" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1042.0972222222222</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="H17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8591,19 +8567,19 @@
       </c>
       <c r="I17" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>207.76472367655614</v>
+        <v>218.699709133217</v>
       </c>
       <c r="J17" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>207.63888888888889</v>
+        <v>207.01774691358025</v>
       </c>
       <c r="K17" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1097" motorTorqueEco="1042" fuelUsageRatio="207.6"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1400" motorTorque="1097" fuelUsageRatio="207"/&gt;</v>
       </c>
       <c r="L17" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.7" torque="0.997"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.636" torque="0.997"/&gt;</v>
       </c>
       <c r="M17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8614,36 +8590,36 @@
         <v>1096.9444444444443</v>
       </c>
       <c r="O17" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1116.5042085913312</v>
       </c>
       <c r="P17" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1253.9390756302521</v>
+        <v>940.45430672268901</v>
       </c>
       <c r="Q17" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R17" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>650.22222222222217</v>
+        <v>684.44444444444446</v>
       </c>
       <c r="S17" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1042.0972222222222</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="T17" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1065.010037732198</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1116.5042085913312</v>
       </c>
       <c r="U17" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1128.5451680672268</v>
+        <v>940.45430672268901</v>
       </c>
       <c r="V17" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -8651,13 +8627,13 @@
         <v>1500</v>
       </c>
       <c r="B18" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1100</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>1045</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1100</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="3">
@@ -8666,7 +8642,7 @@
       </c>
       <c r="G18" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>1045</v>
+        <v>1100</v>
       </c>
       <c r="H18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8674,19 +8650,19 @@
       </c>
       <c r="I18" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>223.22513089005241</v>
+        <v>234.97382198952886</v>
       </c>
       <c r="J18" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>209.55555555555554</v>
+        <v>207.63888888888889</v>
       </c>
       <c r="K18" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1100" motorTorqueEco="1045" fuelUsageRatio="209.6"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1500" motorTorque="1100" fuelUsageRatio="207.6"/&gt;</v>
       </c>
       <c r="L18" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.75" torque="1"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.682" torque="1"/&gt;</v>
       </c>
       <c r="M18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8697,36 +8673,36 @@
         <v>1100</v>
       </c>
       <c r="O18" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1100</v>
       </c>
       <c r="P18" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1170.3431372549019</v>
+        <v>983.08823529411757</v>
       </c>
       <c r="Q18" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R18" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>522.49999999999989</v>
+        <v>549.99999999999989</v>
       </c>
       <c r="S18" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1045</v>
+        <v>1100</v>
       </c>
       <c r="T18" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>1045</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1100</v>
       </c>
       <c r="U18" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1053.3088235294117</v>
+        <v>983.08823529411757</v>
       </c>
       <c r="V18" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -8734,13 +8710,13 @@
         <v>1600</v>
       </c>
       <c r="B19" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1072.4929856811145</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>987.47702205882354</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1072.4929856811145</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="3">
@@ -8749,7 +8725,7 @@
       </c>
       <c r="G19" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>987.47702205882354</v>
+        <v>1072.4929856811145</v>
       </c>
       <c r="H19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8757,19 +8733,19 @@
       </c>
       <c r="I19" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>225</v>
+        <v>244.37117663268117</v>
       </c>
       <c r="J19" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>212.75</v>
+        <v>209.14737654320987</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1072" motorTorqueEco="987" fuelUsageRatio="212.8"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1600" motorTorque="1072" fuelUsageRatio="209.1"/&gt;</v>
       </c>
       <c r="L19" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.8" torque="0.975"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.727" torque="0.975"/&gt;</v>
       </c>
       <c r="M19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8780,36 +8756,36 @@
         <v>1096.9444444444443</v>
       </c>
       <c r="O19" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>1072.4929856811145</v>
       </c>
       <c r="P19" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1097.1966911764705</v>
+        <v>998.44898897058829</v>
       </c>
       <c r="Q19" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R19" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>371.55555555555577</v>
+        <v>391.11111111111131</v>
       </c>
       <c r="S19" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1042.0972222222222</v>
+        <v>1096.9444444444443</v>
       </c>
       <c r="T19" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>987.47702205882354</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1072.4929856811145</v>
       </c>
       <c r="U19" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>987.47702205882354</v>
+        <v>998.44898897058829</v>
       </c>
       <c r="V19" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -8817,13 +8793,13 @@
         <v>1700</v>
       </c>
       <c r="B20" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>1032.6557093425604</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>929.39013840830444</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>1032.6557093425604</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="3">
@@ -8832,7 +8808,7 @@
       </c>
       <c r="G20" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>929.39013840830444</v>
+        <v>1032.6557093425604</v>
       </c>
       <c r="H20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8840,19 +8816,19 @@
       </c>
       <c r="I20" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>225</v>
+        <v>249.99999999999994</v>
       </c>
       <c r="J20" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>217.22222222222223</v>
+        <v>211.54320987654322</v>
       </c>
       <c r="K20" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1033" motorTorqueEco="929" fuelUsageRatio="217.2"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1700" motorTorque="1033" fuelUsageRatio="211.5"/&gt;</v>
       </c>
       <c r="L20" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.85" torque="0.939"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.773" torque="0.939"/&gt;</v>
       </c>
       <c r="M20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8863,36 +8839,36 @@
         <v>1087.7777777777778</v>
       </c>
       <c r="O20" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>1032.6557093425604</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>1033.9831656346748</v>
       </c>
       <c r="P20" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>1032.6557093425604</v>
+        <v>991.34948096885807</v>
       </c>
       <c r="Q20" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R20" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>197.38888888888894</v>
+        <v>207.77777777777783</v>
       </c>
       <c r="S20" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1033.3888888888889</v>
+        <v>1087.7777777777778</v>
       </c>
       <c r="T20" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>929.39013840830444</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>1033.9831656346748</v>
       </c>
       <c r="U20" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>929.39013840830444</v>
+        <v>991.34948096885807</v>
       </c>
       <c r="V20" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -8900,13 +8876,13 @@
         <v>1800</v>
       </c>
       <c r="B21" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>975.28594771241819</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>877.75735294117646</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>975.28594771241819</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="3">
@@ -8915,7 +8891,7 @@
       </c>
       <c r="G21" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>877.75735294117646</v>
+        <v>975.28594771241819</v>
       </c>
       <c r="H21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -8923,19 +8899,19 @@
       </c>
       <c r="I21" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>225</v>
+        <v>249.99999999999994</v>
       </c>
       <c r="J21" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>222.97222222222223</v>
+        <v>214.82638888888889</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="975" motorTorqueEco="878" fuelUsageRatio="223"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1800" motorTorque="975" fuelUsageRatio="214.8"/&gt;</v>
       </c>
       <c r="L21" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.9" torque="0.887"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.818" torque="0.887"/&gt;</v>
       </c>
       <c r="M21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -8946,16 +8922,16 @@
         <v>1072.5</v>
       </c>
       <c r="O21" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
-        <v>975.28594771241819</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
+        <v>984.47053986068101</v>
       </c>
       <c r="P21" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>975.28594771241819</v>
+        <v>965.53308823529403</v>
       </c>
       <c r="Q21" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R21" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -8963,19 +8939,19 @@
       </c>
       <c r="S21" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>1018.875</v>
+        <v>1072.5</v>
       </c>
       <c r="T21" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>877.75735294117646</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>984.47053986068101</v>
       </c>
       <c r="U21" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>877.75735294117646</v>
+        <v>965.53308823529403</v>
       </c>
       <c r="V21" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -8983,13 +8959,13 @@
         <v>1900</v>
       </c>
       <c r="B22" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>923.95510835913308</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>831.55959752321974</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>923.95510835913308</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="3">
@@ -8998,7 +8974,7 @@
       </c>
       <c r="G22" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>831.55959752321974</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="H22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
@@ -9006,19 +8982,19 @@
       </c>
       <c r="I22" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J22" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>230</v>
+        <v>218.99691358024691</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="924" motorTorqueEco="832" fuelUsageRatio="230"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="1900" motorTorque="924" fuelUsageRatio="219"/&gt;</v>
       </c>
       <c r="L22" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.95" torque="0.84"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.864" torque="0.84"/&gt;</v>
       </c>
       <c r="M22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9029,7 +9005,7 @@
         <v>1051.1111111111111</v>
       </c>
       <c r="O22" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>923.95510835913308</v>
       </c>
       <c r="P22" s="3">
@@ -9038,27 +9014,27 @@
       </c>
       <c r="Q22" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>923.95510835913308</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R22" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-220.61111111111126</v>
+        <v>-232.22222222222237</v>
       </c>
       <c r="S22" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>998.55555555555566</v>
+        <v>1051.1111111111111</v>
       </c>
       <c r="T22" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>831.55959752321974</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>923.95510835913308</v>
       </c>
       <c r="U22" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>831.55959752321974</v>
+        <v>923.95510835913308</v>
       </c>
       <c r="V22" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>831.55959752321974</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -9066,42 +9042,42 @@
         <v>2000</v>
       </c>
       <c r="B23" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>796.06627888149092</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
+        <v>868.97977941176464</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>716.45965099334182</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>868.97977941176464</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>796.06627888149092</v>
+        <v>868.97977941176464</v>
       </c>
       <c r="G23" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>716.45965099334182</v>
+        <v>868.97977941176464</v>
       </c>
       <c r="H23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>226.7330134615346</v>
+        <v>247.5</v>
       </c>
       <c r="I23" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>204.05971211538113</v>
+        <v>247.5</v>
       </c>
       <c r="J23" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>244.75450687929043</v>
+        <v>224.05478395061729</v>
       </c>
       <c r="K23" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="796" motorTorqueEco="716" fuelUsageRatio="244.8"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2000" motorTorque="869" fuelUsageRatio="224.1"/&gt;</v>
       </c>
       <c r="L23" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="1" torque="0.724"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.909" torque="0.79"/&gt;</v>
       </c>
       <c r="M23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9112,36 +9088,36 @@
         <v>1023.6111111111111</v>
       </c>
       <c r="O23" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>852.4368711300308</v>
       </c>
       <c r="P23" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>877.75735294117635</v>
+        <v>868.97977941176464</v>
       </c>
       <c r="Q23" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>796.06627888149092</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R23" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-464.44444444444463</v>
+        <v>-488.88888888888908</v>
       </c>
       <c r="S23" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>972.43055555555554</v>
+        <v>1023.6111111111111</v>
       </c>
       <c r="T23" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>744.84943401702776</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>852.4368711300308</v>
       </c>
       <c r="U23" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>789.98161764705878</v>
+        <v>868.97977941176464</v>
       </c>
       <c r="V23" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>716.45965099334182</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -9149,42 +9125,42 @@
         <v>2100</v>
       </c>
       <c r="B24" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>478.62033819495952</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
+        <v>802.52100840336129</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>430.75830437546352</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>802.52100840336129</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>478.62033819495952</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="G24" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>430.75830437546352</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="H24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>143.13504564238789</v>
+        <v>240</v>
       </c>
       <c r="I24" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>128.8215410781491</v>
+        <v>240</v>
       </c>
       <c r="J24" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>313.46409493927865</v>
+        <v>230</v>
       </c>
       <c r="K24" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="479" motorTorqueEco="431" fuelUsageRatio="313.5"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2100" motorTorque="803" fuelUsageRatio="230"/&gt;</v>
       </c>
       <c r="L24" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v/>
+        <v xml:space="preserve">        &lt;torque normRpm="0.955" torque="0.73"/&gt;</v>
       </c>
       <c r="M24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9195,36 +9171,36 @@
         <v>990</v>
       </c>
       <c r="O24" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>769.91582817337451</v>
       </c>
       <c r="P24" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>835.95938375350136</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="Q24" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>478.62033819495952</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="R24" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-731.50000000000034</v>
+        <v>-770.00000000000034</v>
       </c>
       <c r="S24" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>940.5</v>
+        <v>990</v>
       </c>
       <c r="T24" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>644.79924535603709</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>769.91582817337451</v>
       </c>
       <c r="U24" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>752.36344537815125</v>
+        <v>802.52100840336129</v>
       </c>
       <c r="V24" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>430.75830437546352</v>
+        <v>802.52100840336129</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -9232,42 +9208,42 @@
         <v>2200</v>
       </c>
       <c r="B25" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>0</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
+        <v>636.71088270018754</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>0</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>636.71088270018754</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
+        <v>636.71088270018754</v>
       </c>
       <c r="G25" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>0</v>
+        <v>636.71088270018754</v>
       </c>
       <c r="H25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>0</v>
+        <v>199.48051948051949</v>
       </c>
       <c r="I25" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>0</v>
+        <v>199.48051948051949</v>
       </c>
       <c r="J25" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>460</v>
+        <v>262.03842321622847</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="0" motorTorqueEco="0" fuelUsageRatio="460"/&gt;</v>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2200" motorTorque="637" fuelUsageRatio="262"/&gt;</v>
       </c>
       <c r="L25" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v/>
+        <v xml:space="preserve">        &lt;torque normRpm="1" torque="0.579"/&gt;</v>
       </c>
       <c r="M25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -9278,36 +9254,36 @@
         <v>950.27777777777783</v>
       </c>
       <c r="O25" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>676.39197948916399</v>
       </c>
       <c r="P25" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>797.96122994652399</v>
+        <v>726.14471925133694</v>
       </c>
       <c r="Q25" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>0</v>
+        <v>636.71088270018754</v>
       </c>
       <c r="R25" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1021.7777777777782</v>
+        <v>-1075.5555555555559</v>
       </c>
       <c r="S25" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>902.76388888888891</v>
+        <v>950.27777777777783</v>
       </c>
       <c r="T25" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>531.40903154024738</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>676.39197948916399</v>
       </c>
       <c r="U25" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>718.16510695187162</v>
+        <v>726.14471925133694</v>
       </c>
       <c r="V25" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>0</v>
+        <v>636.71088270018754</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -9315,38 +9291,38 @@
         <v>2300</v>
       </c>
       <c r="B26" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
-        <v>0</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
+        <v>139.28050559066608</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
-        <v>0</v>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
+        <v>139.28050559066608</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>0</v>
+        <v>139.28050559066608</v>
       </c>
       <c r="G26" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>0</v>
+        <v>139.28050559066608</v>
       </c>
       <c r="H26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>0</v>
+        <v>45.619834710743824</v>
       </c>
       <c r="I26" s="30">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>0</v>
+        <v>45.619834710743824</v>
       </c>
       <c r="J26" s="30">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>460</v>
+        <v>411.23669051775721</v>
       </c>
       <c r="K26" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v/>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2300" motorTorque="139" fuelUsageRatio="411.2"/&gt;</v>
       </c>
       <c r="L26" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
@@ -9361,36 +9337,36 @@
         <v>904.44444444444457</v>
       </c>
       <c r="O26" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>571.86532507739912</v>
       </c>
       <c r="P26" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>763.26726342710992</v>
+        <v>641.1445012787724</v>
       </c>
       <c r="Q26" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>0</v>
+        <v>139.28050559066608</v>
       </c>
       <c r="R26" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1335.2777777777769</v>
+        <v>-1405.5555555555547</v>
       </c>
       <c r="S26" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>859.22222222222229</v>
+        <v>904.44444444444457</v>
       </c>
       <c r="T26" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>404.67879256965921</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>571.86532507739912</v>
       </c>
       <c r="U26" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>686.9405370843989</v>
+        <v>641.1445012787724</v>
       </c>
       <c r="V26" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>0</v>
+        <v>139.28050559066608</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -9398,12 +9374,12 @@
         <v>2400</v>
       </c>
       <c r="B27" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E27" s="21"/>
@@ -9428,8 +9404,8 @@
         <v>460</v>
       </c>
       <c r="K27" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v/>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <v xml:space="preserve">        &lt;torque rpm="2400" motorTorque="0" fuelUsageRatio="460"/&gt;</v>
       </c>
       <c r="L27" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
@@ -9444,12 +9420,12 @@
         <v>852.5</v>
       </c>
       <c r="O27" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>456.33586493808031</v>
       </c>
       <c r="P27" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>731.4644607843137</v>
+        <v>548.59834558823525</v>
       </c>
       <c r="Q27" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9457,19 +9433,19 @@
       </c>
       <c r="R27" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-1671.9999999999995</v>
+        <v>-1759.9999999999995</v>
       </c>
       <c r="S27" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>809.875</v>
+        <v>852.5</v>
       </c>
       <c r="T27" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>264.60852844427217</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>456.33586493808031</v>
       </c>
       <c r="U27" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>658.31801470588232</v>
+        <v>548.59834558823525</v>
       </c>
       <c r="V27" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9481,12 +9457,12 @@
         <v>2500</v>
       </c>
       <c r="B28" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E28" s="21"/>
@@ -9511,7 +9487,7 @@
         <v>460</v>
       </c>
       <c r="K28" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L28" s="10" t="str">
@@ -9527,12 +9503,12 @@
         <v>794.44444444444457</v>
       </c>
       <c r="O28" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>329.80359907120709</v>
       </c>
       <c r="P28" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>702.2058823529411</v>
+        <v>449.41176470588232</v>
       </c>
       <c r="Q28" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9540,19 +9516,19 @@
       </c>
       <c r="R28" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-2031.9444444444443</v>
+        <v>-2138.8888888888887</v>
       </c>
       <c r="S28" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>754.72222222222229</v>
+        <v>794.44444444444457</v>
       </c>
       <c r="T28" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
-        <v>111.19823916408642</v>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
+        <v>329.80359907120709</v>
       </c>
       <c r="U28" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>631.98529411764707</v>
+        <v>449.41176470588232</v>
       </c>
       <c r="V28" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9564,12 +9540,12 @@
         <v>2750</v>
       </c>
       <c r="B29" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E29" s="21"/>
@@ -9594,7 +9570,7 @@
         <v>460</v>
       </c>
       <c r="K29" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L29" s="10" t="str">
@@ -9610,12 +9586,12 @@
         <v>622.56944444444457</v>
       </c>
       <c r="O29" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>638.36898395721914</v>
+        <v>177.14739304812832</v>
       </c>
       <c r="Q29" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9623,19 +9599,19 @@
       </c>
       <c r="R29" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-3033.4027777777769</v>
+        <v>-3193.0555555555547</v>
       </c>
       <c r="S29" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>591.44097222222229</v>
+        <v>622.56944444444457</v>
       </c>
       <c r="T29" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U29" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>574.5320855614973</v>
+        <v>177.14739304812832</v>
       </c>
       <c r="V29" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9647,12 +9623,12 @@
         <v>3000</v>
       </c>
       <c r="B30" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E30" s="21"/>
@@ -9677,7 +9653,7 @@
         <v>460</v>
       </c>
       <c r="K30" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L30" s="10" t="str">
@@ -9693,12 +9669,12 @@
         <v>412.50000000000011</v>
       </c>
       <c r="O30" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P30" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>585.17156862745094</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9706,19 +9682,19 @@
       </c>
       <c r="R30" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-4180.0000000000009</v>
+        <v>-4400.0000000000009</v>
       </c>
       <c r="S30" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>391.87500000000011</v>
+        <v>412.50000000000011</v>
       </c>
       <c r="T30" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U30" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>526.65441176470586</v>
+        <v>0</v>
       </c>
       <c r="V30" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9730,12 +9706,12 @@
         <v>3250</v>
       </c>
       <c r="B31" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E31" s="21"/>
@@ -9760,7 +9736,7 @@
         <v>460</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L31" s="10" t="str">
@@ -9776,12 +9752,12 @@
         <v>164.23611111111137</v>
       </c>
       <c r="O31" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P31" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>540.15837104072398</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9789,19 +9765,19 @@
       </c>
       <c r="R31" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-5471.7361111111113</v>
+        <v>-5759.7222222222217</v>
       </c>
       <c r="S31" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>156.02430555555583</v>
+        <v>164.23611111111137</v>
       </c>
       <c r="T31" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U31" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>486.14253393665155</v>
+        <v>0</v>
       </c>
       <c r="V31" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9813,12 +9789,12 @@
         <v>3500</v>
       </c>
       <c r="B32" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E32" s="21"/>
@@ -9843,7 +9819,7 @@
         <v>460</v>
       </c>
       <c r="K32" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L32" s="10" t="str">
@@ -9859,12 +9835,12 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>501.57563025210078</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9872,19 +9848,19 @@
       </c>
       <c r="R32" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-6908.6111111111113</v>
+        <v>-7272.2222222222217</v>
       </c>
       <c r="S32" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>451.41806722689074</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9896,12 +9872,12 @@
         <v>3750</v>
       </c>
       <c r="B33" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E33" s="21"/>
@@ -9926,7 +9902,7 @@
         <v>460</v>
       </c>
       <c r="K33" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L33" s="10" t="str">
@@ -9942,12 +9918,12 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>468.13725490196072</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9955,19 +9931,19 @@
       </c>
       <c r="R33" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-8490.6250000000018</v>
+        <v>-8937.5000000000018</v>
       </c>
       <c r="S33" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U33" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>421.3235294117647</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -9979,12 +9955,12 @@
         <v>4000</v>
       </c>
       <c r="B34" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E34" s="21"/>
@@ -10009,7 +9985,7 @@
         <v>460</v>
       </c>
       <c r="K34" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L34" s="10" t="str">
@@ -10025,12 +10001,12 @@
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P34" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>438.87867647058818</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10038,19 +10014,19 @@
       </c>
       <c r="R34" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-10217.777777777779</v>
+        <v>-10755.555555555558</v>
       </c>
       <c r="S34" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T34" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U34" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>394.99080882352939</v>
+        <v>0</v>
       </c>
       <c r="V34" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10062,12 +10038,12 @@
         <v>4250</v>
       </c>
       <c r="B35" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E35" s="21"/>
@@ -10092,7 +10068,7 @@
         <v>460</v>
       </c>
       <c r="K35" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L35" s="10" t="str">
@@ -10108,12 +10084,12 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P35" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>413.06228373702419</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10121,19 +10097,19 @@
       </c>
       <c r="R35" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-12090.069444444445</v>
+        <v>-12726.388888888889</v>
       </c>
       <c r="S35" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U35" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>371.75605536332176</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10145,12 +10121,12 @@
         <v>4500</v>
       </c>
       <c r="B36" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E36" s="21"/>
@@ -10175,7 +10151,7 @@
         <v>460</v>
       </c>
       <c r="K36" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L36" s="10" t="str">
@@ -10191,12 +10167,12 @@
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P36" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>390.11437908496731</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10204,19 +10180,19 @@
       </c>
       <c r="R36" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-14107.5</v>
+        <v>-14850</v>
       </c>
       <c r="S36" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T36" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U36" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>351.10294117647055</v>
+        <v>0</v>
       </c>
       <c r="V36" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10228,12 +10204,12 @@
         <v>4750</v>
       </c>
       <c r="B37" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E37" s="21"/>
@@ -10258,7 +10234,7 @@
         <v>460</v>
       </c>
       <c r="K37" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L37" s="10" t="str">
@@ -10274,12 +10250,12 @@
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P37" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>369.5820433436532</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10287,19 +10263,19 @@
       </c>
       <c r="R37" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-16270.069444444445</v>
+        <v>-17126.388888888891</v>
       </c>
       <c r="S37" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T37" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U37" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>332.62383900928791</v>
+        <v>0</v>
       </c>
       <c r="V37" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10311,12 +10287,12 @@
         <v>5000</v>
       </c>
       <c r="B38" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E38" s="21"/>
@@ -10341,7 +10317,7 @@
         <v>460</v>
       </c>
       <c r="K38" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L38" s="10" t="str">
@@ -10357,12 +10333,12 @@
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P38" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>351.10294117647055</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10370,19 +10346,19 @@
       </c>
       <c r="R38" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-18577.777777777777</v>
+        <v>-19555.555555555555</v>
       </c>
       <c r="S38" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T38" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U38" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>315.99264705882354</v>
+        <v>0</v>
       </c>
       <c r="V38" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10394,12 +10370,12 @@
         <v>5250</v>
       </c>
       <c r="B39" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E39" s="21"/>
@@ -10424,7 +10400,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L39" s="10" t="str">
@@ -10440,12 +10416,12 @@
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P39" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>334.38375350140052</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10453,19 +10429,19 @@
       </c>
       <c r="R39" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-21030.624999999996</v>
+        <v>-22137.499999999996</v>
       </c>
       <c r="S39" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T39" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U39" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>300.94537815126051</v>
+        <v>0</v>
       </c>
       <c r="V39" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10477,12 +10453,12 @@
         <v>5500</v>
       </c>
       <c r="B40" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E40" s="21"/>
@@ -10507,7 +10483,7 @@
         <v>460</v>
       </c>
       <c r="K40" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L40" s="10" t="str">
@@ -10523,12 +10499,12 @@
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P40" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>319.18449197860957</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10536,19 +10512,19 @@
       </c>
       <c r="R40" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-23628.611111111106</v>
+        <v>-24872.222222222219</v>
       </c>
       <c r="S40" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T40" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U40" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>287.26604278074865</v>
+        <v>0</v>
       </c>
       <c r="V40" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10560,12 +10536,12 @@
         <v>5750</v>
       </c>
       <c r="B41" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E41" s="21"/>
@@ -10590,7 +10566,7 @@
         <v>460</v>
       </c>
       <c r="K41" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L41" s="10" t="str">
@@ -10606,12 +10582,12 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>305.30690537084394</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10619,19 +10595,19 @@
       </c>
       <c r="R41" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-26371.736111111113</v>
+        <v>-27759.722222222226</v>
       </c>
       <c r="S41" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>274.77621483375958</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10643,12 +10619,12 @@
         <v>6000</v>
       </c>
       <c r="B42" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="3">
-        <f>MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco])))))</f>
+        <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
       <c r="E42" s="22"/>
@@ -10673,7 +10649,7 @@
         <v>460</v>
       </c>
       <c r="K42" s="10" t="str">
-        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),""" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""" fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
+        <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
         <v/>
       </c>
       <c r="L42" s="10" t="str">
@@ -10689,12 +10665,12 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f>MIN(Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
         <v>0</v>
       </c>
       <c r="P42" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>292.58578431372547</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
@@ -10702,19 +10678,19 @@
       </c>
       <c r="R42" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>-29260.000000000004</v>
+        <v>-30800.000000000004</v>
       </c>
       <c r="S42" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="T42" s="3">
-        <f>MIN(Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco]))</f>
+        <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
         <v>0</v>
       </c>
       <c r="U42" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
-        <v>263.32720588235293</v>
+        <v>0</v>
       </c>
       <c r="V42" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>

--- a/Documents/MotorNeu.xlsx
+++ b/Documents/MotorNeu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="0" windowWidth="20400" windowHeight="9945"/>
+    <workbookView xWindow="26100" yWindow="0" windowWidth="20400" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Calculate from Values" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>rpm</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>fadeOutExp</t>
+  </si>
+  <si>
+    <t>g/kWh</t>
+  </si>
+  <si>
+    <t>max kW</t>
+  </si>
+  <si>
+    <t>rated kW</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -512,7 +521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -526,65 +534,115 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="76">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="6"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1402,6 +1460,47 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1447,6 +1546,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1459,6 +1561,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1677,67 +1782,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240.37037037037044</c:v>
+                  <c:v>65.594032081968592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>704.81481481481478</c:v>
+                  <c:v>198.07791719156796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>912.59259259259272</c:v>
+                  <c:v>268.84252792475007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>953.33333333333337</c:v>
+                  <c:v>286.43267993617201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>990</c:v>
+                  <c:v>303.77999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1023.6111111111111</c:v>
+                  <c:v>320.2873469387755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1051.1111111111111</c:v>
+                  <c:v>334.25510204081633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1072.5</c:v>
+                  <c:v>345.68326530612245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1087.7777777777778</c:v>
+                  <c:v>354.57183673469387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1096.9444444444443</c:v>
+                  <c:v>360.9208163265306</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1100</c:v>
+                  <c:v>364.73020408163262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1072.4929856811145</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1032.6557093425604</c:v>
+                  <c:v>361.40352941176468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>975.28594771241819</c:v>
+                  <c:v>355.27490196078435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>923.95510835913308</c:v>
+                  <c:v>347.61411764705883</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>868.97977941176464</c:v>
+                  <c:v>338.42117647058825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>802.52100840336129</c:v>
+                  <c:v>327.69607843137254</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>636.71088270018754</c:v>
+                  <c:v>310.4069184491978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.28050559066608</c:v>
+                  <c:v>290.04156010230173</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>242.73862745517255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>57.094595048925981</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -1951,67 +2056,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240.37037037037044</c:v>
+                  <c:v>65.594032081968592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>704.81481481481478</c:v>
+                  <c:v>198.07791719156796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>912.59259259259272</c:v>
+                  <c:v>268.84252792475007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>953.33333333333337</c:v>
+                  <c:v>286.43267993617201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>990</c:v>
+                  <c:v>303.77999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1023.6111111111111</c:v>
+                  <c:v>320.2873469387755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1051.1111111111111</c:v>
+                  <c:v>334.25510204081633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1072.5</c:v>
+                  <c:v>345.68326530612245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1087.7777777777778</c:v>
+                  <c:v>354.57183673469387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1096.9444444444443</c:v>
+                  <c:v>360.9208163265306</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1100</c:v>
+                  <c:v>364.73020408163262</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1072.4929856811145</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1032.6557093425604</c:v>
+                  <c:v>361.40352941176468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>975.28594771241819</c:v>
+                  <c:v>355.27490196078435</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>923.95510835913308</c:v>
+                  <c:v>347.61411764705883</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>868.97977941176464</c:v>
+                  <c:v>338.42117647058825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>802.52100840336129</c:v>
+                  <c:v>327.69607843137254</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>636.71088270018754</c:v>
+                  <c:v>310.4069184491978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139.28050559066608</c:v>
+                  <c:v>290.04156010230173</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>242.73862745517255</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>57.094595048925981</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -2068,8 +2173,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324524728"/>
-        <c:axId val="357168752"/>
+        <c:axId val="376552432"/>
+        <c:axId val="376552040"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2239,67 +2344,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4230754314523959</c:v>
+                  <c:v>0.93411396472751085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.148613535000962</c:v>
+                  <c:v>11.283181879812876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.972580957921295</c:v>
+                  <c:v>26.799799642341583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.61012216404887</c:v>
+                  <c:v>32.632330447178546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.88586387434555</c:v>
+                  <c:v>38.934735078534025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>145.77079697498544</c:v>
+                  <c:v>45.61160123944866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164.65573007562537</c:v>
+                  <c:v>52.360799230687043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.27958115183247</c:v>
+                  <c:v>59.073831306763559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201.38126817917399</c:v>
+                  <c:v>65.642199722192544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218.699709133217</c:v>
+                  <c:v>71.957406731488419</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.97382198952886</c:v>
+                  <c:v>77.910954589165499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244.37117663268117</c:v>
+                  <c:v>83.394345549738219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>249.99999999999994</c:v>
+                  <c:v>87.493713089005226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>249.99999999999994</c:v>
+                  <c:v>91.069419895287965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>250</c:v>
+                  <c:v>94.056008376963348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>247.5</c:v>
+                  <c:v>96.388020942408389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>240</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199.48051948051949</c:v>
+                  <c:v>97.249999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.619834710743824</c:v>
+                  <c:v>94.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>82.963233509286212</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>20.326871535743283</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0">
                   <c:v>0</c:v>
@@ -2513,67 +2618,67 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4230754314523959</c:v>
+                  <c:v>0.93411396472751085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.148613535000962</c:v>
+                  <c:v>11.283181879812876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.972580957921295</c:v>
+                  <c:v>26.799799642341583</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.61012216404887</c:v>
+                  <c:v>32.632330447178546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126.88586387434555</c:v>
+                  <c:v>38.934735078534025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>145.77079697498544</c:v>
+                  <c:v>45.61160123944866</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164.65573007562537</c:v>
+                  <c:v>52.360799230687043</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.27958115183247</c:v>
+                  <c:v>59.073831306763559</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201.38126817917399</c:v>
+                  <c:v>65.642199722192544</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218.699709133217</c:v>
+                  <c:v>71.957406731488419</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>234.97382198952886</c:v>
+                  <c:v>77.910954589165499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>244.37117663268117</c:v>
+                  <c:v>83.394345549738219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>249.99999999999994</c:v>
+                  <c:v>87.493713089005226</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>249.99999999999994</c:v>
+                  <c:v>91.069419895287965</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>250</c:v>
+                  <c:v>94.056008376963348</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>247.5</c:v>
+                  <c:v>96.388020942408389</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>240</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>199.48051948051949</c:v>
+                  <c:v>97.249999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45.619834710743824</c:v>
+                  <c:v>94.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>82.963233509286212</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0">
-                  <c:v>0</c:v>
+                  <c:v>20.326871535743283</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0">
                   <c:v>0</c:v>
@@ -2630,11 +2735,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276489232"/>
-        <c:axId val="357169136"/>
+        <c:axId val="376553216"/>
+        <c:axId val="376548904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324524728"/>
+        <c:axId val="376552432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -2738,13 +2843,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357168752"/>
+        <c:crossAx val="376552040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357168752"/>
+        <c:axId val="376552040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,12 +2951,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324524728"/>
+        <c:crossAx val="376552432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357169136"/>
+        <c:axId val="376548904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,12 +2999,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276489232"/>
+        <c:crossAx val="376553216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276489232"/>
+        <c:axId val="376553216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +3014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="357169136"/>
+        <c:crossAx val="376548904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3197,112 +3302,112 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>283.04374999999993</c:v>
+                  <c:v>279.95096371882079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272.4222222222221</c:v>
+                  <c:v>271.35827664399085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>245.3493055555555</c:v>
+                  <c:v>249.23667800453509</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225.46388888888887</c:v>
+                  <c:v>232.59977324263036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.43263888888887</c:v>
+                  <c:v>228.27295918367346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216.2</c:v>
+                  <c:v>224.55555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>212.76597222222222</c:v>
+                  <c:v>221.44756235827663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210.13055555555556</c:v>
+                  <c:v>218.94897959183672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208.29374999999999</c:v>
+                  <c:v>217.05980725623581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207.25555555555556</c:v>
+                  <c:v>215.78004535147392</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>207.01774691358025</c:v>
+                  <c:v>215.10969387755102</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>207.63888888888889</c:v>
+                  <c:v>215.05416981607459</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209.14737654320987</c:v>
+                  <c:v>215.66358024691357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>211.54320987654322</c:v>
+                  <c:v>216.95011337868482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>214.82638888888889</c:v>
+                  <c:v>218.91376921138826</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>218.99691358024691</c:v>
+                  <c:v>221.55454774502394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224.05478395061729</c:v>
+                  <c:v>224.87244897959184</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>230</c:v>
+                  <c:v>228.86747291509195</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>262.03842321622847</c:v>
+                  <c:v>233.53961955152431</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>411.23669051775721</c:v>
+                  <c:v>238.88888888888889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>460</c:v>
+                  <c:v>272.16551203617928</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>460</c:v>
+                  <c:v>427.12989594839519</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>460</c:v>
+                  <c:v>477.77777777777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,11 +3422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276490800"/>
-        <c:axId val="276490016"/>
+        <c:axId val="376548512"/>
+        <c:axId val="376555176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276490800"/>
+        <c:axId val="376548512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6000"/>
@@ -3425,13 +3530,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276490016"/>
+        <c:crossAx val="376555176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276490016"/>
+        <c:axId val="376555176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -3529,7 +3634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276490800"/>
+        <c:crossAx val="376548512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3845,11 +3950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="276490408"/>
-        <c:axId val="276491192"/>
+        <c:axId val="376555960"/>
+        <c:axId val="375547304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="276490408"/>
+        <c:axId val="376555960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2700"/>
@@ -3908,12 +4013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276491192"/>
+        <c:crossAx val="375547304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="276491192"/>
+        <c:axId val="375547304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,7 +4075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276490408"/>
+        <c:crossAx val="376555960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4231,11 +4336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324870288"/>
-        <c:axId val="324875384"/>
+        <c:axId val="375541816"/>
+        <c:axId val="375542992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324870288"/>
+        <c:axId val="375541816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2400"/>
@@ -4294,12 +4399,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324875384"/>
+        <c:crossAx val="375542992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324875384"/>
+        <c:axId val="375542992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324870288"/>
+        <c:crossAx val="375541816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6769,66 +6874,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A6:V42" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="22">
-    <tableColumn id="1" name="rpm" dataDxfId="70"/>
-    <tableColumn id="7" name="rawData" dataDxfId="2">
+    <tableColumn id="1" name="rpm" dataDxfId="73"/>
+    <tableColumn id="7" name="rawData" dataDxfId="72">
       <calculatedColumnFormula>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="manualData" dataDxfId="69"/>
-    <tableColumn id="12" name="rawDataEco" dataDxfId="1">
+    <tableColumn id="9" name="manualData" dataDxfId="71"/>
+    <tableColumn id="12" name="rawDataEco" dataDxfId="70">
       <calculatedColumnFormula>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="manDataEco" dataDxfId="68"/>
-    <tableColumn id="4" name="motor" dataDxfId="67">
+    <tableColumn id="11" name="manDataEco" dataDxfId="69"/>
+    <tableColumn id="4" name="motor" dataDxfId="68">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="motorEco" dataDxfId="66">
+    <tableColumn id="14" name="motorEco" dataDxfId="67">
       <calculatedColumnFormula>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="65">
+    <tableColumn id="3" name="ps" dataDxfId="66">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="psEco" dataDxfId="64">
+    <tableColumn id="13" name="psEco" dataDxfId="65">
       <calculatedColumnFormula>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="63">
+    <tableColumn id="10" name="fuelUsageRatio" dataDxfId="64">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="0">
+    <tableColumn id="5" name="xml" dataDxfId="63">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="xml2" dataDxfId="62">
       <calculatedColumnFormula>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="t1" dataDxfId="11">
+    <tableColumn id="15" name="t1" dataDxfId="61">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="t2" dataDxfId="9">
+    <tableColumn id="18" name="t2" dataDxfId="60">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="t3" dataDxfId="8">
+    <tableColumn id="19" name="t3" dataDxfId="59">
       <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="t4" dataDxfId="7">
+    <tableColumn id="16" name="t4" dataDxfId="58">
       <calculatedColumnFormula>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="t5" dataDxfId="6">
+    <tableColumn id="17" name="t5" dataDxfId="57">
       <calculatedColumnFormula>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="t1E" dataDxfId="5">
+    <tableColumn id="21" name="t1E" dataDxfId="56">
       <calculatedColumnFormula>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="t2E" dataDxfId="4">
+    <tableColumn id="22" name="t2E" dataDxfId="55">
       <calculatedColumnFormula>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="t3E" dataDxfId="3">
+    <tableColumn id="23" name="t3E" dataDxfId="54">
       <calculatedColumnFormula>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="t4E" dataDxfId="10">
+    <tableColumn id="24" name="t4E" dataDxfId="53">
       <calculatedColumnFormula>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="t5E" dataDxfId="61">
+    <tableColumn id="25" name="t5E" dataDxfId="52">
       <calculatedColumnFormula>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6837,7 +6942,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table36" displayName="Table36" ref="A1:Y2" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A1:Y2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -6862,45 +6967,45 @@
     <filterColumn colId="21" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="25">
-    <tableColumn id="10" name="maxPRpm" dataDxfId="59"/>
-    <tableColumn id="14" name="maxPS" dataDxfId="58"/>
-    <tableColumn id="19" name="maxPSEco" dataDxfId="57">
+    <tableColumn id="10" name="maxPRpm" dataDxfId="50"/>
+    <tableColumn id="14" name="maxPS" dataDxfId="49"/>
+    <tableColumn id="19" name="maxPSEco" dataDxfId="48">
       <calculatedColumnFormula>Table36[maxPsEcoRate]*Table36[maxPS]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="ratedRpm"/>
     <tableColumn id="3" name="PS"/>
-    <tableColumn id="20" name="PSEco" dataDxfId="56">
+    <tableColumn id="20" name="PSEco" dataDxfId="47">
       <calculatedColumnFormula>Table36[PS]*Table36[PSEcoRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="maxTRpm1" dataDxfId="55"/>
-    <tableColumn id="4" name="maxTRpm" dataDxfId="54"/>
-    <tableColumn id="5" name="maxT" dataDxfId="53"/>
-    <tableColumn id="21" name="maxTEco" dataDxfId="52">
+    <tableColumn id="12" name="maxTRpm1" dataDxfId="46"/>
+    <tableColumn id="4" name="maxTRpm" dataDxfId="45"/>
+    <tableColumn id="5" name="maxT" dataDxfId="44"/>
+    <tableColumn id="21" name="maxTEco" dataDxfId="43">
       <calculatedColumnFormula>Table36[NmEcoRate]*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="idleRpm"/>
     <tableColumn id="7" name="idleRatio" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="fadeOut" dataDxfId="51"/>
-    <tableColumn id="15" name="linearDown" dataDxfId="50"/>
-    <tableColumn id="25" name="fadeOutExp" dataDxfId="49"/>
-    <tableColumn id="22" name="Efficiency" dataDxfId="48"/>
-    <tableColumn id="16" name="Factor" dataDxfId="47"/>
-    <tableColumn id="13" name="fuelMinRate" dataDxfId="46"/>
-    <tableColumn id="18" name="fuelRatedRate" dataDxfId="45">
+    <tableColumn id="11" name="fadeOut" dataDxfId="42"/>
+    <tableColumn id="15" name="linearDown" dataDxfId="41"/>
+    <tableColumn id="25" name="fadeOutExp" dataDxfId="40"/>
+    <tableColumn id="22" name="Efficiency" dataDxfId="39"/>
+    <tableColumn id="16" name="Factor" dataDxfId="38"/>
+    <tableColumn id="13" name="fuelMinRate" dataDxfId="37"/>
+    <tableColumn id="18" name="fuelRatedRate" dataDxfId="36">
       <calculatedColumnFormula>Table36[fuelMinRate]/0.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="fuelMinRpm" dataDxfId="44">
+    <tableColumn id="9" name="fuelMinRpm" dataDxfId="35">
       <calculatedColumnFormula>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="fuelIdleRate" dataDxfId="43">
+    <tableColumn id="17" name="fuelIdleRate" dataDxfId="34">
       <calculatedColumnFormula>0.94*Table36[fuelRatedRate]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="normRpm" dataDxfId="42">
+    <tableColumn id="1" name="normRpm" dataDxfId="33">
       <calculatedColumnFormula>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="PSEcoRate" dataDxfId="41"/>
+    <tableColumn id="8" name="PSEcoRate" dataDxfId="32"/>
     <tableColumn id="23" name="NmEcoRate"/>
-    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="40">
+    <tableColumn id="24" name="maxPsEcoRate" dataDxfId="31">
       <calculatedColumnFormula>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6909,80 +7014,72 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:S4" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A3:S4">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="19">
-    <tableColumn id="1" name="f1" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:V4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <tableColumns count="22">
+    <tableColumn id="1" name="f1" dataDxfId="28">
       <calculatedColumnFormula>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="f2" dataDxfId="36">
+    <tableColumn id="2" name="f2" dataDxfId="27">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="f3" dataDxfId="35">
+    <tableColumn id="5" name="f3" dataDxfId="26">
       <calculatedColumnFormula>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="f4" dataDxfId="34">
+    <tableColumn id="6" name="f4" dataDxfId="25">
       <calculatedColumnFormula>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Nm" dataDxfId="33">
+    <tableColumn id="3" name="Nm" dataDxfId="24">
       <calculatedColumnFormula>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Nm2" dataDxfId="32">
+    <tableColumn id="4" name="Nm2" dataDxfId="23">
       <calculatedColumnFormula>Table36[PS]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Anfahrmoment" dataDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="7" name="Anfahrmoment" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>Table7[Nm1000]/Table7[Nm2Eco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="AnstiegE" dataDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="17" name="AnstiegE" dataDxfId="21" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxTEco]/Table7[Nm2Eco]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Anstieg" dataDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="14" name="Anstieg" dataDxfId="20" dataCellStyle="Percent">
       <calculatedColumnFormula>Table36[maxT]/Table7[Nm2]-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Abfall" dataDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="15" name="Abfall" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>1-Table36[maxTRpm]/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Nm1000" dataDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="20" name="max kW" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table36[maxPS]/1.36</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="rated kW" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table36[PS]/1.36</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="g/kWh" dataDxfId="0" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table36[fuelRatedRate]*1.1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="Nm1000" dataDxfId="18" dataCellStyle="Percent">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="NmEco" dataDxfId="26">
+    <tableColumn id="8" name="NmEco" dataDxfId="17">
       <calculatedColumnFormula>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Nm2Eco" dataDxfId="25">
+    <tableColumn id="9" name="Nm2Eco" dataDxfId="16">
       <calculatedColumnFormula>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="f2Eco" dataDxfId="24">
+    <tableColumn id="12" name="f2Eco" dataDxfId="15">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f3Eco" dataDxfId="23">
+    <tableColumn id="10" name="f3Eco" dataDxfId="14">
       <calculatedColumnFormula>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f4Eco" dataDxfId="22">
+    <tableColumn id="11" name="f4Eco" dataDxfId="13">
       <calculatedColumnFormula>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="idleT" dataDxfId="21">
+    <tableColumn id="13" name="idleT" dataDxfId="12">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="idleTEco" dataDxfId="20">
+    <tableColumn id="19" name="idleTEco" dataDxfId="11">
       <calculatedColumnFormula>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="xmlComment" dataDxfId="19">
+    <tableColumn id="21" name="xmlComment" dataDxfId="10">
       <calculatedColumnFormula>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6999,17 +7096,17 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$A$22*Table1[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="18">
+    <tableColumn id="6" name="kw_pto" dataDxfId="9">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="17">
+    <tableColumn id="3" name="ps" dataDxfId="8">
       <calculatedColumnFormula>Table1[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor"/>
-    <tableColumn id="5" name="xml" dataDxfId="16">
+    <tableColumn id="5" name="xml" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table1[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table1[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="xml2" dataDxfId="15">
+    <tableColumn id="8" name="xml2" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("&lt;torque normRpm=""",ROUND(Table1[[#This Row],[rpm]]/Table3[ratedRpm],3),""" torque=""",ROUND(Table1[[#This Row],[motor]]/MAX(Table1[motor]),3),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7043,16 +7140,16 @@
     <tableColumn id="2" name="pto">
       <calculatedColumnFormula>$I$2*Table13[[#This Row],[rawData]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="kw_pto" dataDxfId="14">
+    <tableColumn id="6" name="kw_pto" dataDxfId="5">
       <calculatedColumnFormula>A2*C2/9550</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="ps" dataDxfId="13">
+    <tableColumn id="3" name="ps" dataDxfId="4">
       <calculatedColumnFormula>Table13[[#This Row],[kw_pto]]*1.36/0.94</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="motor">
       <calculatedColumnFormula>C2/0.94</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="xml" dataDxfId="12">
+    <tableColumn id="5" name="xml" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("&lt;torque rpm=""",Table13[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table13[[#This Row],[motor]],0),"""/&gt;")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7326,7 +7423,7 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7420,78 +7517,78 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1900</v>
-      </c>
-      <c r="B2" s="14">
-        <v>250</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="12">
+        <v>2100</v>
+      </c>
+      <c r="B2" s="13">
+        <v>98</v>
+      </c>
+      <c r="C2" s="17">
         <f>Table36[maxPsEcoRate]*Table36[maxPS]</f>
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D2" s="7">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E2" s="8">
-        <v>240</v>
-      </c>
-      <c r="F2" s="19">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18">
         <f>Table36[PS]*Table36[PSEcoRate]</f>
-        <v>240</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1100</v>
-      </c>
-      <c r="J2" s="18">
+        <v>95</v>
+      </c>
+      <c r="G2" s="12">
+        <v>1600</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1600</v>
+      </c>
+      <c r="I2" s="13">
+        <v>366</v>
+      </c>
+      <c r="J2" s="17">
         <f>Table36[NmEcoRate]*Table36[maxT]</f>
-        <v>1100</v>
-      </c>
-      <c r="K2" s="7">
+        <v>366</v>
+      </c>
+      <c r="K2" s="30">
         <v>900</v>
       </c>
-      <c r="L2" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="M2" s="9">
+      <c r="L2" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="M2" s="32">
         <v>220</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="12">
         <v>0.5</v>
       </c>
-      <c r="O2" s="14">
-        <v>2</v>
-      </c>
-      <c r="P2" s="14">
+      <c r="O2" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P2" s="13">
         <v>0.94</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>1</v>
       </c>
-      <c r="R2" s="31">
-        <v>207</v>
-      </c>
-      <c r="S2" s="16">
+      <c r="R2" s="29">
+        <v>215</v>
+      </c>
+      <c r="S2" s="15">
         <f>Table36[fuelMinRate]/0.9</f>
-        <v>230</v>
-      </c>
-      <c r="T2" s="17">
+        <v>238.88888888888889</v>
+      </c>
+      <c r="T2" s="16">
         <f>ROUND(MIN(0.6*Table36[idleRpm]+0.4*Table36[ratedRpm],0.5*Table36[maxTRpm1]+0.5*Table36[maxTRpm]),-1)</f>
-        <v>1380</v>
-      </c>
-      <c r="U2" s="19">
+        <v>1460</v>
+      </c>
+      <c r="U2" s="18">
         <f>0.94*Table36[fuelRatedRate]</f>
-        <v>216.2</v>
-      </c>
-      <c r="V2" s="16">
+        <v>224.55555555555554</v>
+      </c>
+      <c r="V2" s="15">
         <f>ROUND(Table36[ratedRpm]+0.49*Table36[fadeOut],-2)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="W2" s="7">
         <v>1</v>
@@ -7499,149 +7596,170 @@
       <c r="X2" s="9">
         <v>1</v>
       </c>
-      <c r="Y2" s="29">
+      <c r="Y2" s="27">
         <f>Table36[PSEcoRate]* (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]) + Table36[NmEcoRate]* (1- (Table36[maxPRpm]-Table36[maxTRpm])/(Table36[ratedRpm]-Table36[maxTRpm]))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <f>(1-Table36[idleRatio])/((Table36[maxTRpm1]-Table36[idleRpm])^2)</f>
-        <v>2.7777777777777771E-7</v>
-      </c>
-      <c r="B4" s="12">
+        <v>3.4693877551020417E-7</v>
+      </c>
+      <c r="B4" s="11">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>4.0010202645651574E-4</v>
-      </c>
-      <c r="C4" s="12">
+        <v>2.0931104682310087E-4</v>
+      </c>
+      <c r="C4" s="11">
         <f>(Table36[maxT]-Table7[Nm])/Table36[maxT]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.0002550661412894E-6</v>
-      </c>
-      <c r="D4" s="12">
+        <v>4.1862209364620175E-7</v>
+      </c>
+      <c r="D4" s="11">
         <f>(Table36[maxPS]-Table36[PS])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="E4" s="12">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="E4" s="11">
         <f>Table36[maxPS]/1.36*9550/Table36[maxPRpm]</f>
-        <v>923.95510835913308</v>
-      </c>
-      <c r="F4" s="12">
+        <v>327.69607843137254</v>
+      </c>
+      <c r="F4" s="11">
         <f>Table36[PS]/1.36*9550/Table36[ratedRpm]</f>
-        <v>802.52100840336129</v>
-      </c>
-      <c r="G4" s="23">
+        <v>290.04156010230173</v>
+      </c>
+      <c r="G4" s="22">
         <f>Table7[Nm1000]/Table7[Nm2Eco]</f>
-        <v>1.2754944735311229</v>
-      </c>
-      <c r="H4" s="24">
+        <v>1.1042808721129678</v>
+      </c>
+      <c r="H4" s="23">
         <f>Table36[maxTEco]/Table7[Nm2Eco]-1</f>
-        <v>0.37068062827225146</v>
-      </c>
-      <c r="I4" s="24">
+        <v>0.26188812344998658</v>
+      </c>
+      <c r="I4" s="23">
         <f>Table36[maxT]/Table7[Nm2]-1</f>
-        <v>0.37068062827225146</v>
-      </c>
-      <c r="J4" s="25">
+        <v>0.26188812344998658</v>
+      </c>
+      <c r="J4" s="23">
         <f>1-Table36[maxTRpm]/Table36[ratedRpm]</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K4" s="12">
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="K4" s="33">
+        <f>Table36[maxPS]/1.36</f>
+        <v>72.058823529411754</v>
+      </c>
+      <c r="L4" s="34">
+        <f>Table36[PS]/1.36</f>
+        <v>69.85294117647058</v>
+      </c>
+      <c r="M4" s="35">
+        <f>Table36[fuelRatedRate]*1.1</f>
+        <v>262.77777777777777</v>
+      </c>
+      <c r="N4" s="11">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-1000)^2)*Table36[maxTEco]</f>
-        <v>1023.6111111111111</v>
-      </c>
-      <c r="L4" s="12">
+        <v>320.2873469387755</v>
+      </c>
+      <c r="O4" s="11">
         <f>Table36[maxPSEco]/1.36*9550/Table36[maxPRpm]</f>
-        <v>923.95510835913308</v>
-      </c>
-      <c r="M4" s="12">
+        <v>327.69607843137254</v>
+      </c>
+      <c r="P4" s="11">
         <f>Table36[PSEco]/1.36*9550/Table36[ratedRpm]</f>
-        <v>802.52100840336129</v>
-      </c>
-      <c r="N4" s="12">
+        <v>290.04156010230173</v>
+      </c>
+      <c r="Q4" s="11">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])</f>
-        <v>4.0010202645651574E-4</v>
-      </c>
-      <c r="O4" s="12">
+        <v>2.0931104682310087E-4</v>
+      </c>
+      <c r="R4" s="11">
         <f>(Table36[maxTEco]-Table7[NmEco])/Table36[maxTEco]/(Table36[maxPRpm]-Table36[maxTRpm])^2</f>
-        <v>1.0002550661412894E-6</v>
-      </c>
-      <c r="P4" s="12">
+        <v>4.1862209364620175E-7</v>
+      </c>
+      <c r="S4" s="11">
         <f>(Table36[maxPSEco]-Table36[PSEco])/MAX(1,Table36[ratedRpm]-Table36[maxPRpm])^2</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="Q4" s="12">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="T4" s="11">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxT]</f>
-        <v>990</v>
-      </c>
-      <c r="R4" s="12">
+        <v>303.77999999999997</v>
+      </c>
+      <c r="U4" s="11">
         <f>(1-Table7[f1]*(Table36[maxTRpm1]-Table36[idleRpm])^2)*Table36[maxTEco]</f>
-        <v>990</v>
-      </c>
-      <c r="S4" s="12" t="str">
+        <v>303.77999999999997</v>
+      </c>
+      <c r="V4" s="11" t="str">
         <f>CONCATENATE("        &lt;!-- ",Table36[maxPRpm],": ",Table36[maxPS],"(",ROUND(Table36[maxPSEco],0),") | ",Table36[ratedRpm],": ",Table36[PS],"(",ROUND(Table36[PSEco],0),") | ",Table36[maxTRpm1],"..",Table36[maxTRpm],": ",Table36[maxT],"(",ROUND(Table36[maxTEco],0),") | ",Table36[idleRatio]*100," | ",Table36[linearDown]," | ",Table36[fadeOut]," | ",Table36[fadeOutExp]," | ",Table36[normRpm]," | ",Table36[fuelMinRpm],": ",Table36[fuelMinRate]," --&gt;")</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 2100: 98(98) | 2300: 95(95) | 1600..1600: 366(366) | 83 | 0.5 | 220 | 2.3 | 2400 | 1460: 215 --&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="4" customFormat="1" ht="63" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="4" customFormat="1" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -7717,12 +7835,12 @@
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
         <v>0</v>
@@ -7731,25 +7849,25 @@
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
         <v>0</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
         <v>0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
         <v>0</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="28">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>283.04374999999993</v>
+        <v>279.95096371882079</v>
       </c>
       <c r="K7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 2100: 98(98) | 2300: 95(95) | 1600..1600: 366(366) | 83 | 0.5 | 220 | 2.3 | 2400 | 1460: 215 --&gt;</v>
       </c>
       <c r="L7" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;!-- 1900: 250(250) | 2100: 240(240) | 1500..1500: 1100(1100) | 90 | 0.5 | 220 | 2 | 2200 | 1380: 207 --&gt;</v>
+        <v xml:space="preserve">        &lt;!-- 2100: 98(98) | 2300: 95(95) | 1600..1600: 366(366) | 83 | 0.5 | 220 | 2.3 | 2400 | 1460: 215 --&gt;</v>
       </c>
       <c r="M7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
@@ -7757,11 +7875,11 @@
       </c>
       <c r="N7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>412.50000000000011</v>
+        <v>40.932244897959109</v>
       </c>
       <c r="O7" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>192.26852747677987</v>
+        <v>231.17019607843136</v>
       </c>
       <c r="P7" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7769,7 +7887,7 @@
       </c>
       <c r="Q7" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
       <c r="R7" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
@@ -7777,11 +7895,11 @@
       </c>
       <c r="S7" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>412.50000000000011</v>
+        <v>40.932244897959109</v>
       </c>
       <c r="T7" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>192.26852747677987</v>
+        <v>231.17019607843136</v>
       </c>
       <c r="U7" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7789,7 +7907,7 @@
       </c>
       <c r="V7" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7798,53 +7916,53 @@
       </c>
       <c r="B8" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
-        <v>240.37037037037044</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>65.594032081968592</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
-        <v>240.37037037037044</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>65.594032081968592</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>240.37037037037044</v>
+        <v>65.594032081968592</v>
       </c>
       <c r="G8" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>240.37037037037044</v>
-      </c>
-      <c r="H8" s="30">
+        <v>65.594032081968592</v>
+      </c>
+      <c r="H8" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>3.4230754314523959</v>
-      </c>
-      <c r="I8" s="30">
+        <v>0.93411396472751085</v>
+      </c>
+      <c r="I8" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>3.4230754314523959</v>
-      </c>
-      <c r="J8" s="30">
+        <v>0.93411396472751085</v>
+      </c>
+      <c r="J8" s="28">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>272.4222222222221</v>
+        <v>271.35827664399085</v>
       </c>
       <c r="K8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="240" fuelUsageRatio="272.4"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="100" motorTorque="66" fuelUsageRatio="271.4"/&gt;</v>
       </c>
       <c r="L8" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.045" torque="0.219"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.042" torque="0.179"/&gt;</v>
       </c>
       <c r="M8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>207.77777777777783</v>
+        <v>63.756296296296306</v>
       </c>
       <c r="N8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>501.11111111111131</v>
+        <v>80.295918367346886</v>
       </c>
       <c r="O8" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>329.80359907120709</v>
+        <v>251.0882352941176</v>
       </c>
       <c r="P8" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7852,19 +7970,19 @@
       </c>
       <c r="Q8" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
       <c r="R8" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>207.77777777777783</v>
+        <v>63.756296296296306</v>
       </c>
       <c r="S8" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>501.11111111111131</v>
+        <v>80.295918367346886</v>
       </c>
       <c r="T8" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>329.80359907120709</v>
+        <v>251.0882352941176</v>
       </c>
       <c r="U8" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7872,7 +7990,7 @@
       </c>
       <c r="V8" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7881,53 +7999,53 @@
       </c>
       <c r="B9" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
-        <v>704.81481481481478</v>
-      </c>
-      <c r="C9" s="21"/>
+        <v>198.07791719156796</v>
+      </c>
+      <c r="C9" s="20"/>
       <c r="D9" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
-        <v>704.81481481481478</v>
-      </c>
-      <c r="E9" s="21"/>
+        <v>198.07791719156796</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>704.81481481481478</v>
+        <v>198.07791719156796</v>
       </c>
       <c r="G9" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>704.81481481481478</v>
-      </c>
-      <c r="H9" s="30">
+        <v>198.07791719156796</v>
+      </c>
+      <c r="H9" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>40.148613535000962</v>
-      </c>
-      <c r="I9" s="30">
+        <v>11.283181879812876</v>
+      </c>
+      <c r="I9" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>40.148613535000962</v>
-      </c>
-      <c r="J9" s="30">
+        <v>11.283181879812876</v>
+      </c>
+      <c r="J9" s="28">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>245.3493055555555</v>
+        <v>249.23667800453509</v>
       </c>
       <c r="K9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="705" fuelUsageRatio="245.3"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="400" motorTorque="198" fuelUsageRatio="249.2"/&gt;</v>
       </c>
       <c r="L9" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.182" torque="0.641"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.167" torque="0.541"/&gt;</v>
       </c>
       <c r="M9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>684.44444444444446</v>
+        <v>210.02074074074071</v>
       </c>
       <c r="N9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxT])</f>
-        <v>730.27777777777783</v>
+        <v>183.149387755102</v>
       </c>
       <c r="O9" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxT])</f>
-        <v>676.39197948916387</v>
+        <v>301.64941176470586</v>
       </c>
       <c r="P9" s="3">
         <f>MAX(0,(Table36[maxPS]-Table7[f4]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7935,19 +8053,19 @@
       </c>
       <c r="Q9" s="3">
         <f>MAX(0,Table7[Nm2]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
       <c r="R9" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleTEco]</f>
-        <v>684.44444444444446</v>
+        <v>210.02074074074071</v>
       </c>
       <c r="S9" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)*Table36[maxTEco])</f>
-        <v>730.27777777777783</v>
+        <v>183.149387755102</v>
       </c>
       <c r="T9" s="3">
         <f>MAX(0,(Table36[linearDown]*(1-Table7[f2Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm]))+(1-Table36[linearDown])*(1-Table7[f3Eco]*(Table15[[#This Row],[rpm]]-Table36[maxTRpm])^2))*Table36[maxTEco])</f>
-        <v>676.39197948916387</v>
+        <v>301.64941176470586</v>
       </c>
       <c r="U9" s="3">
         <f>MAX(0,(Table36[maxPSEco]-Table7[f4Eco]*(Table15[[#This Row],[rpm]]-Table36[maxPRpm])^2)/1.36*9550/MAX(1,Table15[[#This Row],[rpm]]))</f>
@@ -7955,7 +8073,7 @@
       </c>
       <c r="V9" s="3">
         <f>MAX(0,Table7[Nm2Eco]*MIN(Table36[ratedRpm]/MAX(1,Table15[[#This Row],[rpm]]),1-(MAX(0,Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^Table36[fadeOutExp]))</f>
-        <v>802.52100840336129</v>
+        <v>290.04156010230173</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7964,53 +8082,53 @@
       </c>
       <c r="B10" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[Nm]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5]],Table15[[#This Row],[t4]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3]],Table36[maxT]))))))</f>
-        <v>912.59259259259272</v>
-      </c>
-      <c r="C10" s="21"/>
+        <v>268.84252792475007</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="3">
         <f>MIN(IF(Table15[[#This Row],[rpm]]&gt;0,Table7[NmEco]*Table36[maxPRpm]/Table15[[#This Row],[rpm]],0),MAX(0,IF(Table15[[#This Row],[rpm]]&lt;Table36[idleRpm],(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])*Table15[[#This Row],[t1E]]+Table15[[#This Row],[rpm]]/Table36[idleRpm]*Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;=Table36[maxPRpm],IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm],Table15[[#This Row],[t5E]],Table15[[#This Row],[t4E]]),IF(Table15[[#This Row],[rpm]]&lt;Table36[maxTRpm1],Table15[[#This Row],[t2E]],IF(Table15[[#This Row],[rpm]]&gt;Table36[maxTRpm],Table15[[#This Row],[t3E]],Table36[maxTEco]))))))</f>
-        <v>912.59259259259272</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>268.84252792475007</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manualData]]&gt;0,Table15[[#This Row],[manualData]],Table15[[#This Row],[rawData]])</f>
-        <v>912.59259259259272</v>
+        <v>268.84252792475007</v>
       </c>
       <c r="G10" s="3">
         <f>Table36[Factor]*IF(Table15[[#This Row],[manDataEco]]&gt;0,Table15[[#This Row],[manDataEco]],Table15[[#This Row],[rawDataEco]])</f>
-        <v>912.59259259259272</v>
-      </c>
-      <c r="H10" s="30">
+        <v>268.84252792475007</v>
+      </c>
+      <c r="H10" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motor]]/9550</f>
-        <v>90.972580957921295</v>
-      </c>
-      <c r="I10" s="30">
+        <v>26.799799642341583</v>
+      </c>
+      <c r="I10" s="28">
         <f>1.36*Table15[[#This Row],[rpm]]*Table15[[#This Row],[motorEco]]/9550</f>
-        <v>90.972580957921295</v>
-      </c>
-      <c r="J10" s="30">
+        <v>26.799799642341583</v>
+      </c>
+      <c r="J10" s="28">
         <f>IF(Table15[[#This Row],[rpm]]&lt;=Table36[fuelMinRpm],Table36[fuelMinRate]+(Table36[fuelIdleRate]-Table36[fuelMinRate])*((Table36[fuelMinRpm]-Table15[[#This Row],[rpm]])/(Table36[fuelMinRpm]-Table36[idleRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm],Table36[fuelMinRate]+(Table36[fuelRatedRate]-Table36[fuelMinRate])*((Table15[[#This Row],[rpm]]-Table36[fuelMinRpm])/(Table36[ratedRpm]-Table36[fuelMinRpm]))^2,IF(Table15[[#This Row],[rpm]]&lt;=Table36[ratedRpm]+Table36[fadeOut],Table36[fuelRatedRate]+Table36[fuelRatedRate]*((Table15[[#This Row],[rpm]]-Table36[ratedRpm])/Table36[fadeOut])^2.5,Table36[fuelRatedRate]*2)))</f>
-        <v>225.46388888888887</v>
+        <v>232.59977324263036</v>
       </c>
       <c r="K10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[ratedRpm]+Table36[fadeOut]+99,"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque rpm=""",Table15[[#This Row],[rpm]],""" motorTorque=""",ROUND(Table15[[#This Row],[motor]],0),"""",IF( Table15[[#This Row],[motorEco]] &lt; Table15[[#This Row],[motor]],CONCATENATE(" motorTorqueEco=""",ROUND(Table15[[#This Row],[motorEco]],0),""""),"")," fuelUsageRatio=""",ROUND(Table15[[#This Row],[fuelUsageRatio]],1),"""/&gt;",CONCATENATE(IF(Table15[[#This Row],[manualData]]&gt;0,CONCATENATE("&lt;!-- manualData: ",Table15[[#This Row],[manualData]],"--&gt;"),""),IF(Table15[[#This Row],[manDataEco]]&gt;0,CONCATENATE("&lt;!-- manDataEco: ",Table15[[#This Row],[manDataEco]],"--&gt;"),"")))))</f>
-        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="913" fuelUsageRatio="225.5"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque rpm="700" motorTorque="269" fuelUsageRatio="232.6"/&gt;</v>
       </c>
       <c r="L10" s="10" t="str">
         <f>IF(Table15[[#This Row],[rpm]]&gt;Table36[normRpm],"",IF(Table15[[#This Row],[rpm]]&lt;1,Table7[xmlComment],CONCATENATE("        &lt;torque normRpm=""",ROUND(Table15[[#This Row],[rpm]]/Table36[normRpm],3),""" torque=""",ROUND(Table15[[#This Row],[motor]]/MAX(Table15[motor]),3),"""/&gt;")))</f>
-        <v xml:space="preserve">        &lt;torque normRpm="0.318" torque="0.83"/&gt;</v>
+        <v xml:space="preserve">        &lt;torque normRpm="0.292" torque="0.735"/&gt;</v>
       </c>
       <c r="M10" s="3">
         <f>(1-(1-Table15[[#This Row],[rpm]]/Table36[idleRpm])^2)*Table7[idleT]</f>
-        <v>941.11111111111109</v>
+        <v>288.77851851851847</v>
       </c>
       <c r="N10" s="3">
         <f>MAX(0,(1-Table7[f1]*(Table36[maxTRpm1]-Table15[[#This Row],[rpm]])^2)